--- a/data/네이트판.xlsx
+++ b/data/네이트판.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="675">
   <si>
     <t>제목</t>
   </si>
@@ -31,214 +31,2014 @@
     <t>추천수</t>
   </si>
   <si>
-    <t>대학교 팀플프로젝트로 인해 설문조사 참여부탁드립니다.</t>
-  </si>
-  <si>
-    <t>구라 ㅈㄴ 까는 남친</t>
-  </si>
-  <si>
-    <t>노동법으로 고통받는 자영업자..청원 도와주세요..</t>
+    <t>22년 대통령은 누구?</t>
+  </si>
+  <si>
+    <t>장원영</t>
+  </si>
+  <si>
+    <t>친오빠 생일</t>
+  </si>
+  <si>
+    <t>이재명을 왜 지지해?</t>
+  </si>
+  <si>
+    <t>ㅎㅎ</t>
+  </si>
+  <si>
+    <t>이번 대통령 어찌되는건가 ..</t>
+  </si>
+  <si>
+    <t>짝 찾아주세요….</t>
+  </si>
+  <si>
+    <t>자랑을 밥먹듯이 하는 남자친구 어떻게하면 멈출까요</t>
+  </si>
+  <si>
+    <t>보겸 팔로우한 남자 걸러 ㅜㅜ???</t>
+  </si>
+  <si>
+    <t>윤동주가 자기 시에 쳐놓은 결계</t>
+  </si>
+  <si>
+    <t>대통령 선거할때</t>
+  </si>
+  <si>
+    <t>(친구) 부담스럽다는건</t>
+  </si>
+  <si>
+    <t>코로나 블루나 조기정신증 때문에 힘든 분들 계시나요?</t>
+  </si>
+  <si>
+    <t>애플 고객센터 상담분 너무 고마운데…</t>
+  </si>
+  <si>
+    <t>대구 신종 거지</t>
+  </si>
+  <si>
+    <t>주차 똑바로 안 할거면 차 몰고 다닐 생각하지마라</t>
+  </si>
+  <si>
+    <t>211006에스파 젤칼바지교환루머</t>
+  </si>
+  <si>
+    <t>과거의 엄마에 대한 기억들</t>
+  </si>
+  <si>
+    <t>젊은여자</t>
+  </si>
+  <si>
+    <t>서울 어딘가에 사는 배은빈씨 보세요.</t>
+  </si>
+  <si>
+    <t>연락 한통 없다가 8년후 돌아온 오빠 딸을 내놓으라네요</t>
+  </si>
+  <si>
+    <t>ㅇㅇㅇㅇㅇ</t>
+  </si>
+  <si>
+    <t>ㅇㅇㅇㅇㅇㅇ</t>
+  </si>
+  <si>
+    <t>공군부대에서 고양이 찾을수있을까요</t>
+  </si>
+  <si>
+    <t>절친이 자기남친 소개시켜주는 자리에 계산은 보통  어케해?</t>
+  </si>
+  <si>
+    <t>내신 5점대여서 수시 버리고 정시로 가려고 하는데 수행평가 챙길까 말까</t>
+  </si>
+  <si>
+    <t>여기네이트판 맞나요?4</t>
+  </si>
+  <si>
+    <t>오디션 추요 왔다는</t>
+  </si>
+  <si>
+    <t>아빠가 아픈 할머니께 연락좀 드리라는데 여러분 같으면 하시겠어요??</t>
+  </si>
+  <si>
+    <t>나 ㅈ소 다니는데 사장 ㅈㄴ빻았음</t>
+  </si>
+  <si>
+    <t>간호사가 후려치기당한다는 애들</t>
+  </si>
+  <si>
+    <t>스피치 학원 다녀본 사람!! 이것 좀 봐줘ㅜㅜ</t>
+  </si>
+  <si>
+    <t>아빠 월급</t>
+  </si>
+  <si>
+    <t>20살 되자마자 독립하는거</t>
+  </si>
+  <si>
+    <t>자영업자분들 지금은 어때요?</t>
+  </si>
+  <si>
+    <t>사람 화병나게 하는 친구랄까</t>
+  </si>
+  <si>
+    <t>육아하는 아저씨야</t>
+  </si>
+  <si>
+    <t>아파트 관리사무소 소장이 고성방가 ;;;</t>
+  </si>
+  <si>
+    <t>김선호 글 그만좀해</t>
+  </si>
+  <si>
+    <t>엉덩이만 큰게 이뻐보이나요?</t>
+  </si>
+  <si>
+    <t>어른들이랑 얘기하는거 개빡셈</t>
+  </si>
+  <si>
+    <t>안친한 짝남 인스타 선팔했는데</t>
+  </si>
+  <si>
+    <t>케플러 바히에</t>
+  </si>
+  <si>
+    <t>그 꿈에서 귀신됐다는 썰좀</t>
+  </si>
+  <si>
+    <t>장원영 좋은 하루 보내 ❤️</t>
+  </si>
+  <si>
+    <t>연애하기 좋은 시기가 언제라고 생각하세요?</t>
+  </si>
+  <si>
+    <t>지인들과 연락 다 끊고 동굴로 들어간 남친</t>
+  </si>
+  <si>
+    <t>WQEW</t>
+  </si>
+  <si>
+    <t>묭실갈때머리감아야댐?</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>데이트 폭행이라는 말도 이상해</t>
+  </si>
+  <si>
+    <t>소시오패스 끼..?</t>
+  </si>
+  <si>
+    <t>인생이 마음대로 되지 않습니다.</t>
+  </si>
+  <si>
+    <t>법무복지공단의 어이없는 복지를 알리고자합니다</t>
+  </si>
+  <si>
+    <t>제가 너무 예민한가요?</t>
+  </si>
+  <si>
+    <t>토익성적 팁좀 주실수 있으실까요</t>
+  </si>
+  <si>
+    <t>카트린드뇌브의 고집</t>
+  </si>
+  <si>
+    <t>남사친 고백</t>
+  </si>
+  <si>
+    <t>공부하쟈</t>
+  </si>
+  <si>
+    <t>풉풒</t>
+  </si>
+  <si>
+    <t>이혼해야되나요</t>
+  </si>
+  <si>
+    <t>수업 들을 때마다 매번 나의 한주동안 별 일 없었는지 특별한 일은 없었는지 묻는 이유...</t>
+  </si>
+  <si>
+    <t>하찮게 여기면 하찮은 것이고</t>
+  </si>
+  <si>
+    <t>공감능력 부족한 사람</t>
+  </si>
+  <si>
+    <t>미래가 너무 두려워요</t>
+  </si>
+  <si>
+    <t>연락</t>
+  </si>
+  <si>
+    <t>인증받는 곳...어디일까요?</t>
+  </si>
+  <si>
+    <t>판에 답글</t>
+  </si>
+  <si>
+    <t>사람이 福田</t>
+  </si>
+  <si>
+    <t>에어팟 충전 진짜 빠르다</t>
+  </si>
+  <si>
+    <t>짝사랑이 결혼해</t>
+  </si>
+  <si>
+    <t>와...근데 짇짜 신기할 정도로 우리 부모님</t>
+  </si>
+  <si>
+    <t>살다보니이런일도있 습니다</t>
+  </si>
+  <si>
+    <t>고양이 바꿔치기 사건 연예인 인터뷰</t>
+  </si>
+  <si>
+    <t>강북구 소재 000병원 진료 중 의사가 낚시게임 화면을 띠워서~</t>
+  </si>
+  <si>
+    <t>택시취소하는데 2천원</t>
+  </si>
+  <si>
+    <t>그냥 흘려들어도되는 나의 이야기</t>
+  </si>
+  <si>
+    <t>mbti에 대해 아무 의견이나 내봐</t>
+  </si>
+  <si>
+    <t>렌즈 직경 적당한거 같아?</t>
+  </si>
+  <si>
+    <t>mbti 사회화된 극T</t>
+  </si>
+  <si>
+    <t>병원에서 근무하시는분들 커피자주마시나요⭐️</t>
+  </si>
+  <si>
+    <t>무슨 모임이든 맘들 있으면 모임이 맘카페 돼 버림</t>
+  </si>
+  <si>
+    <t>세상에 나보다 힘든 사람이 많을텐데 나 정도로 우울증이라 할 수 있을까</t>
+  </si>
+  <si>
+    <t>40살 남친</t>
   </si>
   <si>
     <t>ㅠ</t>
   </si>
   <si>
-    <t>넌 나의 빛</t>
-  </si>
-  <si>
-    <t>이거 배민도 잘못한거 아님?</t>
-  </si>
-  <si>
-    <t>건클 간호 뒤졌으면 좋겠다</t>
-  </si>
-  <si>
-    <t>모공각화증때문에 5년째 고생중 ㅠ</t>
-  </si>
-  <si>
-    <t>돈버는건상위 10프로? 정돈데 씀씀이가작으면 어때?</t>
-  </si>
-  <si>
-    <t>이 기사 봤어요? 키즈카페서 사고 뒤 뇌사 5세, 3명에게 장기기증</t>
-  </si>
-  <si>
-    <t>키150의 여자아이가 좋아</t>
-  </si>
-  <si>
-    <t>위드코로나</t>
-  </si>
-  <si>
-    <t>나 너무 폐륜인 것 같다</t>
-  </si>
-  <si>
-    <t>Yg 오디션</t>
-  </si>
-  <si>
-    <t>해킹당했던분</t>
-  </si>
-  <si>
-    <t>NFT 거래소 잘 아시는 분 있으신가요..?</t>
-  </si>
-  <si>
-    <t>제가 처한 상황에서 최선의 방법이 무엇일까요..</t>
-  </si>
-  <si>
-    <t>시인 김남열의 시집 새벽을 깨우리라</t>
-  </si>
-  <si>
-    <t>시인 김남열의 사랑만하다 갈려하네</t>
-  </si>
-  <si>
-    <t>술먹고 다음날 김치찌개는 못참징~</t>
-  </si>
-  <si>
-    <t>시인 김남열의 부부</t>
-  </si>
-  <si>
-    <t>DIY 가 뭔지 모르는 남친</t>
-  </si>
-  <si>
-    <t>시인 김남열의 경전의 세계 산</t>
-  </si>
-  <si>
-    <t>시인 김남열의 겸손과 교만</t>
-  </si>
-  <si>
-    <t>덕질하다 현타 세게 올때</t>
-  </si>
-  <si>
-    <t>전세집 가압류 어떡해야할까요..</t>
-  </si>
-  <si>
-    <t>시인 김남열 시집 달</t>
-  </si>
-  <si>
-    <t>내 아빠가 보고싶어요</t>
-  </si>
-  <si>
-    <t>경찰 남자친구어때요?</t>
-  </si>
-  <si>
-    <t>2차 접종하면 마스크 안 써도 되나요….</t>
-  </si>
-  <si>
-    <t>2021.11.02 15:14</t>
-  </si>
-  <si>
-    <t>2021.11.02 15:08</t>
-  </si>
-  <si>
-    <t>2021.11.02 15:02</t>
-  </si>
-  <si>
-    <t>2021.11.02 15:00</t>
-  </si>
-  <si>
-    <t>2021.11.02 14:57</t>
-  </si>
-  <si>
-    <t>2021.11.02 14:39</t>
-  </si>
-  <si>
-    <t>2021.11.02 14:25</t>
-  </si>
-  <si>
-    <t>2021.11.02 14:22</t>
-  </si>
-  <si>
-    <t>2021.11.02 14:20</t>
-  </si>
-  <si>
-    <t>2021.11.02 14:13</t>
-  </si>
-  <si>
-    <t>2021.11.02 14:12</t>
-  </si>
-  <si>
-    <t>2021.11.02 14:09</t>
-  </si>
-  <si>
-    <t>2021.11.02 14:04</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:53</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:48</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:47</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:37</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:33</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:32</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:07</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:05</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:04</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:03</t>
-  </si>
-  <si>
-    <t>2021.11.02 13:02</t>
-  </si>
-  <si>
-    <t>2021.11.02 12:54</t>
-  </si>
-  <si>
-    <t>2021.11.02 12:52</t>
-  </si>
-  <si>
-    <t>2021.11.02 12:13</t>
+    <t>에스엠 보컬 오디션</t>
+  </si>
+  <si>
+    <t>장원영 좋은 꿈 꿔 ❤️</t>
+  </si>
+  <si>
+    <t>상처한 친구가 결혼식 올렸던 장소가 제 직장이되었습니다</t>
+  </si>
+  <si>
+    <t>재수생인데 자기 노는 얘기 하는 친구</t>
+  </si>
+  <si>
+    <t>모르는 사람이랑 제로게임 했어</t>
+  </si>
+  <si>
+    <t>성형 있자너</t>
+  </si>
+  <si>
+    <t>너희 손가락 털 제모함??</t>
+  </si>
+  <si>
+    <t>친구없으면 부정적으로 되는게 ㄹㅇ인듯</t>
+  </si>
+  <si>
+    <t>생리만 끝나면</t>
+  </si>
+  <si>
+    <t>한국여자들 뒤질때까지 ㅈㄴ편하게사네</t>
+  </si>
+  <si>
+    <t>참</t>
+  </si>
+  <si>
+    <t>제발 도와주세요..24남입니다 (법률)</t>
+  </si>
+  <si>
+    <t>내 코 진짜 심각..</t>
+  </si>
+  <si>
+    <t>엄마가 맨날 국뽕 유튜브 봄...</t>
+  </si>
+  <si>
+    <t>빨래방에서 어떤 남자가 계속 쳐다보고 있음ㅠ</t>
+  </si>
+  <si>
+    <t>아이브 제발 데뷔곡</t>
+  </si>
+  <si>
+    <t>니들아부지뭐하시노</t>
+  </si>
+  <si>
+    <t>2021년 맹동지월(孟冬之月)인 음력 10월은 양력 11월 5일(음력 10월 1일)부...</t>
+  </si>
+  <si>
+    <t>아이브 장원영 티저 업로드</t>
+  </si>
+  <si>
+    <t>오빠가 너무 한심해요</t>
+  </si>
+  <si>
+    <t>인스타 게시물</t>
+  </si>
+  <si>
+    <t>갑자기 궁금해졌는데 엄마 아빠 없는 애들은 결혼할 때</t>
+  </si>
+  <si>
+    <t>도겸</t>
+  </si>
+  <si>
+    <t>뷔짤</t>
+  </si>
+  <si>
+    <t>가정폭력이라는게</t>
+  </si>
+  <si>
+    <t>전소미 오늘 출근길 인형 맞네요</t>
+  </si>
+  <si>
+    <t>2022년 임인년 띠별 운세 보기!!</t>
+  </si>
+  <si>
+    <t>백양고 아는 사람잇니</t>
+  </si>
+  <si>
+    <t>바디미스트 선물용 가격대 높지 않은거 추천좀!</t>
+  </si>
+  <si>
+    <t>소외감이 계속 느껴지는 인간관계</t>
+  </si>
+  <si>
+    <t>리정 출근길 귀염</t>
+  </si>
+  <si>
+    <t>나 이제 어떻게 살아야할까</t>
+  </si>
+  <si>
+    <t>나 그림 좀 그린다!! 싶은 사람들 들어와봐</t>
+  </si>
+  <si>
+    <t>국물닭발 ㅊㅊ좀</t>
+  </si>
+  <si>
+    <t>부모 어떻게 연 끊나요?</t>
+  </si>
+  <si>
+    <t>똥마려우ㅗ</t>
+  </si>
+  <si>
+    <t>당근거래 기억나는 경험 있어?</t>
+  </si>
+  <si>
+    <t>대학 팀플 역할</t>
+  </si>
+  <si>
+    <t>백신 접종 후 두 아이의 아빠가 하늘나라에 가셨어요 ㅠ</t>
+  </si>
+  <si>
+    <t>히에 살빠진것 좀 봐…</t>
+  </si>
+  <si>
+    <t>아 진짜 다른 소속사들 개부러우ㅗ</t>
+  </si>
+  <si>
+    <t>아침에 산책하고 있어요</t>
+  </si>
+  <si>
+    <t>호피홀라 홍진호 오늘 출근길 좋아요</t>
+  </si>
+  <si>
+    <t>내 친구가 나 볼때마다</t>
+  </si>
+  <si>
+    <t>결혼식 이후 연락두절 친구</t>
+  </si>
+  <si>
+    <t>나 여잔데 여장남자처럼 생겼데</t>
+  </si>
+  <si>
+    <t>식당에서 김밥 한줄은 민폐인가요?</t>
+  </si>
+  <si>
+    <t>만나기 싫은 친구 거절 (긴글주의)</t>
+  </si>
+  <si>
+    <t>뉴이스트 JR 오늘 출근길 뜨다다</t>
+  </si>
+  <si>
+    <t>이승윤 '(라스트 칸타빌레)' 출근길 좋아요!</t>
+  </si>
+  <si>
+    <t>오늘 내가 이 세상에 끼친 영향을 보니</t>
+  </si>
+  <si>
+    <t>서초경찰서cctv공개거부로행정소송</t>
+  </si>
+  <si>
+    <t>나 좋아하는 애 있는데</t>
+  </si>
+  <si>
+    <t>김준현씨 유튜브에서 갤탭이랑 맘스터치 이벤트한당 (∗❛⌄❛∗)</t>
+  </si>
+  <si>
+    <t>이무진 뮤비 나온 모델 알아?</t>
+  </si>
+  <si>
+    <t>도겸 있잖아</t>
+  </si>
+  <si>
+    <t>고2 인간관계 때문에 고민입니다..</t>
+  </si>
+  <si>
+    <t>내 남친이랑 베프랑 바람난것같아 제발 조언좀부탁해</t>
+  </si>
+  <si>
+    <t>울산 ㅂㄹㅇㄷㅌ ㅈㅈㅎㅅㅇㅈ점 사장 갑질 방탈죄송합니다!</t>
+  </si>
+  <si>
+    <t>세월의 흔적.jpg</t>
+  </si>
+  <si>
+    <t>밤이되면불?(UFO불)이빛나/출애40장38절</t>
+  </si>
+  <si>
+    <t>특이하고 귀여운 글씨체에요</t>
+  </si>
+  <si>
+    <t>주님구름(외계인UFO)는유태인들을인도해가다가</t>
+  </si>
+  <si>
+    <t>국민65%=이재명의공짜기본소득에~반대</t>
+  </si>
+  <si>
+    <t>글씨체가 이뻐서 써봤어요</t>
+  </si>
+  <si>
+    <t>ㄱㅉ나 ㄹㅇㅂㅌ같은 명품들있잖아요</t>
+  </si>
+  <si>
+    <t>김선호 사건 이후로 충격적인 11번가 매출 상태</t>
+  </si>
+  <si>
+    <t>친구의 어머님께서 키우시는 꽃 사진이에요</t>
+  </si>
+  <si>
+    <t>친구가 보내준 과일사진 이에요</t>
+  </si>
+  <si>
+    <t>화이자 백신 2차 안맞아도돼..??</t>
+  </si>
+  <si>
+    <t>에이프릴 이현주 웹드 근황 본 사람?</t>
+  </si>
+  <si>
+    <t>니가 비하발언 쩔잖아</t>
+  </si>
+  <si>
+    <t>월급 어떡해요</t>
+  </si>
+  <si>
+    <t>enfp 친구 심리 예측해주실분</t>
+  </si>
+  <si>
+    <t>20대 자영업자들은 봐주세요</t>
+  </si>
+  <si>
+    <t>이혼을 해야할까요. 참아야할까요</t>
+  </si>
+  <si>
+    <t>뜨밤</t>
+  </si>
+  <si>
+    <t>계절에 맞지 않는 옷</t>
+  </si>
+  <si>
+    <t>[댓글부탁해] 착한거VS멍청한거</t>
+  </si>
+  <si>
+    <t>국민은행 엄궁동지점 행원.. 이렇게 고객대응해도 되나요?</t>
+  </si>
+  <si>
+    <t>시인 김남열의 산을 오르며</t>
+  </si>
+  <si>
+    <t>백신 괜찮겠죠? 여동생이 어제 맞음.</t>
+  </si>
+  <si>
+    <t>S배우를 고발합니다.</t>
+  </si>
+  <si>
+    <t>할로윈 너구리 출몰 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>제이세라 수면제 먹고 성폭행 ​당해...제이세라의 녹음 파일... A가 누구죠?</t>
+  </si>
+  <si>
+    <t>다산여왕개그우먼의 시어머니악덕 세입자와 그의 가족을 고발합니다.</t>
+  </si>
+  <si>
+    <t>나 고민이있어</t>
+  </si>
+  <si>
+    <t>TWICE(트와이스) "Formula of Love:O+T=&lt;3" Concept Ph...</t>
+  </si>
+  <si>
+    <t>파x바xx  아기빵에서 벌레 ㅡㅡ</t>
+  </si>
+  <si>
+    <t>문과대학</t>
+  </si>
+  <si>
+    <t>자퇴 후 잘 된 사람들</t>
+  </si>
+  <si>
+    <t>자퇴 후 시선들</t>
+  </si>
+  <si>
+    <t>학생들에게 다신 오지말라는... 손님 가려받는 식당</t>
+  </si>
+  <si>
+    <t>'자퇴'</t>
+  </si>
+  <si>
+    <t>이천제일고 똥통학교</t>
+  </si>
+  <si>
+    <t>오늘 스펨 대박임</t>
+  </si>
+  <si>
+    <t>간단한 설문조사 부탁드립니다ㅠㅠ</t>
+  </si>
+  <si>
+    <t>고속터미널 꽃시장 코로나 사태를 아시나요</t>
+  </si>
+  <si>
+    <t>그래서 지금 김선호 근황 아는 사람</t>
+  </si>
+  <si>
+    <t>제가 너무한건가요?</t>
+  </si>
+  <si>
+    <t>허리아파</t>
+  </si>
+  <si>
+    <t>자퇴한 학교 선생님한테 문자보내도 될까</t>
+  </si>
+  <si>
+    <t>건국대 글로컬 최초합!!</t>
+  </si>
+  <si>
+    <t>시고르자브종인데 비슷한 종 유추 가능할까??</t>
+  </si>
+  <si>
+    <t>진짜많아짐</t>
+  </si>
+  <si>
+    <t>아닌 것이 없군요.</t>
+  </si>
+  <si>
+    <t>사람마다 다르게 들린다는 너를 생각해</t>
+  </si>
+  <si>
+    <t>나 에어팟 기스 났는데 봐주라 심한지 노무 속상함</t>
+  </si>
+  <si>
+    <t>살 빼고 달라진 점들</t>
+  </si>
+  <si>
+    <t>정말 너무 많이 힘들고 급한 상황인데 도움의 손길좀 주실분 혹시 계실까요ㅜㅜ제발 간절...</t>
+  </si>
+  <si>
+    <t>친정아버지와 연을 끊으려 합니다</t>
+  </si>
+  <si>
+    <t>치과선생님 궁금합니다</t>
+  </si>
+  <si>
+    <t>그냥 갑자기 울었어</t>
+  </si>
+  <si>
+    <t>__씨유신삭맨날 룰렛쳐돌리네</t>
+  </si>
+  <si>
+    <t>검정고시</t>
+  </si>
+  <si>
+    <t>자아손실에 관하여</t>
+  </si>
+  <si>
+    <t>수능 이주 남았는데</t>
+  </si>
+  <si>
+    <t>싫은 사람에게 싫다는말 할 수 있음?</t>
+  </si>
+  <si>
+    <t>경안</t>
+  </si>
+  <si>
+    <t>애기가 군대를 왜 가 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>혹시 제가 진상인건가요?</t>
+  </si>
+  <si>
+    <t>야 이거 인트로 _되는데?</t>
+  </si>
+  <si>
+    <t>내게도</t>
+  </si>
+  <si>
+    <t>가볍게 생각하고 긍정적으로 생각하고 싶어요.</t>
+  </si>
+  <si>
+    <t>인문계 갈수 있나..?</t>
+  </si>
+  <si>
+    <t>썸남 생일 선물 추천해 줘</t>
+  </si>
+  <si>
+    <t>내가 꿈속에서 “이거 꿈인데?”이랬는데</t>
+  </si>
+  <si>
+    <t>각자 자신의 위치에서</t>
+  </si>
+  <si>
+    <t>가족이 어려운데 도와주세요</t>
+  </si>
+  <si>
+    <t>키 작 존예녀 vs 키 큰 예쁘장</t>
+  </si>
+  <si>
+    <t>20대 커플반지 ost 어때?</t>
+  </si>
+  <si>
+    <t>11월 3일 저녁 6-7시 사이 봉천역쯤에서 실신한 저를 도와주신 분 찾습니다</t>
+  </si>
+  <si>
+    <t>초등학교 6학년 최악이었던 선생, 최악이었던 선생있나요</t>
+  </si>
+  <si>
+    <t>라붐 'BLOSSOM' 컴백, '상상더하기' 역주행 인기</t>
+  </si>
+  <si>
+    <t>롯데백화점 부산본점에서 구매한 계란 좀 봐주세요!</t>
+  </si>
+  <si>
+    <t>얼굴도 기억하지 못하는 애들이랑 술자리 가면 어떨까</t>
+  </si>
+  <si>
+    <t>유식해지기 위해서 할 수 있는 거 뭐 있을까</t>
+  </si>
+  <si>
+    <t>인복없는 사람 어디까지 봤니?</t>
+  </si>
+  <si>
+    <t>ygx 리정이 스우파를 통해 알게된 자신감</t>
+  </si>
+  <si>
+    <t>[스크랩] 원폭투하로 일본인들보다 더 많은 피해를 입은 당시 조선인들.jpg (To....</t>
+  </si>
+  <si>
+    <t>오카방 몰카, 미성년자</t>
+  </si>
+  <si>
+    <t>친구가 보내준 과일나무 사진입니다</t>
+  </si>
+  <si>
+    <t>유부녀 혼자 심심할때 뭐해요?</t>
+  </si>
+  <si>
+    <t>친구가 보내준 맛있는 음식사진이에요</t>
+  </si>
+  <si>
+    <t>맛있는 음식사진이에요</t>
+  </si>
+  <si>
+    <t>이거좀 봐주세요 ㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>친한 오빠가 보내준 사랑에 관한 노래가사</t>
+  </si>
+  <si>
+    <t>성인남자가 먹을만한(좋아할만한) 투썸커피 추천좀</t>
+  </si>
+  <si>
+    <t>스우파 1열 중간이면 1열이여도 잘 안보이나??</t>
+  </si>
+  <si>
+    <t>육개장먹다 떼운이가 파절됬다며 보상요구하는 손님</t>
+  </si>
+  <si>
+    <t>혹시 대학교 쪽지시험으로 부모님과 통화 하시는 교수님 있으세요?</t>
+  </si>
+  <si>
+    <t>김선호 욕하던 친구 내가 문제인지 좀 봐줘.</t>
+  </si>
+  <si>
+    <t>슬픈 사랑썰 풀고가</t>
+  </si>
+  <si>
+    <t>'서울독립영화제 2021' 개막작 공민정 주연 '스프린터'</t>
+  </si>
+  <si>
+    <t>남친만나는데 도와줘ㅠㅠ</t>
+  </si>
+  <si>
+    <t>직장 선배 때문에 자살하고 싶어요</t>
+  </si>
+  <si>
+    <t>라붐 쇼케이스 컴백 존예 ++</t>
+  </si>
+  <si>
+    <t>라붐 쇼케이스 컴백 포타 ㄱㄱ!</t>
+  </si>
+  <si>
+    <t>한번만읽어주셈어이가없음</t>
+  </si>
+  <si>
+    <t>라붐 라붐, 컴백 쇼케 ㄱㄱ</t>
+  </si>
+  <si>
+    <t>스엠 온리보이스</t>
+  </si>
+  <si>
+    <t>이민기</t>
+  </si>
+  <si>
+    <t>정재현 노란장판 짤 좀..</t>
+  </si>
+  <si>
+    <t>이런 립 어떤게 있나요? 데일리 립 추천좀</t>
+  </si>
+  <si>
+    <t>나 아까 그렇다네 영상 봄;; 댓글 달았다</t>
+  </si>
+  <si>
+    <t>나 자기혐오 너무 심해서 힘들어</t>
+  </si>
+  <si>
+    <t>에스파 카리나하고 윈터 갈리는 듯</t>
+  </si>
+  <si>
+    <t>고등학교 어디가 나을까 빨리</t>
+  </si>
+  <si>
+    <t>yg 오디션</t>
+  </si>
+  <si>
+    <t>코로나로 일 짤렸는데 알려야할까요?</t>
+  </si>
+  <si>
+    <t>핸드폰 대리점 관련) 이럴땐 어떻게 해야할까요?ㅠ</t>
+  </si>
+  <si>
+    <t>갑자기 생각난건데 나 중학교 입학할때</t>
+  </si>
+  <si>
+    <t>코시대에 친구 없이 남녀공학 ㄱㄴ해?</t>
+  </si>
+  <si>
+    <t>11월3일 전국 아파트 실거래 신고가 순위 입니다</t>
+  </si>
+  <si>
+    <t>위드코로나..백신접종여부로 차이가 생긴다면 알레르기가진 사람은 어쩌나요?</t>
+  </si>
+  <si>
+    <t>이번엔 절대</t>
+  </si>
+  <si>
+    <t>배가 고파요~</t>
+  </si>
+  <si>
+    <t>이끼떠다니는 회사정수기</t>
+  </si>
+  <si>
+    <t>부모님한테 감사해야 하는 이유를 모르겠습니다</t>
+  </si>
+  <si>
+    <t>좋아하는데 사귀기 싫음</t>
+  </si>
+  <si>
+    <t>내 9모 성적으로 어디까지 갈 수 있어??</t>
+  </si>
+  <si>
+    <t>기부제품 받고파는 가게 ~ 의견이 궁금해요</t>
+  </si>
+  <si>
+    <t>아 끔찍해 집에서 좀 쉬고 싶은데</t>
+  </si>
+  <si>
+    <t>쿠팡에서 파는 개별 포장된 마스크안에 벌레?!</t>
+  </si>
+  <si>
+    <t>데이트통장</t>
+  </si>
+  <si>
+    <t>다들 함만 들어와서 제발 골라줘!!!!</t>
+  </si>
+  <si>
+    <t>성훈 원영 컨텐츠 저번에 이어서 하나 더 올라옴</t>
+  </si>
+  <si>
+    <t>대기업다니는 남친이랑 사귀는 쓰니있어?</t>
+  </si>
+  <si>
+    <t>인스타팔이피플 괴물년</t>
+  </si>
+  <si>
+    <t>특전사 부사관 하사 말이야</t>
+  </si>
+  <si>
+    <t>친한친구가 자기 확진된 거 말 안하면</t>
+  </si>
+  <si>
+    <t>그 체험은 정말 많은 것을 생각하게 해주었다.</t>
+  </si>
+  <si>
+    <t>대박</t>
+  </si>
+  <si>
+    <t>반박 받는다</t>
+  </si>
+  <si>
+    <t>우울해 어장일까? 미쳐버릴것같아</t>
+  </si>
+  <si>
+    <t>내가 이상한건가?</t>
+  </si>
+  <si>
+    <t>김민주 공트 업데이트</t>
+  </si>
+  <si>
+    <t>팔로워 별로없는사람이 공구열어서 안팔리면 어떻게되는건가요?</t>
+  </si>
+  <si>
+    <t>오늘 있었던 썰 푼다 ㅋㅌㅋ</t>
+  </si>
+  <si>
+    <t>아니 위드 코로나</t>
+  </si>
+  <si>
+    <t>너무 피곤하다...ㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>피부장벽 진짜 중요해요ㅠㅠ</t>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+  </si>
+  <si>
+    <t>겨울맞이 옷장 뒤집기</t>
+  </si>
+  <si>
+    <t>갈멜산아래의바다에서UFO가/열왕18장44절</t>
+  </si>
+  <si>
+    <t>바다에서구름(UFO)가솟아?올라와</t>
+  </si>
+  <si>
+    <t>..제발 답부탁드려요 ㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>저녁에 머리감고 안말린 채로 잠들면 생기는 참사</t>
+  </si>
+  <si>
+    <t>택배기사 처우 개선...????</t>
+  </si>
+  <si>
+    <t>2021.11.05 16:29</t>
+  </si>
+  <si>
+    <t>2021.11.05 16:18</t>
+  </si>
+  <si>
+    <t>2021.11.05 16:17</t>
+  </si>
+  <si>
+    <t>2021.11.05 16:16</t>
+  </si>
+  <si>
+    <t>2021.11.05 16:13</t>
+  </si>
+  <si>
+    <t>2021.11.05 16:07</t>
+  </si>
+  <si>
+    <t>2021.11.05 15:53</t>
+  </si>
+  <si>
+    <t>2021.11.05 15:40</t>
+  </si>
+  <si>
+    <t>2021.11.05 15:34</t>
+  </si>
+  <si>
+    <t>2021.11.05 15:33</t>
+  </si>
+  <si>
+    <t>2021.11.05 15:30</t>
+  </si>
+  <si>
+    <t>2021.11.05 15:19</t>
+  </si>
+  <si>
+    <t>2021.11.05 15:18</t>
+  </si>
+  <si>
+    <t>2021.11.05 15:10</t>
+  </si>
+  <si>
+    <t>2021.11.05 15:02</t>
+  </si>
+  <si>
+    <t>2021.11.05 14:59</t>
+  </si>
+  <si>
+    <t>2021.11.05 14:18</t>
+  </si>
+  <si>
+    <t>2021.11.05 14:14</t>
+  </si>
+  <si>
+    <t>2021.11.05 14:09</t>
+  </si>
+  <si>
+    <t>2021.11.05 14:06</t>
+  </si>
+  <si>
+    <t>2021.11.05 13:49</t>
+  </si>
+  <si>
+    <t>2021.11.05 13:39</t>
+  </si>
+  <si>
+    <t>2021.11.05 13:23</t>
+  </si>
+  <si>
+    <t>2021.11.05 13:22</t>
+  </si>
+  <si>
+    <t>2021.11.05 13:14</t>
+  </si>
+  <si>
+    <t>2021.11.05 13:10</t>
+  </si>
+  <si>
+    <t>2021.11.05 13:08</t>
+  </si>
+  <si>
+    <t>2021.11.05 13:02</t>
+  </si>
+  <si>
+    <t>2021.11.05 12:52</t>
+  </si>
+  <si>
+    <t>2021.11.05 12:50</t>
+  </si>
+  <si>
+    <t>2021.11.05 12:42</t>
+  </si>
+  <si>
+    <t>2021.11.05 12:33</t>
+  </si>
+  <si>
+    <t>2021.11.05 12:31</t>
+  </si>
+  <si>
+    <t>2021.11.05 12:24</t>
+  </si>
+  <si>
+    <t>2021.11.05 12:18</t>
+  </si>
+  <si>
+    <t>2021.11.05 12:16</t>
+  </si>
+  <si>
+    <t>2021.11.05 12:09</t>
+  </si>
+  <si>
+    <t>2021.11.05 11:57</t>
+  </si>
+  <si>
+    <t>2021.11.05 11:54</t>
+  </si>
+  <si>
+    <t>2021.11.05 11:49</t>
+  </si>
+  <si>
+    <t>2021.11.05 11:29</t>
+  </si>
+  <si>
+    <t>2021.11.05 11:22</t>
+  </si>
+  <si>
+    <t>2021.11.05 11:01</t>
+  </si>
+  <si>
+    <t>2021.11.05 10:59</t>
+  </si>
+  <si>
+    <t>2021.11.05 10:36</t>
+  </si>
+  <si>
+    <t>2021.11.05 10:35</t>
+  </si>
+  <si>
+    <t>2021.11.05 10:30</t>
+  </si>
+  <si>
+    <t>2021.11.05 10:16</t>
+  </si>
+  <si>
+    <t>2021.11.05 10:14</t>
+  </si>
+  <si>
+    <t>2021.11.05 10:05</t>
+  </si>
+  <si>
+    <t>2021.11.05 09:24</t>
+  </si>
+  <si>
+    <t>2021.11.05 09:05</t>
+  </si>
+  <si>
+    <t>2021.11.05 08:29</t>
+  </si>
+  <si>
+    <t>2021.11.05 08:27</t>
+  </si>
+  <si>
+    <t>2021.11.05 08:20</t>
+  </si>
+  <si>
+    <t>2021.11.05 08:08</t>
+  </si>
+  <si>
+    <t>2021.11.05 07:40</t>
+  </si>
+  <si>
+    <t>2021.11.05 07:01</t>
+  </si>
+  <si>
+    <t>2021.11.05 06:56</t>
+  </si>
+  <si>
+    <t>2021.11.05 06:12</t>
+  </si>
+  <si>
+    <t>2021.11.05 05:57</t>
+  </si>
+  <si>
+    <t>2021.11.05 03:49</t>
+  </si>
+  <si>
+    <t>2021.11.05 03:18</t>
+  </si>
+  <si>
+    <t>2021.11.05 02:50</t>
+  </si>
+  <si>
+    <t>2021.11.05 02:45</t>
+  </si>
+  <si>
+    <t>2021.11.05 02:42</t>
+  </si>
+  <si>
+    <t>2021.11.05 02:39</t>
+  </si>
+  <si>
+    <t>2021.11.05 02:29</t>
+  </si>
+  <si>
+    <t>2021.11.05 02:28</t>
+  </si>
+  <si>
+    <t>2021.11.05 02:19</t>
+  </si>
+  <si>
+    <t>2021.11.05 02:13</t>
+  </si>
+  <si>
+    <t>2021.11.05 01:51</t>
+  </si>
+  <si>
+    <t>2021.11.05 01:36</t>
+  </si>
+  <si>
+    <t>2021.11.05 01:32</t>
+  </si>
+  <si>
+    <t>2021.11.05 01:30</t>
+  </si>
+  <si>
+    <t>2021.11.05 01:17</t>
+  </si>
+  <si>
+    <t>2021.11.05 01:11</t>
+  </si>
+  <si>
+    <t>2021.11.05 01:10</t>
+  </si>
+  <si>
+    <t>2021.11.05 01:04</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:57</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:54</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:49</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:40</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:37</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:33</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:31</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:27</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:20</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:03</t>
+  </si>
+  <si>
+    <t>2021.11.05 00:02</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:56</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:54</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:46</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:45</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:37</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:31</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:27</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:23</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:20</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:18</t>
+  </si>
+  <si>
+    <t>2021.11.04 23:09</t>
+  </si>
+  <si>
+    <t>2021.11.04 22:55</t>
+  </si>
+  <si>
+    <t>2021.11.04 22:47</t>
+  </si>
+  <si>
+    <t>2021.11.04 22:16</t>
+  </si>
+  <si>
+    <t>2021.11.04 22:14</t>
+  </si>
+  <si>
+    <t>2021.11.04 22:04</t>
+  </si>
+  <si>
+    <t>2021.11.04 22:03</t>
+  </si>
+  <si>
+    <t>2021.11.04 21:57</t>
+  </si>
+  <si>
+    <t>2021.11.04 21:41</t>
+  </si>
+  <si>
+    <t>2021.11.04 21:33</t>
+  </si>
+  <si>
+    <t>2021.11.04 21:29</t>
+  </si>
+  <si>
+    <t>2021.11.04 21:27</t>
+  </si>
+  <si>
+    <t>2021.11.04 21:05</t>
+  </si>
+  <si>
+    <t>2021.11.04 20:56</t>
+  </si>
+  <si>
+    <t>2021.11.04 20:52</t>
+  </si>
+  <si>
+    <t>2021.11.04 20:49</t>
+  </si>
+  <si>
+    <t>2021.11.04 20:21</t>
+  </si>
+  <si>
+    <t>2021.11.04 20:10</t>
+  </si>
+  <si>
+    <t>2021.11.04 20:07</t>
+  </si>
+  <si>
+    <t>2021.11.04 20:01</t>
+  </si>
+  <si>
+    <t>2021.11.04 20:00</t>
+  </si>
+  <si>
+    <t>2021.11.04 19:25</t>
+  </si>
+  <si>
+    <t>2021.11.04 19:24</t>
+  </si>
+  <si>
+    <t>2021.11.04 19:21</t>
+  </si>
+  <si>
+    <t>2021.11.04 19:08</t>
+  </si>
+  <si>
+    <t>2021.11.04 18:39</t>
+  </si>
+  <si>
+    <t>2021.11.04 18:34</t>
+  </si>
+  <si>
+    <t>2021.11.04 18:31</t>
+  </si>
+  <si>
+    <t>2021.11.04 18:19</t>
+  </si>
+  <si>
+    <t>2021.11.04 18:18</t>
+  </si>
+  <si>
+    <t>2021.11.04 18:13</t>
+  </si>
+  <si>
+    <t>2021.11.04 17:50</t>
+  </si>
+  <si>
+    <t>2021.11.04 17:49</t>
+  </si>
+  <si>
+    <t>2021.11.04 17:44</t>
+  </si>
+  <si>
+    <t>2021.11.04 17:25</t>
+  </si>
+  <si>
+    <t>2021.11.04 17:15</t>
+  </si>
+  <si>
+    <t>2021.11.04 16:58</t>
+  </si>
+  <si>
+    <t>2021.11.04 16:50</t>
+  </si>
+  <si>
+    <t>2021.11.04 16:46</t>
+  </si>
+  <si>
+    <t>2021.11.04 16:40</t>
+  </si>
+  <si>
+    <t>2021.11.04 16:33</t>
+  </si>
+  <si>
+    <t>2021.11.04 16:22</t>
+  </si>
+  <si>
+    <t>2021.11.04 16:21</t>
+  </si>
+  <si>
+    <t>2021.11.04 16:03</t>
+  </si>
+  <si>
+    <t>2021.11.04 16:01</t>
+  </si>
+  <si>
+    <t>2021.11.04 15:55</t>
+  </si>
+  <si>
+    <t>2021.11.04 15:54</t>
+  </si>
+  <si>
+    <t>2021.11.04 15:47</t>
+  </si>
+  <si>
+    <t>2021.11.04 15:33</t>
+  </si>
+  <si>
+    <t>2021.11.04 15:12</t>
+  </si>
+  <si>
+    <t>2021.11.04 15:01</t>
+  </si>
+  <si>
+    <t>2021.11.04 15:00</t>
+  </si>
+  <si>
+    <t>2021.11.04 14:46</t>
+  </si>
+  <si>
+    <t>2021.11.04 14:40</t>
+  </si>
+  <si>
+    <t>2021.11.04 14:23</t>
+  </si>
+  <si>
+    <t>2021.11.04 14:02</t>
+  </si>
+  <si>
+    <t>2021.11.04 13:51</t>
+  </si>
+  <si>
+    <t>2021.11.04 13:50</t>
+  </si>
+  <si>
+    <t>2021.11.04 13:29</t>
+  </si>
+  <si>
+    <t>2021.11.04 13:19</t>
+  </si>
+  <si>
+    <t>2021.11.04 12:57</t>
+  </si>
+  <si>
+    <t>2021.11.04 12:47</t>
+  </si>
+  <si>
+    <t>2021.11.04 12:07</t>
+  </si>
+  <si>
+    <t>2021.11.04 11:31</t>
+  </si>
+  <si>
+    <t>2021.11.04 11:21</t>
+  </si>
+  <si>
+    <t>2021.11.04 11:12</t>
+  </si>
+  <si>
+    <t>2021.11.04 11:10</t>
+  </si>
+  <si>
+    <t>2021.11.04 11:07</t>
+  </si>
+  <si>
+    <t>2021.11.04 11:05</t>
+  </si>
+  <si>
+    <t>2021.11.04 10:51</t>
+  </si>
+  <si>
+    <t>2021.11.04 10:46</t>
+  </si>
+  <si>
+    <t>2021.11.04 10:38</t>
+  </si>
+  <si>
+    <t>2021.11.04 10:34</t>
+  </si>
+  <si>
+    <t>2021.11.04 10:33</t>
+  </si>
+  <si>
+    <t>2021.11.04 10:20</t>
+  </si>
+  <si>
+    <t>2021.11.04 10:07</t>
+  </si>
+  <si>
+    <t>2021.11.04 09:48</t>
+  </si>
+  <si>
+    <t>2021.11.04 09:12</t>
+  </si>
+  <si>
+    <t>2021.11.04 09:02</t>
+  </si>
+  <si>
+    <t>2021.11.04 08:01</t>
+  </si>
+  <si>
+    <t>2021.11.04 07:47</t>
+  </si>
+  <si>
+    <t>2021.11.04 06:49</t>
+  </si>
+  <si>
+    <t>2021.11.04 05:41</t>
+  </si>
+  <si>
+    <t>2021.11.04 05:31</t>
+  </si>
+  <si>
+    <t>2021.11.04 04:40</t>
+  </si>
+  <si>
+    <t>2021.11.04 04:25</t>
+  </si>
+  <si>
+    <t>2021.11.04 04:11</t>
+  </si>
+  <si>
+    <t>2021.11.04 04:08</t>
+  </si>
+  <si>
+    <t>2021.11.04 03:53</t>
+  </si>
+  <si>
+    <t>2021.11.04 03:44</t>
+  </si>
+  <si>
+    <t>2021.11.04 03:32</t>
+  </si>
+  <si>
+    <t>2021.11.04 03:30</t>
+  </si>
+  <si>
+    <t>2021.11.04 03:12</t>
+  </si>
+  <si>
+    <t>2021.11.04 03:00</t>
+  </si>
+  <si>
+    <t>2021.11.04 02:42</t>
+  </si>
+  <si>
+    <t>2021.11.04 02:40</t>
+  </si>
+  <si>
+    <t>2021.11.04 02:30</t>
+  </si>
+  <si>
+    <t>2021.11.04 02:28</t>
+  </si>
+  <si>
+    <t>2021.11.04 02:20</t>
+  </si>
+  <si>
+    <t>2021.11.04 01:57</t>
+  </si>
+  <si>
+    <t>2021.11.04 01:46</t>
+  </si>
+  <si>
+    <t>2021.11.04 01:34</t>
+  </si>
+  <si>
+    <t>2021.11.04 01:25</t>
+  </si>
+  <si>
+    <t>2021.11.04 01:16</t>
+  </si>
+  <si>
+    <t>2021.11.04 00:37</t>
+  </si>
+  <si>
+    <t>2021.11.04 00:36</t>
+  </si>
+  <si>
+    <t>2021.11.04 00:09</t>
+  </si>
+  <si>
+    <t>2021.11.04 00:07</t>
+  </si>
+  <si>
+    <t>2021.11.04 00:06</t>
+  </si>
+  <si>
+    <t>2021.11.03 23:52</t>
+  </si>
+  <si>
+    <t>2021.11.03 23:43</t>
+  </si>
+  <si>
+    <t>2021.11.03 23:40</t>
+  </si>
+  <si>
+    <t>2021.11.03 23:39</t>
+  </si>
+  <si>
+    <t>2021.11.03 23:25</t>
+  </si>
+  <si>
+    <t>2021.11.03 23:21</t>
+  </si>
+  <si>
+    <t>2021.11.03 23:19</t>
+  </si>
+  <si>
+    <t>2021.11.03 23:17</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:58</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:53</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:45</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:44</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:41</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:38</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:35</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:30</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:29</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:27</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:25</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:23</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:20</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:17</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:15</t>
+  </si>
+  <si>
+    <t>2021.11.03 22:06</t>
+  </si>
+  <si>
+    <t>2021.11.03 21:53</t>
+  </si>
+  <si>
+    <t>2021.11.03 21:43</t>
+  </si>
+  <si>
+    <t>2021.11.03 21:41</t>
+  </si>
+  <si>
+    <t>2021.11.03 21:26</t>
+  </si>
+  <si>
+    <t>2021.11.03 21:20</t>
+  </si>
+  <si>
+    <t>2021.11.03 21:12</t>
+  </si>
+  <si>
+    <t>2021.11.03 21:10</t>
+  </si>
+  <si>
+    <t>2021.11.03 21:05</t>
+  </si>
+  <si>
+    <t>2021.11.03 21:04</t>
+  </si>
+  <si>
+    <t>2021.11.03 20:45</t>
+  </si>
+  <si>
+    <t>2021.11.03 20:30</t>
+  </si>
+  <si>
+    <t>2021.11.03 20:26</t>
+  </si>
+  <si>
+    <t>2021.11.03 20:18</t>
+  </si>
+  <si>
+    <t>2021.11.03 19:47</t>
+  </si>
+  <si>
+    <t>2021.11.03 19:36</t>
+  </si>
+  <si>
+    <t>2021.11.03 19:32</t>
+  </si>
+  <si>
+    <t>2021.11.03 19:19</t>
+  </si>
+  <si>
+    <t>2021.11.03 19:14</t>
+  </si>
+  <si>
+    <t>2021.11.03 19:04</t>
+  </si>
+  <si>
+    <t>2021.11.03 19:02</t>
+  </si>
+  <si>
+    <t>2021.11.03 19:00</t>
+  </si>
+  <si>
+    <t>2021.11.03 18:47</t>
+  </si>
+  <si>
+    <t>2021.11.03 18:33</t>
+  </si>
+  <si>
+    <t>2021.11.03 18:31</t>
+  </si>
+  <si>
+    <t>2021.11.03 18:22</t>
+  </si>
+  <si>
+    <t>2021.11.03 18:21</t>
+  </si>
+  <si>
+    <t>2021.11.03 18:16</t>
+  </si>
+  <si>
+    <t>2021.11.03 18:13</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:53</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:51</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:33</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:29</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:18</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:13</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:12</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:11</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:10</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:09</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:04</t>
+  </si>
+  <si>
+    <t>2021.11.03 17:02</t>
+  </si>
+  <si>
+    <t>2021.11.03 16:58</t>
+  </si>
+  <si>
+    <t>2021.11.03 16:47</t>
+  </si>
+  <si>
+    <t>2021.11.03 16:38</t>
+  </si>
+  <si>
+    <t>2021.11.03 16:36</t>
+  </si>
+  <si>
+    <t>2021.11.03 16:30</t>
+  </si>
+  <si>
+    <t>2021.11.03 16:25</t>
+  </si>
+  <si>
+    <t>2021.11.03 16:24</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3,014</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3,468</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>81,139</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>43,116</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>7,259</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>4,093</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>6,867</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>3,839</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>6,422</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>3,646</t>
+  </si>
+  <si>
+    <t>2,617</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>9,521</t>
+  </si>
+  <si>
+    <t>2,374</t>
+  </si>
+  <si>
+    <t>24,768</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>1,674</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>104</t>
   </si>
 </sst>
 </file>
@@ -596,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,16 +2427,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>579</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,16 +2447,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>579</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -664,19 +2464,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>580</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -684,19 +2484,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>579</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -704,19 +2504,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>581</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -724,19 +2524,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -744,19 +2544,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>579</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -764,19 +2564,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>582</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>581</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -784,19 +2584,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>583</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,19 +2604,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>584</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,19 +2624,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>585</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -844,19 +2644,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>586</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,19 +2664,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>587</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,19 +2684,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>588</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -904,19 +2704,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>589</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,19 +2724,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>582</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,19 +2744,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>312</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>579</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>581</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,19 +2764,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>585</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,19 +2784,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>590</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,19 +2804,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>315</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>586</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,19 +2824,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>591</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,19 +2844,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>592</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>669</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,19 +2864,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>582</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,19 +2884,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>319</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>593</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>669</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,19 +2904,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>594</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>669</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,19 +2924,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>595</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,19 +2944,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>589</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,19 +2964,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>596</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,19 +2984,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>324</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>597</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,19 +3004,5419 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" t="s">
+        <v>595</v>
+      </c>
+      <c r="E31" t="s">
+        <v>581</v>
+      </c>
+      <c r="F31" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" t="s">
+        <v>586</v>
+      </c>
+      <c r="E32" t="s">
+        <v>581</v>
+      </c>
+      <c r="F32" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" t="s">
+        <v>598</v>
+      </c>
+      <c r="E33" t="s">
+        <v>581</v>
+      </c>
+      <c r="F33" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" t="s">
+        <v>598</v>
+      </c>
+      <c r="E34" t="s">
+        <v>581</v>
+      </c>
+      <c r="F34" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" t="s">
+        <v>598</v>
+      </c>
+      <c r="E35" t="s">
+        <v>581</v>
+      </c>
+      <c r="F35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" t="s">
+        <v>590</v>
+      </c>
+      <c r="E36" t="s">
+        <v>580</v>
+      </c>
+      <c r="F36" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" t="s">
+        <v>588</v>
+      </c>
+      <c r="E37" t="s">
+        <v>581</v>
+      </c>
+      <c r="F37" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38" t="s">
+        <v>599</v>
+      </c>
+      <c r="E38" t="s">
+        <v>581</v>
+      </c>
+      <c r="F38" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>333</v>
+      </c>
+      <c r="D39" t="s">
+        <v>584</v>
+      </c>
+      <c r="E39" t="s">
+        <v>581</v>
+      </c>
+      <c r="F39" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>334</v>
+      </c>
+      <c r="D40" t="s">
+        <v>596</v>
+      </c>
+      <c r="E40" t="s">
+        <v>581</v>
+      </c>
+      <c r="F40" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>335</v>
+      </c>
+      <c r="D41" t="s">
+        <v>594</v>
+      </c>
+      <c r="E41" t="s">
+        <v>581</v>
+      </c>
+      <c r="F41" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>597</v>
+      </c>
+      <c r="E42" t="s">
+        <v>581</v>
+      </c>
+      <c r="F42" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" t="s">
+        <v>600</v>
+      </c>
+      <c r="E43" t="s">
+        <v>579</v>
+      </c>
+      <c r="F43" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>338</v>
+      </c>
+      <c r="D44" t="s">
+        <v>601</v>
+      </c>
+      <c r="E44" t="s">
+        <v>580</v>
+      </c>
+      <c r="F44" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" t="s">
+        <v>602</v>
+      </c>
+      <c r="E45" t="s">
+        <v>580</v>
+      </c>
+      <c r="F45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" t="s">
+        <v>603</v>
+      </c>
+      <c r="E46" t="s">
+        <v>580</v>
+      </c>
+      <c r="F46" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>340</v>
+      </c>
+      <c r="D47" t="s">
+        <v>598</v>
+      </c>
+      <c r="E47" t="s">
+        <v>580</v>
+      </c>
+      <c r="F47" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" t="s">
+        <v>604</v>
+      </c>
+      <c r="E48" t="s">
+        <v>581</v>
+      </c>
+      <c r="F48" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" t="s">
+        <v>584</v>
+      </c>
+      <c r="E49" t="s">
+        <v>581</v>
+      </c>
+      <c r="F49" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D50" t="s">
+        <v>605</v>
+      </c>
+      <c r="E50" t="s">
+        <v>581</v>
+      </c>
+      <c r="F50" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" t="s">
+        <v>584</v>
+      </c>
+      <c r="E51" t="s">
+        <v>581</v>
+      </c>
+      <c r="F51" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52" t="s">
+        <v>606</v>
+      </c>
+      <c r="E52" t="s">
+        <v>581</v>
+      </c>
+      <c r="F52" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" t="s">
+        <v>582</v>
+      </c>
+      <c r="E53" t="s">
+        <v>581</v>
+      </c>
+      <c r="F53" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" t="s">
+        <v>599</v>
+      </c>
+      <c r="E54" t="s">
+        <v>580</v>
+      </c>
+      <c r="F54" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>347</v>
+      </c>
+      <c r="D55" t="s">
+        <v>586</v>
+      </c>
+      <c r="E55" t="s">
+        <v>581</v>
+      </c>
+      <c r="F55" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>348</v>
+      </c>
+      <c r="D56" t="s">
+        <v>607</v>
+      </c>
+      <c r="E56" t="s">
+        <v>580</v>
+      </c>
+      <c r="F56" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" t="s">
+        <v>608</v>
+      </c>
+      <c r="E57" t="s">
+        <v>579</v>
+      </c>
+      <c r="F57" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D58" t="s">
+        <v>608</v>
+      </c>
+      <c r="E58" t="s">
+        <v>580</v>
+      </c>
+      <c r="F58" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>351</v>
+      </c>
+      <c r="D59" t="s">
+        <v>609</v>
+      </c>
+      <c r="E59" t="s">
+        <v>580</v>
+      </c>
+      <c r="F59" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>352</v>
+      </c>
+      <c r="D60" t="s">
+        <v>610</v>
+      </c>
+      <c r="E60" t="s">
+        <v>580</v>
+      </c>
+      <c r="F60" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>353</v>
+      </c>
+      <c r="D61" t="s">
+        <v>607</v>
+      </c>
+      <c r="E61" t="s">
+        <v>581</v>
+      </c>
+      <c r="F61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C62" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62" t="s">
+        <v>597</v>
+      </c>
+      <c r="E62" t="s">
+        <v>581</v>
+      </c>
+      <c r="F62" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>355</v>
+      </c>
+      <c r="D63" t="s">
+        <v>611</v>
+      </c>
+      <c r="E63" t="s">
+        <v>581</v>
+      </c>
+      <c r="F63" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>356</v>
+      </c>
+      <c r="D64" t="s">
+        <v>593</v>
+      </c>
+      <c r="E64" t="s">
+        <v>581</v>
+      </c>
+      <c r="F64" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>357</v>
+      </c>
+      <c r="D65" t="s">
+        <v>598</v>
+      </c>
+      <c r="E65" t="s">
+        <v>581</v>
+      </c>
+      <c r="F65" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>358</v>
+      </c>
+      <c r="D66" t="s">
+        <v>612</v>
+      </c>
+      <c r="E66" t="s">
+        <v>580</v>
+      </c>
+      <c r="F66" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>359</v>
+      </c>
+      <c r="D67" t="s">
+        <v>606</v>
+      </c>
+      <c r="E67" t="s">
+        <v>581</v>
+      </c>
+      <c r="F67" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" t="s">
+        <v>613</v>
+      </c>
+      <c r="E68" t="s">
+        <v>581</v>
+      </c>
+      <c r="F68" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>361</v>
+      </c>
+      <c r="D69" t="s">
+        <v>614</v>
+      </c>
+      <c r="E69" t="s">
+        <v>581</v>
+      </c>
+      <c r="F69" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>362</v>
+      </c>
+      <c r="D70" t="s">
+        <v>591</v>
+      </c>
+      <c r="E70" t="s">
+        <v>580</v>
+      </c>
+      <c r="F70" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>363</v>
+      </c>
+      <c r="D71" t="s">
+        <v>613</v>
+      </c>
+      <c r="E71" t="s">
+        <v>581</v>
+      </c>
+      <c r="F71" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>71</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C72" t="s">
+        <v>364</v>
+      </c>
+      <c r="D72" t="s">
+        <v>615</v>
+      </c>
+      <c r="E72" t="s">
+        <v>581</v>
+      </c>
+      <c r="F72" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" t="s">
+        <v>616</v>
+      </c>
+      <c r="E73" t="s">
+        <v>581</v>
+      </c>
+      <c r="F73" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" t="s">
+        <v>608</v>
+      </c>
+      <c r="E74" t="s">
+        <v>581</v>
+      </c>
+      <c r="F74" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>74</v>
       </c>
-      <c r="F31" t="s">
+      <c r="C75" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" t="s">
+        <v>602</v>
+      </c>
+      <c r="E75" t="s">
+        <v>581</v>
+      </c>
+      <c r="F75" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
         <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>368</v>
+      </c>
+      <c r="D76" t="s">
+        <v>613</v>
+      </c>
+      <c r="E76" t="s">
+        <v>581</v>
+      </c>
+      <c r="F76" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>369</v>
+      </c>
+      <c r="D77" t="s">
+        <v>617</v>
+      </c>
+      <c r="E77" t="s">
+        <v>581</v>
+      </c>
+      <c r="F77" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>370</v>
+      </c>
+      <c r="D78" t="s">
+        <v>618</v>
+      </c>
+      <c r="E78" t="s">
+        <v>581</v>
+      </c>
+      <c r="F78" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>371</v>
+      </c>
+      <c r="D79" t="s">
+        <v>619</v>
+      </c>
+      <c r="E79" t="s">
+        <v>581</v>
+      </c>
+      <c r="F79" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>372</v>
+      </c>
+      <c r="D80" t="s">
+        <v>620</v>
+      </c>
+      <c r="E80" t="s">
+        <v>670</v>
+      </c>
+      <c r="F80" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>373</v>
+      </c>
+      <c r="D81" t="s">
+        <v>615</v>
+      </c>
+      <c r="E81" t="s">
+        <v>581</v>
+      </c>
+      <c r="F81" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>374</v>
+      </c>
+      <c r="D82" t="s">
+        <v>621</v>
+      </c>
+      <c r="E82" t="s">
+        <v>581</v>
+      </c>
+      <c r="F82" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" t="s">
+        <v>610</v>
+      </c>
+      <c r="E83" t="s">
+        <v>580</v>
+      </c>
+      <c r="F83" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>376</v>
+      </c>
+      <c r="D84" t="s">
+        <v>610</v>
+      </c>
+      <c r="E84" t="s">
+        <v>581</v>
+      </c>
+      <c r="F84" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>377</v>
+      </c>
+      <c r="D85" t="s">
+        <v>606</v>
+      </c>
+      <c r="E85" t="s">
+        <v>581</v>
+      </c>
+      <c r="F85" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>378</v>
+      </c>
+      <c r="D86" t="s">
+        <v>621</v>
+      </c>
+      <c r="E86" t="s">
+        <v>581</v>
+      </c>
+      <c r="F86" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>378</v>
+      </c>
+      <c r="D87" t="s">
+        <v>616</v>
+      </c>
+      <c r="E87" t="s">
+        <v>581</v>
+      </c>
+      <c r="F87" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>379</v>
+      </c>
+      <c r="D88" t="s">
+        <v>622</v>
+      </c>
+      <c r="E88" t="s">
+        <v>581</v>
+      </c>
+      <c r="F88" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>380</v>
+      </c>
+      <c r="D89" t="s">
+        <v>623</v>
+      </c>
+      <c r="E89" t="s">
+        <v>580</v>
+      </c>
+      <c r="F89" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" t="s">
+        <v>603</v>
+      </c>
+      <c r="E90" t="s">
+        <v>581</v>
+      </c>
+      <c r="F90" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D91" t="s">
+        <v>624</v>
+      </c>
+      <c r="E91" t="s">
+        <v>581</v>
+      </c>
+      <c r="F91" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92" t="s">
+        <v>625</v>
+      </c>
+      <c r="E92" t="s">
+        <v>581</v>
+      </c>
+      <c r="F92" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>383</v>
+      </c>
+      <c r="D93" t="s">
+        <v>626</v>
+      </c>
+      <c r="E93" t="s">
+        <v>581</v>
+      </c>
+      <c r="F93" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>384</v>
+      </c>
+      <c r="D94" t="s">
+        <v>626</v>
+      </c>
+      <c r="E94" t="s">
+        <v>581</v>
+      </c>
+      <c r="F94" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>385</v>
+      </c>
+      <c r="D95" t="s">
+        <v>615</v>
+      </c>
+      <c r="E95" t="s">
+        <v>581</v>
+      </c>
+      <c r="F95" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" t="s">
+        <v>615</v>
+      </c>
+      <c r="E96" t="s">
+        <v>581</v>
+      </c>
+      <c r="F96" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>387</v>
+      </c>
+      <c r="D97" t="s">
+        <v>615</v>
+      </c>
+      <c r="E97" t="s">
+        <v>581</v>
+      </c>
+      <c r="F97" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" t="s">
+        <v>627</v>
+      </c>
+      <c r="E98" t="s">
+        <v>581</v>
+      </c>
+      <c r="F98" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>389</v>
+      </c>
+      <c r="D99" t="s">
+        <v>628</v>
+      </c>
+      <c r="E99" t="s">
+        <v>581</v>
+      </c>
+      <c r="F99" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>390</v>
+      </c>
+      <c r="D100" t="s">
+        <v>609</v>
+      </c>
+      <c r="E100" t="s">
+        <v>581</v>
+      </c>
+      <c r="F100" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>391</v>
+      </c>
+      <c r="D101" t="s">
+        <v>588</v>
+      </c>
+      <c r="E101" t="s">
+        <v>581</v>
+      </c>
+      <c r="F101" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>392</v>
+      </c>
+      <c r="D102" t="s">
+        <v>597</v>
+      </c>
+      <c r="E102" t="s">
+        <v>581</v>
+      </c>
+      <c r="F102" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>393</v>
+      </c>
+      <c r="D103" t="s">
+        <v>616</v>
+      </c>
+      <c r="E103" t="s">
+        <v>580</v>
+      </c>
+      <c r="F103" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>394</v>
+      </c>
+      <c r="D104" t="s">
+        <v>586</v>
+      </c>
+      <c r="E104" t="s">
+        <v>581</v>
+      </c>
+      <c r="F104" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>395</v>
+      </c>
+      <c r="D105" t="s">
+        <v>607</v>
+      </c>
+      <c r="E105" t="s">
+        <v>581</v>
+      </c>
+      <c r="F105" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>396</v>
+      </c>
+      <c r="D106" t="s">
+        <v>629</v>
+      </c>
+      <c r="E106" t="s">
+        <v>581</v>
+      </c>
+      <c r="F106" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>397</v>
+      </c>
+      <c r="D107" t="s">
+        <v>607</v>
+      </c>
+      <c r="E107" t="s">
+        <v>580</v>
+      </c>
+      <c r="F107" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>398</v>
+      </c>
+      <c r="D108" t="s">
+        <v>586</v>
+      </c>
+      <c r="E108" t="s">
+        <v>581</v>
+      </c>
+      <c r="F108" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>399</v>
+      </c>
+      <c r="D109" t="s">
+        <v>630</v>
+      </c>
+      <c r="E109" t="s">
+        <v>581</v>
+      </c>
+      <c r="F109" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" t="s">
+        <v>598</v>
+      </c>
+      <c r="E110" t="s">
+        <v>580</v>
+      </c>
+      <c r="F110" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>401</v>
+      </c>
+      <c r="D111" t="s">
+        <v>582</v>
+      </c>
+      <c r="E111" t="s">
+        <v>581</v>
+      </c>
+      <c r="F111" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>402</v>
+      </c>
+      <c r="D112" t="s">
+        <v>631</v>
+      </c>
+      <c r="E112" t="s">
+        <v>669</v>
+      </c>
+      <c r="F112" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>403</v>
+      </c>
+      <c r="D113" t="s">
+        <v>632</v>
+      </c>
+      <c r="E113" t="s">
+        <v>581</v>
+      </c>
+      <c r="F113" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" t="s">
+        <v>633</v>
+      </c>
+      <c r="E114" t="s">
+        <v>581</v>
+      </c>
+      <c r="F114" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>405</v>
+      </c>
+      <c r="D115" t="s">
+        <v>598</v>
+      </c>
+      <c r="E115" t="s">
+        <v>581</v>
+      </c>
+      <c r="F115" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>406</v>
+      </c>
+      <c r="D116" t="s">
+        <v>626</v>
+      </c>
+      <c r="E116" t="s">
+        <v>581</v>
+      </c>
+      <c r="F116" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>407</v>
+      </c>
+      <c r="D117" t="s">
+        <v>599</v>
+      </c>
+      <c r="E117" t="s">
+        <v>581</v>
+      </c>
+      <c r="F117" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>408</v>
+      </c>
+      <c r="D118" t="s">
+        <v>589</v>
+      </c>
+      <c r="E118" t="s">
+        <v>581</v>
+      </c>
+      <c r="F118" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>408</v>
+      </c>
+      <c r="D119" t="s">
+        <v>595</v>
+      </c>
+      <c r="E119" t="s">
+        <v>581</v>
+      </c>
+      <c r="F119" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>409</v>
+      </c>
+      <c r="D120" t="s">
+        <v>634</v>
+      </c>
+      <c r="E120" t="s">
+        <v>669</v>
+      </c>
+      <c r="F120" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>410</v>
+      </c>
+      <c r="D121" t="s">
+        <v>603</v>
+      </c>
+      <c r="E121" t="s">
+        <v>581</v>
+      </c>
+      <c r="F121" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
+        <v>410</v>
+      </c>
+      <c r="D122" t="s">
+        <v>603</v>
+      </c>
+      <c r="E122" t="s">
+        <v>581</v>
+      </c>
+      <c r="F122" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>411</v>
+      </c>
+      <c r="D123" t="s">
+        <v>635</v>
+      </c>
+      <c r="E123" t="s">
+        <v>669</v>
+      </c>
+      <c r="F123" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>412</v>
+      </c>
+      <c r="D124" t="s">
+        <v>607</v>
+      </c>
+      <c r="E124" t="s">
+        <v>581</v>
+      </c>
+      <c r="F124" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>413</v>
+      </c>
+      <c r="D125" t="s">
+        <v>636</v>
+      </c>
+      <c r="E125" t="s">
+        <v>581</v>
+      </c>
+      <c r="F125" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>414</v>
+      </c>
+      <c r="D126" t="s">
+        <v>584</v>
+      </c>
+      <c r="E126" t="s">
+        <v>581</v>
+      </c>
+      <c r="F126" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>415</v>
+      </c>
+      <c r="D127" t="s">
+        <v>596</v>
+      </c>
+      <c r="E127" t="s">
+        <v>581</v>
+      </c>
+      <c r="F127" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>415</v>
+      </c>
+      <c r="D128" t="s">
+        <v>582</v>
+      </c>
+      <c r="E128" t="s">
+        <v>581</v>
+      </c>
+      <c r="F128" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>416</v>
+      </c>
+      <c r="D129" t="s">
+        <v>589</v>
+      </c>
+      <c r="E129" t="s">
+        <v>581</v>
+      </c>
+      <c r="F129" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
+        <v>416</v>
+      </c>
+      <c r="D130" t="s">
+        <v>594</v>
+      </c>
+      <c r="E130" t="s">
+        <v>581</v>
+      </c>
+      <c r="F130" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
+        <v>417</v>
+      </c>
+      <c r="D131" t="s">
+        <v>637</v>
+      </c>
+      <c r="E131" t="s">
+        <v>580</v>
+      </c>
+      <c r="F131" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" t="s">
+        <v>418</v>
+      </c>
+      <c r="D132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E132" t="s">
+        <v>581</v>
+      </c>
+      <c r="F132" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" t="s">
+        <v>419</v>
+      </c>
+      <c r="D133" t="s">
+        <v>599</v>
+      </c>
+      <c r="E133" t="s">
+        <v>581</v>
+      </c>
+      <c r="F133" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" t="s">
+        <v>420</v>
+      </c>
+      <c r="D134" t="s">
+        <v>589</v>
+      </c>
+      <c r="E134" t="s">
+        <v>581</v>
+      </c>
+      <c r="F134" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+      <c r="C135" t="s">
+        <v>421</v>
+      </c>
+      <c r="D135" t="s">
+        <v>593</v>
+      </c>
+      <c r="E135" t="s">
+        <v>581</v>
+      </c>
+      <c r="F135" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>422</v>
+      </c>
+      <c r="D136" t="s">
+        <v>638</v>
+      </c>
+      <c r="E136" t="s">
+        <v>581</v>
+      </c>
+      <c r="F136" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" t="s">
+        <v>423</v>
+      </c>
+      <c r="D137" t="s">
+        <v>590</v>
+      </c>
+      <c r="E137" t="s">
+        <v>581</v>
+      </c>
+      <c r="F137" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
+        <v>424</v>
+      </c>
+      <c r="D138" t="s">
+        <v>584</v>
+      </c>
+      <c r="E138" t="s">
+        <v>581</v>
+      </c>
+      <c r="F138" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" t="s">
+        <v>425</v>
+      </c>
+      <c r="D139" t="s">
+        <v>613</v>
+      </c>
+      <c r="E139" t="s">
+        <v>669</v>
+      </c>
+      <c r="F139" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>426</v>
+      </c>
+      <c r="D140" t="s">
+        <v>593</v>
+      </c>
+      <c r="E140" t="s">
+        <v>581</v>
+      </c>
+      <c r="F140" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141" t="s">
+        <v>427</v>
+      </c>
+      <c r="D141" t="s">
+        <v>582</v>
+      </c>
+      <c r="E141" t="s">
+        <v>581</v>
+      </c>
+      <c r="F141" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>428</v>
+      </c>
+      <c r="D142" t="s">
+        <v>638</v>
+      </c>
+      <c r="E142" t="s">
+        <v>581</v>
+      </c>
+      <c r="F142" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>429</v>
+      </c>
+      <c r="D143" t="s">
+        <v>590</v>
+      </c>
+      <c r="E143" t="s">
+        <v>581</v>
+      </c>
+      <c r="F143" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>142</v>
+      </c>
+      <c r="C144" t="s">
+        <v>430</v>
+      </c>
+      <c r="D144" t="s">
+        <v>615</v>
+      </c>
+      <c r="E144" t="s">
+        <v>581</v>
+      </c>
+      <c r="F144" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>143</v>
+      </c>
+      <c r="C145" t="s">
+        <v>431</v>
+      </c>
+      <c r="D145" t="s">
+        <v>588</v>
+      </c>
+      <c r="E145" t="s">
+        <v>581</v>
+      </c>
+      <c r="F145" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146" t="s">
+        <v>432</v>
+      </c>
+      <c r="D146" t="s">
+        <v>609</v>
+      </c>
+      <c r="E146" t="s">
+        <v>581</v>
+      </c>
+      <c r="F146" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+      <c r="C147" t="s">
+        <v>433</v>
+      </c>
+      <c r="D147" t="s">
+        <v>639</v>
+      </c>
+      <c r="E147" t="s">
+        <v>669</v>
+      </c>
+      <c r="F147" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" t="s">
+        <v>433</v>
+      </c>
+      <c r="D148" t="s">
+        <v>638</v>
+      </c>
+      <c r="E148" t="s">
+        <v>581</v>
+      </c>
+      <c r="F148" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>434</v>
+      </c>
+      <c r="D149" t="s">
+        <v>638</v>
+      </c>
+      <c r="E149" t="s">
+        <v>581</v>
+      </c>
+      <c r="F149" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" t="s">
+        <v>434</v>
+      </c>
+      <c r="D150" t="s">
+        <v>603</v>
+      </c>
+      <c r="E150" t="s">
+        <v>581</v>
+      </c>
+      <c r="F150" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" t="s">
+        <v>435</v>
+      </c>
+      <c r="D151" t="s">
+        <v>599</v>
+      </c>
+      <c r="E151" t="s">
+        <v>581</v>
+      </c>
+      <c r="F151" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>436</v>
+      </c>
+      <c r="D152" t="s">
+        <v>588</v>
+      </c>
+      <c r="E152" t="s">
+        <v>581</v>
+      </c>
+      <c r="F152" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>437</v>
+      </c>
+      <c r="D153" t="s">
+        <v>609</v>
+      </c>
+      <c r="E153" t="s">
+        <v>581</v>
+      </c>
+      <c r="F153" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>437</v>
+      </c>
+      <c r="D154" t="s">
+        <v>586</v>
+      </c>
+      <c r="E154" t="s">
+        <v>581</v>
+      </c>
+      <c r="F154" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>438</v>
+      </c>
+      <c r="D155" t="s">
+        <v>582</v>
+      </c>
+      <c r="E155" t="s">
+        <v>581</v>
+      </c>
+      <c r="F155" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C156" t="s">
+        <v>439</v>
+      </c>
+      <c r="D156" t="s">
+        <v>640</v>
+      </c>
+      <c r="E156" t="s">
+        <v>581</v>
+      </c>
+      <c r="F156" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>440</v>
+      </c>
+      <c r="D157" t="s">
+        <v>640</v>
+      </c>
+      <c r="E157" t="s">
+        <v>581</v>
+      </c>
+      <c r="F157" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
+        <v>441</v>
+      </c>
+      <c r="D158" t="s">
+        <v>641</v>
+      </c>
+      <c r="E158" t="s">
+        <v>671</v>
+      </c>
+      <c r="F158" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" t="s">
+        <v>442</v>
+      </c>
+      <c r="D159" t="s">
+        <v>582</v>
+      </c>
+      <c r="E159" t="s">
+        <v>581</v>
+      </c>
+      <c r="F159" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" t="s">
+        <v>443</v>
+      </c>
+      <c r="D160" t="s">
+        <v>621</v>
+      </c>
+      <c r="E160" t="s">
+        <v>580</v>
+      </c>
+      <c r="F160" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" t="s">
+        <v>444</v>
+      </c>
+      <c r="D161" t="s">
+        <v>640</v>
+      </c>
+      <c r="E161" t="s">
+        <v>581</v>
+      </c>
+      <c r="F161" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>159</v>
+      </c>
+      <c r="C162" t="s">
+        <v>445</v>
+      </c>
+      <c r="D162" t="s">
+        <v>642</v>
+      </c>
+      <c r="E162" t="s">
+        <v>580</v>
+      </c>
+      <c r="F162" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" t="s">
+        <v>445</v>
+      </c>
+      <c r="D163" t="s">
+        <v>643</v>
+      </c>
+      <c r="E163" t="s">
+        <v>668</v>
+      </c>
+      <c r="F163" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>161</v>
+      </c>
+      <c r="C164" t="s">
+        <v>446</v>
+      </c>
+      <c r="D164" t="s">
+        <v>599</v>
+      </c>
+      <c r="E164" t="s">
+        <v>581</v>
+      </c>
+      <c r="F164" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" t="s">
+        <v>447</v>
+      </c>
+      <c r="D165" t="s">
+        <v>593</v>
+      </c>
+      <c r="E165" t="s">
+        <v>581</v>
+      </c>
+      <c r="F165" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" t="s">
+        <v>448</v>
+      </c>
+      <c r="D166" t="s">
+        <v>644</v>
+      </c>
+      <c r="E166" t="s">
+        <v>581</v>
+      </c>
+      <c r="F166" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167" t="s">
+        <v>449</v>
+      </c>
+      <c r="D167" t="s">
+        <v>593</v>
+      </c>
+      <c r="E167" t="s">
+        <v>581</v>
+      </c>
+      <c r="F167" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>165</v>
+      </c>
+      <c r="C168" t="s">
+        <v>450</v>
+      </c>
+      <c r="D168" t="s">
+        <v>645</v>
+      </c>
+      <c r="E168" t="s">
+        <v>606</v>
+      </c>
+      <c r="F168" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" t="s">
+        <v>451</v>
+      </c>
+      <c r="D169" t="s">
+        <v>609</v>
+      </c>
+      <c r="E169" t="s">
+        <v>581</v>
+      </c>
+      <c r="F169" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" t="s">
+        <v>452</v>
+      </c>
+      <c r="D170" t="s">
+        <v>615</v>
+      </c>
+      <c r="E170" t="s">
+        <v>581</v>
+      </c>
+      <c r="F170" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>168</v>
+      </c>
+      <c r="C171" t="s">
+        <v>453</v>
+      </c>
+      <c r="D171" t="s">
+        <v>608</v>
+      </c>
+      <c r="E171" t="s">
+        <v>581</v>
+      </c>
+      <c r="F171" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172" t="s">
+        <v>453</v>
+      </c>
+      <c r="D172" t="s">
+        <v>616</v>
+      </c>
+      <c r="E172" t="s">
+        <v>581</v>
+      </c>
+      <c r="F172" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173" t="s">
+        <v>454</v>
+      </c>
+      <c r="D173" t="s">
+        <v>590</v>
+      </c>
+      <c r="E173" t="s">
+        <v>581</v>
+      </c>
+      <c r="F173" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" t="s">
+        <v>455</v>
+      </c>
+      <c r="D174" t="s">
+        <v>608</v>
+      </c>
+      <c r="E174" t="s">
+        <v>581</v>
+      </c>
+      <c r="F174" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" t="s">
+        <v>456</v>
+      </c>
+      <c r="D175" t="s">
+        <v>646</v>
+      </c>
+      <c r="E175" t="s">
+        <v>580</v>
+      </c>
+      <c r="F175" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>173</v>
+      </c>
+      <c r="C176" t="s">
+        <v>457</v>
+      </c>
+      <c r="D176" t="s">
+        <v>647</v>
+      </c>
+      <c r="E176" t="s">
+        <v>581</v>
+      </c>
+      <c r="F176" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" t="s">
+        <v>458</v>
+      </c>
+      <c r="D177" t="s">
+        <v>648</v>
+      </c>
+      <c r="E177" t="s">
+        <v>581</v>
+      </c>
+      <c r="F177" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>175</v>
+      </c>
+      <c r="C178" t="s">
+        <v>459</v>
+      </c>
+      <c r="D178" t="s">
+        <v>624</v>
+      </c>
+      <c r="E178" t="s">
+        <v>581</v>
+      </c>
+      <c r="F178" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>176</v>
+      </c>
+      <c r="C179" t="s">
+        <v>460</v>
+      </c>
+      <c r="D179" t="s">
+        <v>628</v>
+      </c>
+      <c r="E179" t="s">
+        <v>581</v>
+      </c>
+      <c r="F179" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>177</v>
+      </c>
+      <c r="C180" t="s">
+        <v>461</v>
+      </c>
+      <c r="D180" t="s">
+        <v>649</v>
+      </c>
+      <c r="E180" t="s">
+        <v>580</v>
+      </c>
+      <c r="F180" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181" t="s">
+        <v>462</v>
+      </c>
+      <c r="D181" t="s">
+        <v>615</v>
+      </c>
+      <c r="E181" t="s">
+        <v>589</v>
+      </c>
+      <c r="F181" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>179</v>
+      </c>
+      <c r="C182" t="s">
+        <v>463</v>
+      </c>
+      <c r="D182" t="s">
+        <v>582</v>
+      </c>
+      <c r="E182" t="s">
+        <v>580</v>
+      </c>
+      <c r="F182" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>180</v>
+      </c>
+      <c r="C183" t="s">
+        <v>464</v>
+      </c>
+      <c r="D183" t="s">
+        <v>611</v>
+      </c>
+      <c r="E183" t="s">
+        <v>581</v>
+      </c>
+      <c r="F183" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>181</v>
+      </c>
+      <c r="C184" t="s">
+        <v>465</v>
+      </c>
+      <c r="D184" t="s">
+        <v>602</v>
+      </c>
+      <c r="E184" t="s">
+        <v>580</v>
+      </c>
+      <c r="F184" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" t="s">
+        <v>466</v>
+      </c>
+      <c r="D185" t="s">
+        <v>593</v>
+      </c>
+      <c r="E185" t="s">
+        <v>581</v>
+      </c>
+      <c r="F185" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186" t="s">
+        <v>467</v>
+      </c>
+      <c r="D186" t="s">
+        <v>584</v>
+      </c>
+      <c r="E186" t="s">
+        <v>581</v>
+      </c>
+      <c r="F186" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>184</v>
+      </c>
+      <c r="C187" t="s">
+        <v>468</v>
+      </c>
+      <c r="D187" t="s">
+        <v>640</v>
+      </c>
+      <c r="E187" t="s">
+        <v>581</v>
+      </c>
+      <c r="F187" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>185</v>
+      </c>
+      <c r="C188" t="s">
+        <v>469</v>
+      </c>
+      <c r="D188" t="s">
+        <v>609</v>
+      </c>
+      <c r="E188" t="s">
+        <v>581</v>
+      </c>
+      <c r="F188" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>186</v>
+      </c>
+      <c r="C189" t="s">
+        <v>470</v>
+      </c>
+      <c r="D189" t="s">
+        <v>589</v>
+      </c>
+      <c r="E189" t="s">
+        <v>581</v>
+      </c>
+      <c r="F189" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>187</v>
+      </c>
+      <c r="C190" t="s">
+        <v>470</v>
+      </c>
+      <c r="D190" t="s">
+        <v>612</v>
+      </c>
+      <c r="E190" t="s">
+        <v>581</v>
+      </c>
+      <c r="F190" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>188</v>
+      </c>
+      <c r="C191" t="s">
+        <v>471</v>
+      </c>
+      <c r="D191" t="s">
+        <v>650</v>
+      </c>
+      <c r="E191" t="s">
+        <v>586</v>
+      </c>
+      <c r="F191" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>189</v>
+      </c>
+      <c r="C192" t="s">
+        <v>472</v>
+      </c>
+      <c r="D192" t="s">
+        <v>603</v>
+      </c>
+      <c r="E192" t="s">
+        <v>580</v>
+      </c>
+      <c r="F192" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>190</v>
+      </c>
+      <c r="C193" t="s">
+        <v>473</v>
+      </c>
+      <c r="D193" t="s">
+        <v>596</v>
+      </c>
+      <c r="E193" t="s">
+        <v>581</v>
+      </c>
+      <c r="F193" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194" t="s">
+        <v>474</v>
+      </c>
+      <c r="D194" t="s">
+        <v>651</v>
+      </c>
+      <c r="E194" t="s">
+        <v>581</v>
+      </c>
+      <c r="F194" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>192</v>
+      </c>
+      <c r="C195" t="s">
+        <v>475</v>
+      </c>
+      <c r="D195" t="s">
+        <v>584</v>
+      </c>
+      <c r="E195" t="s">
+        <v>581</v>
+      </c>
+      <c r="F195" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>193</v>
+      </c>
+      <c r="C196" t="s">
+        <v>476</v>
+      </c>
+      <c r="D196" t="s">
+        <v>621</v>
+      </c>
+      <c r="E196" t="s">
+        <v>581</v>
+      </c>
+      <c r="F196" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>194</v>
+      </c>
+      <c r="C197" t="s">
+        <v>477</v>
+      </c>
+      <c r="D197" t="s">
+        <v>584</v>
+      </c>
+      <c r="E197" t="s">
+        <v>581</v>
+      </c>
+      <c r="F197" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>195</v>
+      </c>
+      <c r="C198" t="s">
+        <v>478</v>
+      </c>
+      <c r="D198" t="s">
+        <v>590</v>
+      </c>
+      <c r="E198" t="s">
+        <v>581</v>
+      </c>
+      <c r="F198" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>196</v>
+      </c>
+      <c r="C199" t="s">
+        <v>479</v>
+      </c>
+      <c r="D199" t="s">
+        <v>593</v>
+      </c>
+      <c r="E199" t="s">
+        <v>581</v>
+      </c>
+      <c r="F199" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>197</v>
+      </c>
+      <c r="C200" t="s">
+        <v>480</v>
+      </c>
+      <c r="D200" t="s">
+        <v>609</v>
+      </c>
+      <c r="E200" t="s">
+        <v>581</v>
+      </c>
+      <c r="F200" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>198</v>
+      </c>
+      <c r="C201" t="s">
+        <v>481</v>
+      </c>
+      <c r="D201" t="s">
+        <v>604</v>
+      </c>
+      <c r="E201" t="s">
+        <v>581</v>
+      </c>
+      <c r="F201" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>199</v>
+      </c>
+      <c r="C202" t="s">
+        <v>482</v>
+      </c>
+      <c r="D202" t="s">
+        <v>647</v>
+      </c>
+      <c r="E202" t="s">
+        <v>581</v>
+      </c>
+      <c r="F202" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>200</v>
+      </c>
+      <c r="C203" t="s">
+        <v>483</v>
+      </c>
+      <c r="D203" t="s">
+        <v>604</v>
+      </c>
+      <c r="E203" t="s">
+        <v>669</v>
+      </c>
+      <c r="F203" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>201</v>
+      </c>
+      <c r="C204" t="s">
+        <v>484</v>
+      </c>
+      <c r="D204" t="s">
+        <v>598</v>
+      </c>
+      <c r="E204" t="s">
+        <v>581</v>
+      </c>
+      <c r="F204" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>202</v>
+      </c>
+      <c r="C205" t="s">
+        <v>485</v>
+      </c>
+      <c r="D205" t="s">
+        <v>652</v>
+      </c>
+      <c r="E205" t="s">
+        <v>590</v>
+      </c>
+      <c r="F205" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206" t="s">
+        <v>486</v>
+      </c>
+      <c r="D206" t="s">
+        <v>587</v>
+      </c>
+      <c r="E206" t="s">
+        <v>581</v>
+      </c>
+      <c r="F206" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>204</v>
+      </c>
+      <c r="C207" t="s">
+        <v>487</v>
+      </c>
+      <c r="D207" t="s">
+        <v>594</v>
+      </c>
+      <c r="E207" t="s">
+        <v>669</v>
+      </c>
+      <c r="F207" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>205</v>
+      </c>
+      <c r="C208" t="s">
+        <v>488</v>
+      </c>
+      <c r="D208" t="s">
+        <v>653</v>
+      </c>
+      <c r="E208" t="s">
+        <v>580</v>
+      </c>
+      <c r="F208" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>206</v>
+      </c>
+      <c r="C209" t="s">
+        <v>489</v>
+      </c>
+      <c r="D209" t="s">
+        <v>628</v>
+      </c>
+      <c r="E209" t="s">
+        <v>581</v>
+      </c>
+      <c r="F209" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210" t="s">
+        <v>490</v>
+      </c>
+      <c r="D210" t="s">
+        <v>654</v>
+      </c>
+      <c r="E210" t="s">
+        <v>603</v>
+      </c>
+      <c r="F210" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>208</v>
+      </c>
+      <c r="C211" t="s">
+        <v>491</v>
+      </c>
+      <c r="D211" t="s">
+        <v>636</v>
+      </c>
+      <c r="E211" t="s">
+        <v>581</v>
+      </c>
+      <c r="F211" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>209</v>
+      </c>
+      <c r="C212" t="s">
+        <v>492</v>
+      </c>
+      <c r="D212" t="s">
+        <v>655</v>
+      </c>
+      <c r="E212" t="s">
+        <v>579</v>
+      </c>
+      <c r="F212" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>210</v>
+      </c>
+      <c r="C213" t="s">
+        <v>493</v>
+      </c>
+      <c r="D213" t="s">
+        <v>656</v>
+      </c>
+      <c r="E213" t="s">
+        <v>669</v>
+      </c>
+      <c r="F213" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>211</v>
+      </c>
+      <c r="C214" t="s">
+        <v>494</v>
+      </c>
+      <c r="D214" t="s">
+        <v>657</v>
+      </c>
+      <c r="E214" t="s">
+        <v>580</v>
+      </c>
+      <c r="F214" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>212</v>
+      </c>
+      <c r="C215" t="s">
+        <v>495</v>
+      </c>
+      <c r="D215" t="s">
+        <v>590</v>
+      </c>
+      <c r="E215" t="s">
+        <v>581</v>
+      </c>
+      <c r="F215" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>213</v>
+      </c>
+      <c r="C216" t="s">
+        <v>496</v>
+      </c>
+      <c r="D216" t="s">
+        <v>608</v>
+      </c>
+      <c r="E216" t="s">
+        <v>581</v>
+      </c>
+      <c r="F216" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>214</v>
+      </c>
+      <c r="C217" t="s">
+        <v>497</v>
+      </c>
+      <c r="D217" t="s">
+        <v>582</v>
+      </c>
+      <c r="E217" t="s">
+        <v>581</v>
+      </c>
+      <c r="F217" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218" t="s">
+        <v>498</v>
+      </c>
+      <c r="D218" t="s">
+        <v>586</v>
+      </c>
+      <c r="E218" t="s">
+        <v>581</v>
+      </c>
+      <c r="F218" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C219" t="s">
+        <v>499</v>
+      </c>
+      <c r="D219" t="s">
+        <v>590</v>
+      </c>
+      <c r="E219" t="s">
+        <v>581</v>
+      </c>
+      <c r="F219" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>217</v>
+      </c>
+      <c r="C220" t="s">
+        <v>500</v>
+      </c>
+      <c r="D220" t="s">
+        <v>609</v>
+      </c>
+      <c r="E220" t="s">
+        <v>581</v>
+      </c>
+      <c r="F220" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>218</v>
+      </c>
+      <c r="C221" t="s">
+        <v>500</v>
+      </c>
+      <c r="D221" t="s">
+        <v>658</v>
+      </c>
+      <c r="E221" t="s">
+        <v>586</v>
+      </c>
+      <c r="F221" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>219</v>
+      </c>
+      <c r="C222" t="s">
+        <v>501</v>
+      </c>
+      <c r="D222" t="s">
+        <v>659</v>
+      </c>
+      <c r="E222" t="s">
+        <v>583</v>
+      </c>
+      <c r="F222" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>220</v>
+      </c>
+      <c r="C223" t="s">
+        <v>502</v>
+      </c>
+      <c r="D223" t="s">
+        <v>586</v>
+      </c>
+      <c r="E223" t="s">
+        <v>581</v>
+      </c>
+      <c r="F223" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>221</v>
+      </c>
+      <c r="C224" t="s">
+        <v>503</v>
+      </c>
+      <c r="D224" t="s">
+        <v>594</v>
+      </c>
+      <c r="E224" t="s">
+        <v>581</v>
+      </c>
+      <c r="F224" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>222</v>
+      </c>
+      <c r="C225" t="s">
+        <v>504</v>
+      </c>
+      <c r="D225" t="s">
+        <v>653</v>
+      </c>
+      <c r="E225" t="s">
+        <v>581</v>
+      </c>
+      <c r="F225" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>223</v>
+      </c>
+      <c r="C226" t="s">
+        <v>505</v>
+      </c>
+      <c r="D226" t="s">
+        <v>585</v>
+      </c>
+      <c r="E226" t="s">
+        <v>581</v>
+      </c>
+      <c r="F226" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>224</v>
+      </c>
+      <c r="C227" t="s">
+        <v>506</v>
+      </c>
+      <c r="D227" t="s">
+        <v>602</v>
+      </c>
+      <c r="E227" t="s">
+        <v>581</v>
+      </c>
+      <c r="F227" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>225</v>
+      </c>
+      <c r="C228" t="s">
+        <v>507</v>
+      </c>
+      <c r="D228" t="s">
+        <v>609</v>
+      </c>
+      <c r="E228" t="s">
+        <v>581</v>
+      </c>
+      <c r="F228" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>226</v>
+      </c>
+      <c r="C229" t="s">
+        <v>508</v>
+      </c>
+      <c r="D229" t="s">
+        <v>636</v>
+      </c>
+      <c r="E229" t="s">
+        <v>581</v>
+      </c>
+      <c r="F229" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>227</v>
+      </c>
+      <c r="C230" t="s">
+        <v>509</v>
+      </c>
+      <c r="D230" t="s">
+        <v>660</v>
+      </c>
+      <c r="E230" t="s">
+        <v>580</v>
+      </c>
+      <c r="F230" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>228</v>
+      </c>
+      <c r="C231" t="s">
+        <v>510</v>
+      </c>
+      <c r="D231" t="s">
+        <v>661</v>
+      </c>
+      <c r="E231" t="s">
+        <v>670</v>
+      </c>
+      <c r="F231" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>229</v>
+      </c>
+      <c r="C232" t="s">
+        <v>511</v>
+      </c>
+      <c r="D232" t="s">
+        <v>599</v>
+      </c>
+      <c r="E232" t="s">
+        <v>581</v>
+      </c>
+      <c r="F232" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>230</v>
+      </c>
+      <c r="C233" t="s">
+        <v>512</v>
+      </c>
+      <c r="D233" t="s">
+        <v>598</v>
+      </c>
+      <c r="E233" t="s">
+        <v>581</v>
+      </c>
+      <c r="F233" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>231</v>
+      </c>
+      <c r="C234" t="s">
+        <v>513</v>
+      </c>
+      <c r="D234" t="s">
+        <v>602</v>
+      </c>
+      <c r="E234" t="s">
+        <v>581</v>
+      </c>
+      <c r="F234" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>232</v>
+      </c>
+      <c r="C235" t="s">
+        <v>513</v>
+      </c>
+      <c r="D235" t="s">
+        <v>651</v>
+      </c>
+      <c r="E235" t="s">
+        <v>581</v>
+      </c>
+      <c r="F235" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>233</v>
+      </c>
+      <c r="C236" t="s">
+        <v>514</v>
+      </c>
+      <c r="D236" t="s">
+        <v>598</v>
+      </c>
+      <c r="E236" t="s">
+        <v>581</v>
+      </c>
+      <c r="F236" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>234</v>
+      </c>
+      <c r="C237" t="s">
+        <v>515</v>
+      </c>
+      <c r="D237" t="s">
+        <v>590</v>
+      </c>
+      <c r="E237" t="s">
+        <v>581</v>
+      </c>
+      <c r="F237" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>235</v>
+      </c>
+      <c r="C238" t="s">
+        <v>516</v>
+      </c>
+      <c r="D238" t="s">
+        <v>636</v>
+      </c>
+      <c r="E238" t="s">
+        <v>581</v>
+      </c>
+      <c r="F238" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>236</v>
+      </c>
+      <c r="C239" t="s">
+        <v>517</v>
+      </c>
+      <c r="D239" t="s">
+        <v>609</v>
+      </c>
+      <c r="E239" t="s">
+        <v>581</v>
+      </c>
+      <c r="F239" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>237</v>
+      </c>
+      <c r="C240" t="s">
+        <v>518</v>
+      </c>
+      <c r="D240" t="s">
+        <v>636</v>
+      </c>
+      <c r="E240" t="s">
+        <v>581</v>
+      </c>
+      <c r="F240" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>238</v>
+      </c>
+      <c r="C241" t="s">
+        <v>519</v>
+      </c>
+      <c r="D241" t="s">
+        <v>603</v>
+      </c>
+      <c r="E241" t="s">
+        <v>581</v>
+      </c>
+      <c r="F241" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>239</v>
+      </c>
+      <c r="C242" t="s">
+        <v>520</v>
+      </c>
+      <c r="D242" t="s">
+        <v>628</v>
+      </c>
+      <c r="E242" t="s">
+        <v>581</v>
+      </c>
+      <c r="F242" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>240</v>
+      </c>
+      <c r="C243" t="s">
+        <v>521</v>
+      </c>
+      <c r="D243" t="s">
+        <v>597</v>
+      </c>
+      <c r="E243" t="s">
+        <v>581</v>
+      </c>
+      <c r="F243" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>241</v>
+      </c>
+      <c r="C244" t="s">
+        <v>522</v>
+      </c>
+      <c r="D244" t="s">
+        <v>662</v>
+      </c>
+      <c r="E244" t="s">
+        <v>589</v>
+      </c>
+      <c r="F244" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>242</v>
+      </c>
+      <c r="C245" t="s">
+        <v>523</v>
+      </c>
+      <c r="D245" t="s">
+        <v>609</v>
+      </c>
+      <c r="E245" t="s">
+        <v>581</v>
+      </c>
+      <c r="F245" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>243</v>
+      </c>
+      <c r="C246" t="s">
+        <v>524</v>
+      </c>
+      <c r="D246" t="s">
+        <v>636</v>
+      </c>
+      <c r="E246" t="s">
+        <v>581</v>
+      </c>
+      <c r="F246" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>244</v>
+      </c>
+      <c r="C247" t="s">
+        <v>525</v>
+      </c>
+      <c r="D247" t="s">
+        <v>611</v>
+      </c>
+      <c r="E247" t="s">
+        <v>581</v>
+      </c>
+      <c r="F247" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>245</v>
+      </c>
+      <c r="C248" t="s">
+        <v>526</v>
+      </c>
+      <c r="D248" t="s">
+        <v>611</v>
+      </c>
+      <c r="E248" t="s">
+        <v>581</v>
+      </c>
+      <c r="F248" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>246</v>
+      </c>
+      <c r="C249" t="s">
+        <v>527</v>
+      </c>
+      <c r="D249" t="s">
+        <v>589</v>
+      </c>
+      <c r="E249" t="s">
+        <v>581</v>
+      </c>
+      <c r="F249" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>247</v>
+      </c>
+      <c r="C250" t="s">
+        <v>528</v>
+      </c>
+      <c r="D250" t="s">
+        <v>585</v>
+      </c>
+      <c r="E250" t="s">
+        <v>581</v>
+      </c>
+      <c r="F250" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>248</v>
+      </c>
+      <c r="C251" t="s">
+        <v>529</v>
+      </c>
+      <c r="D251" t="s">
+        <v>609</v>
+      </c>
+      <c r="E251" t="s">
+        <v>581</v>
+      </c>
+      <c r="F251" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>249</v>
+      </c>
+      <c r="C252" t="s">
+        <v>529</v>
+      </c>
+      <c r="D252" t="s">
+        <v>587</v>
+      </c>
+      <c r="E252" t="s">
+        <v>581</v>
+      </c>
+      <c r="F252" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>250</v>
+      </c>
+      <c r="C253" t="s">
+        <v>530</v>
+      </c>
+      <c r="D253" t="s">
+        <v>609</v>
+      </c>
+      <c r="E253" t="s">
+        <v>580</v>
+      </c>
+      <c r="F253" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>251</v>
+      </c>
+      <c r="C254" t="s">
+        <v>531</v>
+      </c>
+      <c r="D254" t="s">
+        <v>589</v>
+      </c>
+      <c r="E254" t="s">
+        <v>581</v>
+      </c>
+      <c r="F254" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>252</v>
+      </c>
+      <c r="C255" t="s">
+        <v>532</v>
+      </c>
+      <c r="D255" t="s">
+        <v>620</v>
+      </c>
+      <c r="E255" t="s">
+        <v>581</v>
+      </c>
+      <c r="F255" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>253</v>
+      </c>
+      <c r="C256" t="s">
+        <v>533</v>
+      </c>
+      <c r="D256" t="s">
+        <v>621</v>
+      </c>
+      <c r="E256" t="s">
+        <v>581</v>
+      </c>
+      <c r="F256" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>254</v>
+      </c>
+      <c r="C257" t="s">
+        <v>534</v>
+      </c>
+      <c r="D257" t="s">
+        <v>596</v>
+      </c>
+      <c r="E257" t="s">
+        <v>581</v>
+      </c>
+      <c r="F257" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>255</v>
+      </c>
+      <c r="C258" t="s">
+        <v>535</v>
+      </c>
+      <c r="D258" t="s">
+        <v>640</v>
+      </c>
+      <c r="E258" t="s">
+        <v>581</v>
+      </c>
+      <c r="F258" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>256</v>
+      </c>
+      <c r="C259" t="s">
+        <v>536</v>
+      </c>
+      <c r="D259" t="s">
+        <v>663</v>
+      </c>
+      <c r="E259" t="s">
+        <v>672</v>
+      </c>
+      <c r="F259" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>257</v>
+      </c>
+      <c r="C260" t="s">
+        <v>537</v>
+      </c>
+      <c r="D260" t="s">
+        <v>597</v>
+      </c>
+      <c r="E260" t="s">
+        <v>580</v>
+      </c>
+      <c r="F260" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>258</v>
+      </c>
+      <c r="C261" t="s">
+        <v>538</v>
+      </c>
+      <c r="D261" t="s">
+        <v>664</v>
+      </c>
+      <c r="E261" t="s">
+        <v>669</v>
+      </c>
+      <c r="F261" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>259</v>
+      </c>
+      <c r="C262" t="s">
+        <v>539</v>
+      </c>
+      <c r="D262" t="s">
+        <v>596</v>
+      </c>
+      <c r="E262" t="s">
+        <v>581</v>
+      </c>
+      <c r="F262" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>260</v>
+      </c>
+      <c r="C263" t="s">
+        <v>540</v>
+      </c>
+      <c r="D263" t="s">
+        <v>665</v>
+      </c>
+      <c r="E263" t="s">
+        <v>581</v>
+      </c>
+      <c r="F263" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>261</v>
+      </c>
+      <c r="C264" t="s">
+        <v>541</v>
+      </c>
+      <c r="D264" t="s">
+        <v>628</v>
+      </c>
+      <c r="E264" t="s">
+        <v>581</v>
+      </c>
+      <c r="F264" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>262</v>
+      </c>
+      <c r="C265" t="s">
+        <v>542</v>
+      </c>
+      <c r="D265" t="s">
+        <v>596</v>
+      </c>
+      <c r="E265" t="s">
+        <v>581</v>
+      </c>
+      <c r="F265" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>263</v>
+      </c>
+      <c r="C266" t="s">
+        <v>543</v>
+      </c>
+      <c r="D266" t="s">
+        <v>586</v>
+      </c>
+      <c r="E266" t="s">
+        <v>581</v>
+      </c>
+      <c r="F266" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>264</v>
+      </c>
+      <c r="C267" t="s">
+        <v>544</v>
+      </c>
+      <c r="D267" t="s">
+        <v>597</v>
+      </c>
+      <c r="E267" t="s">
+        <v>581</v>
+      </c>
+      <c r="F267" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>265</v>
+      </c>
+      <c r="C268" t="s">
+        <v>545</v>
+      </c>
+      <c r="D268" t="s">
+        <v>628</v>
+      </c>
+      <c r="E268" t="s">
+        <v>581</v>
+      </c>
+      <c r="F268" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>266</v>
+      </c>
+      <c r="C269" t="s">
+        <v>546</v>
+      </c>
+      <c r="D269" t="s">
+        <v>588</v>
+      </c>
+      <c r="E269" t="s">
+        <v>581</v>
+      </c>
+      <c r="F269" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>267</v>
+      </c>
+      <c r="C270" t="s">
+        <v>547</v>
+      </c>
+      <c r="D270" t="s">
+        <v>596</v>
+      </c>
+      <c r="E270" t="s">
+        <v>581</v>
+      </c>
+      <c r="F270" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>268</v>
+      </c>
+      <c r="C271" t="s">
+        <v>548</v>
+      </c>
+      <c r="D271" t="s">
+        <v>640</v>
+      </c>
+      <c r="E271" t="s">
+        <v>581</v>
+      </c>
+      <c r="F271" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>269</v>
+      </c>
+      <c r="C272" t="s">
+        <v>549</v>
+      </c>
+      <c r="D272" t="s">
+        <v>602</v>
+      </c>
+      <c r="E272" t="s">
+        <v>581</v>
+      </c>
+      <c r="F272" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>270</v>
+      </c>
+      <c r="C273" t="s">
+        <v>550</v>
+      </c>
+      <c r="D273" t="s">
+        <v>628</v>
+      </c>
+      <c r="E273" t="s">
+        <v>581</v>
+      </c>
+      <c r="F273" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>271</v>
+      </c>
+      <c r="C274" t="s">
+        <v>551</v>
+      </c>
+      <c r="D274" t="s">
+        <v>596</v>
+      </c>
+      <c r="E274" t="s">
+        <v>581</v>
+      </c>
+      <c r="F274" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>272</v>
+      </c>
+      <c r="C275" t="s">
+        <v>552</v>
+      </c>
+      <c r="D275" t="s">
+        <v>590</v>
+      </c>
+      <c r="E275" t="s">
+        <v>581</v>
+      </c>
+      <c r="F275" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>273</v>
+      </c>
+      <c r="C276" t="s">
+        <v>553</v>
+      </c>
+      <c r="D276" t="s">
+        <v>594</v>
+      </c>
+      <c r="E276" t="s">
+        <v>581</v>
+      </c>
+      <c r="F276" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>274</v>
+      </c>
+      <c r="C277" t="s">
+        <v>554</v>
+      </c>
+      <c r="D277" t="s">
+        <v>584</v>
+      </c>
+      <c r="E277" t="s">
+        <v>581</v>
+      </c>
+      <c r="F277" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>275</v>
+      </c>
+      <c r="C278" t="s">
+        <v>555</v>
+      </c>
+      <c r="D278" t="s">
+        <v>616</v>
+      </c>
+      <c r="E278" t="s">
+        <v>580</v>
+      </c>
+      <c r="F278" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>276</v>
+      </c>
+      <c r="C279" t="s">
+        <v>556</v>
+      </c>
+      <c r="D279" t="s">
+        <v>666</v>
+      </c>
+      <c r="E279" t="s">
+        <v>580</v>
+      </c>
+      <c r="F279" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>277</v>
+      </c>
+      <c r="C280" t="s">
+        <v>557</v>
+      </c>
+      <c r="D280" t="s">
+        <v>595</v>
+      </c>
+      <c r="E280" t="s">
+        <v>580</v>
+      </c>
+      <c r="F280" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>278</v>
+      </c>
+      <c r="C281" t="s">
+        <v>558</v>
+      </c>
+      <c r="D281" t="s">
+        <v>628</v>
+      </c>
+      <c r="E281" t="s">
+        <v>581</v>
+      </c>
+      <c r="F281" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>279</v>
+      </c>
+      <c r="C282" t="s">
+        <v>559</v>
+      </c>
+      <c r="D282" t="s">
+        <v>588</v>
+      </c>
+      <c r="E282" t="s">
+        <v>581</v>
+      </c>
+      <c r="F282" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>280</v>
+      </c>
+      <c r="C283" t="s">
+        <v>560</v>
+      </c>
+      <c r="D283" t="s">
+        <v>621</v>
+      </c>
+      <c r="E283" t="s">
+        <v>581</v>
+      </c>
+      <c r="F283" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>281</v>
+      </c>
+      <c r="C284" t="s">
+        <v>561</v>
+      </c>
+      <c r="D284" t="s">
+        <v>628</v>
+      </c>
+      <c r="E284" t="s">
+        <v>581</v>
+      </c>
+      <c r="F284" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>282</v>
+      </c>
+      <c r="C285" t="s">
+        <v>562</v>
+      </c>
+      <c r="D285" t="s">
+        <v>607</v>
+      </c>
+      <c r="E285" t="s">
+        <v>581</v>
+      </c>
+      <c r="F285" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>283</v>
+      </c>
+      <c r="C286" t="s">
+        <v>563</v>
+      </c>
+      <c r="D286" t="s">
+        <v>628</v>
+      </c>
+      <c r="E286" t="s">
+        <v>581</v>
+      </c>
+      <c r="F286" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>284</v>
+      </c>
+      <c r="C287" t="s">
+        <v>564</v>
+      </c>
+      <c r="D287" t="s">
+        <v>647</v>
+      </c>
+      <c r="E287" t="s">
+        <v>581</v>
+      </c>
+      <c r="F287" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>285</v>
+      </c>
+      <c r="C288" t="s">
+        <v>565</v>
+      </c>
+      <c r="D288" t="s">
+        <v>609</v>
+      </c>
+      <c r="E288" t="s">
+        <v>580</v>
+      </c>
+      <c r="F288" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>286</v>
+      </c>
+      <c r="C289" t="s">
+        <v>566</v>
+      </c>
+      <c r="D289" t="s">
+        <v>667</v>
+      </c>
+      <c r="E289" t="s">
+        <v>581</v>
+      </c>
+      <c r="F289" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>287</v>
+      </c>
+      <c r="C290" t="s">
+        <v>567</v>
+      </c>
+      <c r="D290" t="s">
+        <v>595</v>
+      </c>
+      <c r="E290" t="s">
+        <v>581</v>
+      </c>
+      <c r="F290" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>288</v>
+      </c>
+      <c r="C291" t="s">
+        <v>568</v>
+      </c>
+      <c r="D291" t="s">
+        <v>605</v>
+      </c>
+      <c r="E291" t="s">
+        <v>581</v>
+      </c>
+      <c r="F291" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>289</v>
+      </c>
+      <c r="C292" t="s">
+        <v>569</v>
+      </c>
+      <c r="D292" t="s">
+        <v>621</v>
+      </c>
+      <c r="E292" t="s">
+        <v>581</v>
+      </c>
+      <c r="F292" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>290</v>
+      </c>
+      <c r="C293" t="s">
+        <v>570</v>
+      </c>
+      <c r="D293" t="s">
+        <v>590</v>
+      </c>
+      <c r="E293" t="s">
+        <v>581</v>
+      </c>
+      <c r="F293" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>291</v>
+      </c>
+      <c r="C294" t="s">
+        <v>571</v>
+      </c>
+      <c r="D294" t="s">
+        <v>599</v>
+      </c>
+      <c r="E294" t="s">
+        <v>581</v>
+      </c>
+      <c r="F294" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>292</v>
+      </c>
+      <c r="C295" t="s">
+        <v>572</v>
+      </c>
+      <c r="D295" t="s">
+        <v>589</v>
+      </c>
+      <c r="E295" t="s">
+        <v>580</v>
+      </c>
+      <c r="F295" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>293</v>
+      </c>
+      <c r="C296" t="s">
+        <v>573</v>
+      </c>
+      <c r="D296" t="s">
+        <v>598</v>
+      </c>
+      <c r="E296" t="s">
+        <v>581</v>
+      </c>
+      <c r="F296" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>294</v>
+      </c>
+      <c r="C297" t="s">
+        <v>574</v>
+      </c>
+      <c r="D297" t="s">
+        <v>587</v>
+      </c>
+      <c r="E297" t="s">
+        <v>581</v>
+      </c>
+      <c r="F297" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>295</v>
+      </c>
+      <c r="C298" t="s">
+        <v>575</v>
+      </c>
+      <c r="D298" t="s">
+        <v>585</v>
+      </c>
+      <c r="E298" t="s">
+        <v>581</v>
+      </c>
+      <c r="F298" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>296</v>
+      </c>
+      <c r="C299" t="s">
+        <v>576</v>
+      </c>
+      <c r="D299" t="s">
+        <v>593</v>
+      </c>
+      <c r="E299" t="s">
+        <v>580</v>
+      </c>
+      <c r="F299" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>297</v>
+      </c>
+      <c r="C300" t="s">
+        <v>577</v>
+      </c>
+      <c r="D300" t="s">
+        <v>668</v>
+      </c>
+      <c r="E300" t="s">
+        <v>581</v>
+      </c>
+      <c r="F300" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>298</v>
+      </c>
+      <c r="C301" t="s">
+        <v>578</v>
+      </c>
+      <c r="D301" t="s">
+        <v>589</v>
+      </c>
+      <c r="E301" t="s">
+        <v>581</v>
+      </c>
+      <c r="F301" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/data/네이트판.xlsx
+++ b/data/네이트판.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="450">
   <si>
     <t>제목</t>
   </si>
@@ -31,12 +31,177 @@
     <t>추천수</t>
   </si>
   <si>
+    <t>일이삼사</t>
+  </si>
+  <si>
+    <t>은근 거슬리고 짜증나는 친구 어케해야함</t>
+  </si>
+  <si>
+    <t>하하하</t>
+  </si>
+  <si>
+    <t>쿠팡 배송 해본사람 ㅈㅂ</t>
+  </si>
+  <si>
+    <t>인생책 추천 부탁해요</t>
+  </si>
+  <si>
+    <t>파리바게x 빵 겉면에 묻은 흰가루</t>
+  </si>
+  <si>
+    <t>백현 유투브 문제 없는데 정병들 난리쳐서</t>
+  </si>
+  <si>
+    <t>모든 사람은 악기와 같다.</t>
+  </si>
+  <si>
+    <t>게으른 아내</t>
+  </si>
+  <si>
+    <t>보조개수술</t>
+  </si>
+  <si>
+    <t>겨울방학에 쌍수하면 봄방학 개학할때 어캄?</t>
+  </si>
+  <si>
+    <t>카페 관련 설문조사 부탁드려요!! (기프티콘 추첨 제공)</t>
+  </si>
+  <si>
+    <t>약속 안지키는 친구</t>
+  </si>
+  <si>
+    <t>ESTJ랑 INFP</t>
+  </si>
+  <si>
+    <t>ㅇㅇ</t>
+  </si>
+  <si>
+    <t>어디 학교인지 왜 궁금해 하지</t>
+  </si>
+  <si>
+    <t>월급루팡은 오늘도 일하기시르다~~</t>
+  </si>
+  <si>
+    <t>친구선물 코치</t>
+  </si>
+  <si>
+    <t>아이브 리즈</t>
+  </si>
+  <si>
+    <t>내친구</t>
+  </si>
+  <si>
+    <t>선배들에게 사랑받는 성훈</t>
+  </si>
+  <si>
+    <t>회사에 문의전화했으면 자기소속 밝히는게 기본아니야?</t>
+  </si>
+  <si>
+    <t>스파이는 어쩌다가 스파이가 된건가요?</t>
+  </si>
+  <si>
+    <t>다들 집에서 앞머리 자를 때 어디서 자름?</t>
+  </si>
+  <si>
+    <t>비오 장동민 닮지 않음..?</t>
+  </si>
+  <si>
+    <t>기분 따라 생활비 가지고 줬다 안줬다 하는 남편들 있나요</t>
+  </si>
+  <si>
+    <t>예비고삼들아 1년 수능</t>
+  </si>
+  <si>
+    <t>성훈 예쁜 손톱</t>
+  </si>
+  <si>
+    <t>해바라기센터에전화해서 피해사실말하고</t>
+  </si>
+  <si>
+    <t>오늘까지만 진행하는 개꿀 이벤트</t>
+  </si>
+  <si>
+    <t>수능인데 내가 왜 눈물나냐</t>
+  </si>
+  <si>
+    <t>아침부터 층간소음협박(저는 가해자 입니다)</t>
+  </si>
+  <si>
+    <t>8개무ㅏ냐</t>
+  </si>
+  <si>
+    <t>전능신교(전능하신하나님의교회, 동방번개)</t>
+  </si>
+  <si>
+    <t>전능신교(동방번개)</t>
+  </si>
+  <si>
+    <t>오픈채팅 전남친</t>
+  </si>
+  <si>
+    <t>애니추천좀</t>
+  </si>
+  <si>
+    <t>개 오지는 shape of you쉡옵유 하나 들고옴</t>
+  </si>
+  <si>
+    <t>ㄴㅈㅇㅇㅈㄴㅁㅇㅍ</t>
+  </si>
+  <si>
+    <t>엄마 친구 차타고 수능장가ㄴ데</t>
+  </si>
+  <si>
+    <t>편의점사장님 어떡할까요 ?</t>
+  </si>
+  <si>
+    <t>그냥 다 내려놓고 싶다</t>
+  </si>
+  <si>
+    <t>짝남이랑 처음으로 놀러가는데</t>
+  </si>
+  <si>
+    <t>뜬금없이 화내거나 공격하는 인간들.</t>
+  </si>
+  <si>
+    <t>살림</t>
+  </si>
+  <si>
+    <t>임신중 시댁간섭 제가 예민한가요?</t>
+  </si>
+  <si>
+    <t>원래 동생이 언니 목조르는 장난침?</t>
+  </si>
+  <si>
+    <t>훌륭함은 모두의 것이고</t>
+  </si>
+  <si>
+    <t>고3 꼭 봐라 진짜</t>
+  </si>
+  <si>
+    <t>고1 내신 6인데</t>
+  </si>
+  <si>
+    <t>장원영</t>
+  </si>
+  <si>
+    <t>제니</t>
+  </si>
+  <si>
+    <t>전남친이 제가 사준 향수를 뿌리고 다녀요</t>
+  </si>
+  <si>
+    <t>고민 상담</t>
+  </si>
+  <si>
+    <t>Snl 엔시티꺼 존/나 웃겨 ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>요즘 왤케 북한노래들이 좋냐</t>
+  </si>
+  <si>
     <t>나만 일본보다 중국이 더 싫음?</t>
   </si>
   <si>
-    <t>나 술취하고 변기뚜껑 닫은상태로 볼일봄ㅜㅜㅜ</t>
-  </si>
-  <si>
     <t>쌍수하고 알바하는건</t>
   </si>
   <si>
@@ -49,402 +214,381 @@
     <t>ㅡ</t>
   </si>
   <si>
+    <t>고3 저식을 둔부모님과의 대학, 자취문제는 어떻게 해결하는게 좋을까요? (꼭읽어주시면...</t>
+  </si>
+  <si>
+    <t>내일 수능 치는 모든 분들</t>
+  </si>
+  <si>
+    <t>나 큰일남 임영웅</t>
+  </si>
+  <si>
+    <t>서울경기는 뭐 ㅈㄴ파티하냐</t>
+  </si>
+  <si>
+    <t>수능</t>
+  </si>
+  <si>
+    <t>친구랑 싸웠는데</t>
+  </si>
+  <si>
+    <t>12월 31일날 같이 술 마셔줄 여자</t>
+  </si>
+  <si>
+    <t>장원영 좋은 꿈 꿔 ❤️</t>
+  </si>
+  <si>
+    <t>여자친구 하소연 3시간동안 들어주고옴</t>
+  </si>
+  <si>
+    <t>친구랑 싸웠을때</t>
+  </si>
+  <si>
+    <t>불안하고 답답해서 어디에라도 아무말이라도 하고싶다</t>
+  </si>
+  <si>
+    <t>이거 아빠가 바람핀 건가요?</t>
+  </si>
+  <si>
+    <t>수능 화이팅!!</t>
+  </si>
+  <si>
+    <t>이거 메이크업 제품 이름 뭐야</t>
+  </si>
+  <si>
+    <t>쌍수 할 때 사진</t>
+  </si>
+  <si>
+    <t>윗트임 하면</t>
+  </si>
+  <si>
+    <t>그거 알아?</t>
+  </si>
+  <si>
+    <t>나 왜 이렇게 못생겼지 진짜</t>
+  </si>
+  <si>
+    <t>Enfp 랑 enfp랑 만나면 어때?</t>
+  </si>
+  <si>
+    <t>기타배울때 쌤이 손잡아..?</t>
+  </si>
+  <si>
+    <t>백현 유튜브 다 삭제됨</t>
+  </si>
+  <si>
+    <t>외모가 호감 있고 예쁘면</t>
+  </si>
+  <si>
+    <t>방탄 망함</t>
+  </si>
+  <si>
+    <t>사주. 팔자.운명 진짜일까요? 다 믿으세요?</t>
+  </si>
+  <si>
+    <t>백신 교차접종 30세 미만 모더나 제한... 1차 모더나 맞은 사람</t>
+  </si>
+  <si>
+    <t>노래방왔는데</t>
+  </si>
+  <si>
+    <t>나 하관이랑 매치 ㅈㄴ 안됨</t>
+  </si>
+  <si>
+    <t>라인 전화번호노출 됨?</t>
+  </si>
+  <si>
+    <t>유튜버 경이 인스타</t>
+  </si>
+  <si>
+    <t>페북을 보다가 충격적인걸 봤다</t>
+  </si>
+  <si>
+    <t>수원 영훈피어싱 확장이전했네</t>
+  </si>
+  <si>
+    <t>폰케이스 추천해조!</t>
+  </si>
+  <si>
+    <t>해피머니 써야하는데 머살까 추천 좀 해조</t>
+  </si>
+  <si>
+    <t>나 이제 어떻게 살지</t>
+  </si>
+  <si>
+    <t>딸 아이가 재수하겠다 선언하네요</t>
+  </si>
+  <si>
+    <t>대원 한영 대일 명덕 외고 빼고 유명한 외고 ㅇㄷ야</t>
+  </si>
+  <si>
+    <t>내 예상키 봐줄 사람...</t>
+  </si>
+  <si>
+    <t>남자친구가....</t>
+  </si>
+  <si>
+    <t>사랑사랑</t>
+  </si>
+  <si>
+    <t>빼빼로가 원래 이랬나</t>
+  </si>
+  <si>
+    <t>얘들아 나 숏패딩 살려는데</t>
+  </si>
+  <si>
+    <t>썸남한테 여우짓 하는 ㄴ</t>
+  </si>
+  <si>
+    <t>어장 치는 놈이랑 썸</t>
+  </si>
+  <si>
+    <t>하</t>
+  </si>
+  <si>
+    <t>한번만 도와주세요 진짜</t>
+  </si>
+  <si>
+    <t>혹시몰라서 남겨둡니다...김밥집에서 김밥먹다 돌을 씹었어요.</t>
+  </si>
+  <si>
+    <t>사주팔자가 정말 존재 하나요.  ?</t>
+  </si>
+  <si>
+    <t>11월17일 전국 아파트 실거래 신고가 순위 입니다</t>
+  </si>
+  <si>
+    <t>인증샷 다들 보내시나요?</t>
+  </si>
+  <si>
+    <t>요즘 배달비 3000원에서 몇백원씩 올리네ㅋㅋ</t>
+  </si>
+  <si>
+    <t>트와이스 포카 시세좀요</t>
+  </si>
+  <si>
+    <t>아빠가 너무 답답해요</t>
+  </si>
+  <si>
+    <t>혹시 저 같은 분들 있나요?</t>
+  </si>
+  <si>
+    <t>수능 하루 앞둔 재수생의 미래</t>
+  </si>
+  <si>
+    <t>설레는 썰 풀고가</t>
+  </si>
+  <si>
+    <t>조이 쿠키쟈 포카</t>
+  </si>
+  <si>
+    <t>심리학 전공하신 분들은 지인들의 행동을 보게되면 분석하게 되나요??</t>
+  </si>
+  <si>
+    <t>인팁이 꽥꽥이에게</t>
+  </si>
+  <si>
+    <t>짝남 있는데</t>
+  </si>
+  <si>
+    <t>모더나 접종 이후 심장, 가슴 쪽 찌릿</t>
+  </si>
+  <si>
+    <t>10년 넘게 함께한 친구, 서운해요</t>
+  </si>
+  <si>
+    <t>암산 속도 높이는 법</t>
+  </si>
+  <si>
+    <t>무리 MBTI 어떨거 같애</t>
+  </si>
+  <si>
+    <t>짝남이 손목 잡음</t>
+  </si>
+  <si>
+    <t>미국FBI 는 한국인들 갖고 놈.</t>
+  </si>
+  <si>
+    <t>마마 콜라보썰</t>
+  </si>
+  <si>
+    <t>NCT 태용·재민·지성·양양·태일·도영, 티저 이미지 공개</t>
+  </si>
+  <si>
+    <t>카리나 버블 구독한 사람ㅠㅠ 아무나</t>
+  </si>
+  <si>
+    <t>곧 이 사회의 공기가 그리워질 것 같아요</t>
+  </si>
+  <si>
+    <t>KEB하나은행 주택청약종합 통장을 분실후 계좌번호와 비밀번호만 알면 타은행에서 계좌이...</t>
+  </si>
+  <si>
+    <t>나 요즘 맨날 2-3인분씩 먹는데</t>
+  </si>
+  <si>
+    <t>[수능 후기]수능치는 친구들아 이거 보고 용기 얻고 가</t>
+  </si>
+  <si>
+    <t>생선 추반좀</t>
+  </si>
+  <si>
+    <t>03새끼들 다 나가라 ㅋ 04가 지배한다 ㅋ</t>
+  </si>
+  <si>
+    <t>억울 ...도둑받은 기분</t>
+  </si>
+  <si>
+    <t>3500만원 빌려간 채권자 아들이 아침에 전화했다고 돈 못준다네요</t>
+  </si>
+  <si>
+    <t>수능국어 마지막 뭐 풀까?</t>
+  </si>
+  <si>
+    <t>오늘새로분양받은강아지를 데리고</t>
+  </si>
+  <si>
+    <t>이혼 2년후 상대의 불륜을 알았네요</t>
+  </si>
+  <si>
+    <t>가난할 때엔 친구가 없었다. 부유해지니 친구가 많다.</t>
+  </si>
+  <si>
+    <t>쌍수 한 판녀들 있어? 도와줘 ㅈㅂ</t>
+  </si>
+  <si>
+    <t>핸드폰이 털리는 경로</t>
+  </si>
+  <si>
+    <t>줌 공부할사람? 고2</t>
+  </si>
+  <si>
+    <t>페이스북 로그아웃 안 했다가 핸드폰 털리는게</t>
+  </si>
+  <si>
+    <t>2.말기환자는 희망도 가지지 못하게 하는 ㅅㅂㄹㅅ 병원</t>
+  </si>
+  <si>
+    <t>제주도 사는 여장남자입니다.</t>
+  </si>
+  <si>
+    <t>UFO로1년거리에사는 신/출애18장10절</t>
+  </si>
+  <si>
+    <t>오늘 날씨</t>
+  </si>
+  <si>
+    <t>또 시작된 당근마켓 자동 숨기기 현상</t>
+  </si>
+  <si>
+    <t>잘해주고 싶었다.</t>
+  </si>
+  <si>
+    <t>주님(외계인)은1년뒤다시?오겠다</t>
+  </si>
+  <si>
+    <t>인스타 부계 뚫는 방법 없겠지</t>
+  </si>
+  <si>
+    <t>이재명과여비서~불륜에혼외자까지?~40명고소</t>
+  </si>
+  <si>
+    <t>얘들아 정시는</t>
+  </si>
+  <si>
+    <t>김민주 민주  인스타 (민주동생분이 찍어준 업데이트)</t>
+  </si>
+  <si>
+    <t>잠자는 약물로 생명이 위독하신 어머님을 도와주세요!!</t>
+  </si>
+  <si>
+    <t>경찰청사람들에 나온사람 하이킥에도나오네</t>
+  </si>
+  <si>
+    <t>워너원 재결합/ 에드시런, 워너원, 스트릿 우먼 파이터 2021 MAMA 출연확정</t>
+  </si>
+  <si>
+    <t>교회때문에 헤어지고 결혼 앞두고 연락하는 전남친</t>
+  </si>
+  <si>
+    <t>드더끝</t>
+  </si>
+  <si>
+    <t>결정사의 실체를 알랴줌</t>
+  </si>
+  <si>
+    <t>친구 권태기</t>
+  </si>
+  <si>
+    <t>택배가 안와~!!</t>
+  </si>
+  <si>
+    <t>쇼미독점영상</t>
+  </si>
+  <si>
+    <t>1.말기환자는 희망도 가지지 못하게 하는 ㅅㅂㄹㅅ 병원</t>
+  </si>
+  <si>
+    <t>수능장 변백현 모고임</t>
+  </si>
+  <si>
+    <t>인스타 댓글이벤트 ㄱㄱ(모바일기프티콘)</t>
+  </si>
+  <si>
+    <t>부산사람들이 별로인 이유</t>
+  </si>
+  <si>
+    <t>이번에 하는 프로그램</t>
+  </si>
+  <si>
+    <t>배달음식에 돈은 아까운데</t>
+  </si>
+  <si>
+    <t>여기 예민한 사람 너무 많음</t>
+  </si>
+  <si>
+    <t>나보다 더 빡센 인생 나와봐라</t>
+  </si>
+  <si>
+    <t>낼 수능 보는 사람들</t>
+  </si>
+  <si>
+    <t>친할수록 돈거래하지 말래서 일부러 돈빌려줬어요</t>
+  </si>
+  <si>
+    <t>나 인생 _된거같아...</t>
+  </si>
+  <si>
+    <t>수능 맨뒷자리 감독관</t>
+  </si>
+  <si>
+    <t>결혼약속후 파혼</t>
+  </si>
+  <si>
+    <t>.....</t>
+  </si>
+  <si>
+    <t>왜 껍질까라고 아무도 안 알려주냐</t>
+  </si>
+  <si>
+    <t>4번째 전세,, 역대급 지치는 집주인</t>
+  </si>
+  <si>
+    <t>수능칠때 초콜릿 어케 먹어?</t>
+  </si>
+  <si>
+    <t>이렇게 전 여혐으로 돌아서게 되었습니다</t>
+  </si>
+  <si>
+    <t>본인들의 잘못은 모른채 내 탓만 하시는 부모님과의 관계는 여기까진가봐..</t>
+  </si>
+  <si>
+    <t>층간소음 질문이요</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>고3 저식을 둔부모님과의 대학, 자취문제는 어떻게 해결하는게 좋을까요? (꼭읽어주시면...</t>
-  </si>
-  <si>
-    <t>내일 수능 치는 모든 분들</t>
-  </si>
-  <si>
-    <t>나 큰일남 임영웅</t>
-  </si>
-  <si>
-    <t>서울경기는 뭐 ㅈㄴ파티하냐</t>
-  </si>
-  <si>
-    <t>수능</t>
-  </si>
-  <si>
-    <t>친구랑 싸웠는데</t>
-  </si>
-  <si>
-    <t>12월 31일날 같이 술 마셔줄 여자</t>
-  </si>
-  <si>
-    <t>장원영</t>
-  </si>
-  <si>
-    <t>장원영 좋은 꿈 꿔 ❤️</t>
-  </si>
-  <si>
-    <t>여자친구 하소연 3시간동안 들어주고옴</t>
-  </si>
-  <si>
-    <t>친구랑 싸웠을때</t>
-  </si>
-  <si>
-    <t>불안하고 답답해서 어디에라도 아무말이라도 하고싶다</t>
-  </si>
-  <si>
-    <t>나만 짜증나?</t>
-  </si>
-  <si>
-    <t>이거 아빠가 바람핀 건가요?</t>
-  </si>
-  <si>
-    <t>수능 화이팅!!</t>
-  </si>
-  <si>
-    <t>이거 메이크업 제품 이름 뭐야</t>
-  </si>
-  <si>
-    <t>쌍수 할 때 사진</t>
-  </si>
-  <si>
-    <t>윗트임 하면</t>
-  </si>
-  <si>
-    <t>그거 알아?</t>
-  </si>
-  <si>
-    <t>나 왜 이렇게 못생겼지 진짜</t>
-  </si>
-  <si>
-    <t>Enfp 랑 enfp랑 만나면 어때?</t>
-  </si>
-  <si>
-    <t>기타배울때 쌤이 손잡아..?</t>
-  </si>
-  <si>
-    <t>백현 유튜브 다 삭제됨</t>
-  </si>
-  <si>
-    <t>외모가 호감 있고 예쁘면</t>
-  </si>
-  <si>
-    <t>방탄 망함</t>
-  </si>
-  <si>
-    <t>사주. 팔자.운명 진짜일까요? 다 믿으세요?</t>
-  </si>
-  <si>
-    <t>백신 교차접종 30세 미만 모더나 제한... 1차 모더나 맞은 사람</t>
-  </si>
-  <si>
-    <t>노래방왔는데</t>
-  </si>
-  <si>
-    <t>나 하관이랑 매치 ㅈㄴ 안됨</t>
-  </si>
-  <si>
-    <t>라인 전화번호노출 됨?</t>
-  </si>
-  <si>
-    <t>유튜버 경이 인스타</t>
-  </si>
-  <si>
-    <t>페북을 보다가 충격적인걸 봤다</t>
-  </si>
-  <si>
-    <t>수원 영훈피어싱 확장이전했네</t>
-  </si>
-  <si>
-    <t>폰케이스 추천해조!</t>
-  </si>
-  <si>
-    <t>해피머니 써야하는데 머살까 추천 좀 해조</t>
-  </si>
-  <si>
-    <t>나 이제 어떻게 살지</t>
-  </si>
-  <si>
-    <t>딸 아이가 재수하겠다 선언하네요</t>
-  </si>
-  <si>
-    <t>대원 한영 대일 명덕 외고 빼고 유명한 외고 ㅇㄷ야</t>
-  </si>
-  <si>
-    <t>내 예상키 봐줄 사람...</t>
-  </si>
-  <si>
-    <t>남자친구가....</t>
-  </si>
-  <si>
-    <t>사랑사랑</t>
-  </si>
-  <si>
-    <t>빼빼로가 원래 이랬나</t>
-  </si>
-  <si>
-    <t>얘들아 나 숏패딩 살려는데</t>
-  </si>
-  <si>
-    <t>썸남한테 여우짓 하는 ㄴ</t>
-  </si>
-  <si>
-    <t>어장 치는 놈이랑 썸</t>
-  </si>
-  <si>
-    <t>하</t>
-  </si>
-  <si>
-    <t>한번만 도와주세요 진짜</t>
-  </si>
-  <si>
-    <t>혹시몰라서 남겨둡니다...김밥집에서 김밥먹다 돌을 씹었어요.</t>
-  </si>
-  <si>
-    <t>애초에 그런 관계는 아니었을지도 모른다</t>
-  </si>
-  <si>
-    <t>사주팔자가 정말 존재 하나요.  ?</t>
-  </si>
-  <si>
-    <t>11월17일 전국 아파트 실거래 신고가 순위 입니다</t>
-  </si>
-  <si>
-    <t>부모님이 갱년기인 애들아</t>
-  </si>
-  <si>
-    <t>인증샷 다들 보내시나요?</t>
-  </si>
-  <si>
-    <t>요즘 배달비 3000원에서 몇백원씩 올리네ㅋㅋ</t>
-  </si>
-  <si>
-    <t>트와이스 포카 시세좀요</t>
-  </si>
-  <si>
-    <t>아빠가 너무 답답해요</t>
-  </si>
-  <si>
-    <t>혹시 저 같은 분들 있나요?</t>
-  </si>
-  <si>
-    <t>수능 하루 앞둔 재수생의 미래</t>
-  </si>
-  <si>
-    <t>설레는 썰 풀고가</t>
-  </si>
-  <si>
-    <t>조이 쿠키쟈 포카</t>
-  </si>
-  <si>
-    <t>심리학 전공하신 분들은 지인들의 행동을 보게되면 분석하게 되나요??</t>
-  </si>
-  <si>
-    <t>인팁이 꽥꽥이에게</t>
-  </si>
-  <si>
-    <t>짝남 있는데</t>
-  </si>
-  <si>
-    <t>제니</t>
-  </si>
-  <si>
-    <t>모더나 접종 이후 심장, 가슴 쪽 찌릿</t>
-  </si>
-  <si>
-    <t>10년 넘게 함께한 친구, 서운해요</t>
-  </si>
-  <si>
-    <t>암산 속도 높이는 법</t>
-  </si>
-  <si>
-    <t>무리 MBTI 어떨거 같애</t>
-  </si>
-  <si>
-    <t>짝남이 손목 잡음</t>
-  </si>
-  <si>
-    <t>미국FBI 는 한국인들 갖고 놈.</t>
-  </si>
-  <si>
-    <t>마마 콜라보썰</t>
-  </si>
-  <si>
-    <t>NCT 태용·재민·지성·양양·태일·도영, 티저 이미지 공개</t>
-  </si>
-  <si>
-    <t>카리나 버블 구독한 사람ㅠㅠ 아무나</t>
-  </si>
-  <si>
-    <t>곧 이 사회의 공기가 그리워질 것 같아요</t>
-  </si>
-  <si>
-    <t>KEB하나은행 주택청약종합 통장을 분실후 계좌번호와 비밀번호만 알면 타은행에서 계좌이...</t>
-  </si>
-  <si>
-    <t>나 요즘 맨날 2-3인분씩 먹는데</t>
-  </si>
-  <si>
-    <t>[수능 후기]수능치는 친구들아 이거 보고 용기 얻고 가</t>
-  </si>
-  <si>
-    <t>생선 추반좀</t>
-  </si>
-  <si>
-    <t>시어머니와 아주버님 너무 싫어요..</t>
-  </si>
-  <si>
-    <t>03새끼들 다 나가라 ㅋ 04가 지배한다 ㅋ</t>
-  </si>
-  <si>
-    <t>억울 ...도둑받은 기분</t>
-  </si>
-  <si>
-    <t>3500만원 빌려간 채권자 아들이 아침에 전화했다고 돈 못준다네요</t>
-  </si>
-  <si>
-    <t>수능국어 마지막 뭐 풀까?</t>
-  </si>
-  <si>
-    <t>오늘새로분양받은강아지를 데리고</t>
-  </si>
-  <si>
-    <t>이혼 2년후 상대의 불륜을 알았네요</t>
-  </si>
-  <si>
-    <t>가난할 때엔 친구가 없었다. 부유해지니 친구가 많다.</t>
-  </si>
-  <si>
-    <t>쌍수 한 판녀들 있어? 도와줘 ㅈㅂ</t>
-  </si>
-  <si>
-    <t>핸드폰이 털리는 경로</t>
-  </si>
-  <si>
-    <t>줌 공부할사람? 고2</t>
-  </si>
-  <si>
-    <t>페이스북 로그아웃 안 했다가 핸드폰 털리는게</t>
-  </si>
-  <si>
-    <t>2인가족생활비</t>
-  </si>
-  <si>
-    <t>2.말기환자는 희망도 가지지 못하게 하는 ㅅㅂㄹㅅ 병원</t>
-  </si>
-  <si>
-    <t>제주도 사는 여장남자입니다.</t>
-  </si>
-  <si>
-    <t>UFO로1년거리에사는 신/출애18장10절</t>
-  </si>
-  <si>
-    <t>오늘 날씨</t>
-  </si>
-  <si>
-    <t>또 시작된 당근마켓 자동 숨기기 현상</t>
-  </si>
-  <si>
-    <t>잘해주고 싶었다.</t>
-  </si>
-  <si>
-    <t>주님(외계인)은1년뒤다시?오겠다</t>
-  </si>
-  <si>
-    <t>인스타 부계 뚫는 방법 없겠지</t>
-  </si>
-  <si>
-    <t>이재명과여비서~불륜에혼외자까지?~40명고소</t>
-  </si>
-  <si>
-    <t>얘들아 정시는</t>
-  </si>
-  <si>
-    <t>김민주 민주  인스타 (민주동생분이 찍어준 업데이트)</t>
-  </si>
-  <si>
-    <t>잠자는 약물로 생명이 위독하신 어머님을 도와주세요!!</t>
-  </si>
-  <si>
-    <t>경찰청사람들에 나온사람 하이킥에도나오네</t>
-  </si>
-  <si>
-    <t>워너원 재결합/ 에드시런, 워너원, 스트릿 우먼 파이터 2021 MAMA 출연확정</t>
-  </si>
-  <si>
-    <t>교회때문에 헤어지고 결혼 앞두고 연락하는 전남친</t>
-  </si>
-  <si>
-    <t>드더끝</t>
-  </si>
-  <si>
-    <t>결정사의 실체를 알랴줌</t>
-  </si>
-  <si>
-    <t>친구 권태기</t>
-  </si>
-  <si>
-    <t>택배가 안와~!!</t>
-  </si>
-  <si>
-    <t>쇼미독점영상</t>
-  </si>
-  <si>
-    <t>1.말기환자는 희망도 가지지 못하게 하는 ㅅㅂㄹㅅ 병원</t>
-  </si>
-  <si>
-    <t>수능장 변백현 모고임</t>
-  </si>
-  <si>
-    <t>인스타 댓글이벤트 ㄱㄱ(모바일기프티콘)</t>
-  </si>
-  <si>
-    <t>부산사람들이 별로인 이유</t>
-  </si>
-  <si>
-    <t>이번에 하는 프로그램</t>
-  </si>
-  <si>
-    <t>배달음식에 돈은 아까운데</t>
-  </si>
-  <si>
-    <t>여기 예민한 사람 너무 많음</t>
-  </si>
-  <si>
-    <t>나보다 더 빡센 인생 나와봐라</t>
-  </si>
-  <si>
-    <t>낼 수능 보는 사람들</t>
-  </si>
-  <si>
-    <t>친할수록 돈거래하지 말래서 일부러 돈빌려줬어요</t>
-  </si>
-  <si>
-    <t>나 인생 _된거같아...</t>
-  </si>
-  <si>
-    <t>수능 맨뒷자리 감독관</t>
-  </si>
-  <si>
-    <t>결혼약속후 파혼</t>
-  </si>
-  <si>
-    <t>.....</t>
-  </si>
-  <si>
-    <t>왜 껍질까라고 아무도 안 알려주냐</t>
-  </si>
-  <si>
-    <t>4번째 전세,, 역대급 지치는 집주인</t>
-  </si>
-  <si>
-    <t>수능칠때 초콜릿 어케 먹어?</t>
-  </si>
-  <si>
-    <t>이렇게 전 여혐으로 돌아서게 되었습니다</t>
-  </si>
-  <si>
-    <t>본인들의 잘못은 모른채 내 탓만 하시는 부모님과의 관계는 여기까진가봐..</t>
-  </si>
-  <si>
-    <t>층간소음 질문이요</t>
-  </si>
-  <si>
     <t>책임론도 무한정 적용,울궈먹을수있는 게 아님</t>
   </si>
   <si>
@@ -454,9 +598,6 @@
     <t>초등영어교사 하려면</t>
   </si>
   <si>
-    <t>다시는 그렇게 안봐</t>
-  </si>
-  <si>
     <t>맨 앞자리 영어듣기 할 때 울림??</t>
   </si>
   <si>
@@ -472,21 +613,12 @@
     <t>요즘꼰대들 왤케 많나요?</t>
   </si>
   <si>
-    <t>뷔짤2</t>
-  </si>
-  <si>
-    <t>뷔짤</t>
-  </si>
-  <si>
     <t>저의 미래가 막막합니다</t>
   </si>
   <si>
     <t>우리 부모님은 왜이럴까</t>
   </si>
   <si>
-    <t>백신 부모님 동의서 내가 써도 돼?</t>
-  </si>
-  <si>
     <t>제가 속이 좁은건가요?</t>
   </si>
   <si>
@@ -763,147 +895,174 @@
     <t>신천지</t>
   </si>
   <si>
-    <t>저는 실패한 인생인걸까요?</t>
-  </si>
-  <si>
-    <t>아 많이먹어서 토할거같아</t>
-  </si>
-  <si>
-    <t>05 이상 질문 제발 조언 부탁</t>
-  </si>
-  <si>
-    <t>ㅋ</t>
-  </si>
-  <si>
-    <t>레베카 댄버스부인이랑 나(Ich) 대립이 진짜 재밌는 것 같아</t>
-  </si>
-  <si>
-    <t>혜리 예쁨!</t>
-  </si>
-  <si>
-    <t>정동원 출근길 좋아요</t>
-  </si>
-  <si>
-    <t>SBS &lt;궁금한 이야기Y&gt;에서 제보를 기다립니다.</t>
-  </si>
-  <si>
-    <t>청춘반환소송</t>
-  </si>
-  <si>
-    <t>블랙핑크 리사 새벽 입국길 반가워 ^^</t>
-  </si>
-  <si>
-    <t>N번방 처벌 감형됐대</t>
-  </si>
-  <si>
-    <t>학원 영어선생님 판에 글썼었나봐</t>
-  </si>
-  <si>
-    <t>정국미주</t>
-  </si>
-  <si>
-    <t>광화문 ㅇㄷㅆ 닭x비 부장님에게 갑질 및 폭언 다하고 해고당했습니다</t>
-  </si>
-  <si>
-    <t>아이돌에서 아이둘이라니ㅜㅜ</t>
-  </si>
-  <si>
-    <t>퇴사 1년</t>
-  </si>
-  <si>
-    <t>사무직은 너무 힘들어요 ㅠ</t>
-  </si>
-  <si>
-    <t>헬창부부가 만난 썰ㅋㅋㅋㅋㅋ이라는데 부럽당...</t>
-  </si>
-  <si>
-    <t>예비 고3의 진로</t>
-  </si>
-  <si>
-    <t>핸드폰 교체주기로 엄마한테..</t>
-  </si>
-  <si>
-    <t>뭐가 더 나음?</t>
-  </si>
-  <si>
-    <t>포근함</t>
-  </si>
-  <si>
-    <t>주님(외계인)이태양을가려?3시간동안</t>
-  </si>
-  <si>
-    <t>하늘이깜깜해져=대형UFO가해를가림/마태10장23절</t>
-  </si>
-  <si>
-    <t>점심에 빵으로 때웠는데 너무 배고파 ㅜㅜ</t>
-  </si>
-  <si>
-    <t>적반하장 지하2호</t>
-  </si>
-  <si>
-    <t>하루 안 씻으면</t>
-  </si>
-  <si>
-    <t>이재명부인부상119출동~경찰24시간경호하며몰랐다?</t>
-  </si>
-  <si>
-    <t>_됏다 ㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>인기쩌는 학생회장 선배</t>
-  </si>
-  <si>
-    <t>인스타 팔삭</t>
-  </si>
-  <si>
-    <t>관상 믿어요??.</t>
-  </si>
-  <si>
-    <t>오피스텔 주차장에서 구정물</t>
-  </si>
-  <si>
-    <t>진지)고3 인생계획 팩폭이나 조언 부탁함</t>
-  </si>
-  <si>
-    <t>사이즈 큰 슬랙스를 사야하는데 추천 좀 해주세요 ㅠ</t>
-  </si>
-  <si>
-    <t>와 어떻게 그럴 수 있어</t>
-  </si>
-  <si>
-    <t>부평북부역에서 남부역으로 이동할 수가 없어요 도와주세요</t>
-  </si>
-  <si>
-    <t>피곤하면서도...</t>
-  </si>
-  <si>
-    <t>요즘 광고글</t>
-  </si>
-  <si>
-    <t>아니얘들아 에버랜드 1일권</t>
-  </si>
-  <si>
-    <t>반지 질문</t>
-  </si>
-  <si>
-    <t>편의점 1+1 누구소유!?!?</t>
-  </si>
-  <si>
-    <t>핸드크림!</t>
-  </si>
-  <si>
-    <t>전업주부 한달 생활비</t>
-  </si>
-  <si>
-    <t>당신 좋아요.</t>
+    <t>2021.11.18 13:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:49</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:36</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:23</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:59</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:14</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:04</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:46</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:45</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:36</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:08</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:17</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:53</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:10</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:35</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 06:53</t>
+  </si>
+  <si>
+    <t>2021.11.18 05:41</t>
+  </si>
+  <si>
+    <t>2021.11.18 05:19</t>
+  </si>
+  <si>
+    <t>2021.11.18 04:16</t>
+  </si>
+  <si>
+    <t>2021.11.18 03:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 03:05</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:24</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:14</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:03</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:38</t>
   </si>
   <si>
     <t>2021.11.18 01:19</t>
   </si>
   <si>
-    <t>2021.11.18 01:17</t>
-  </si>
-  <si>
     <t>2021.11.18 01:14</t>
   </si>
   <si>
@@ -916,9 +1075,6 @@
     <t>2021.11.18 00:59</t>
   </si>
   <si>
-    <t>2021.11.18 00:58</t>
-  </si>
-  <si>
     <t>2021.11.18 00:53</t>
   </si>
   <si>
@@ -940,12 +1096,6 @@
     <t>2021.11.18 00:14</t>
   </si>
   <si>
-    <t>2021.11.18 00:11</t>
-  </si>
-  <si>
-    <t>2021.11.18 00:10</t>
-  </si>
-  <si>
     <t>2021.11.18 00:09</t>
   </si>
   <si>
@@ -964,232 +1114,256 @@
     <t>2021.11.16</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6,186</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>3,316</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1,459</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>4,981</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>2,423</t>
+  </si>
+  <si>
+    <t>8,817</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>681</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>8,125</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>453</t>
   </si>
 </sst>
 </file>
@@ -1578,16 +1752,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1598,16 +1772,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1618,16 +1792,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="E4" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F4" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1638,16 +1812,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1658,16 +1832,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1678,16 +1852,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1698,16 +1872,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1718,16 +1892,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1738,16 +1912,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F10" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1758,16 +1932,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F11" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1778,16 +1952,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D12" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1798,16 +1972,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F13" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1818,16 +1992,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="E14" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F14" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1838,16 +2012,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F15" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1858,16 +2032,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F16" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1875,19 +2049,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F17" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1895,19 +2069,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="E18" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F18" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1915,19 +2089,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="E19" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F19" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1935,19 +2109,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="E20" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F20" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1955,19 +2129,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D21" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="E21" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F21" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1975,19 +2149,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D22" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F22" t="s">
-        <v>316</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1995,19 +2169,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="E23" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F23" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2015,19 +2189,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D24" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="E24" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2035,19 +2209,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D25" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="E25" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F25" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2055,19 +2229,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>314</v>
       </c>
       <c r="D26" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F26" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2075,19 +2249,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="E27" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F27" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2095,19 +2269,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D28" t="s">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="E28" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F28" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2115,19 +2289,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F29" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2135,19 +2309,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D30" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="E30" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F30" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2155,19 +2329,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="E31" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F31" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2175,19 +2349,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
       <c r="E32" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F32" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2195,19 +2369,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D33" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2215,19 +2389,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D34" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="E34" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F34" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2235,19 +2409,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D35" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="E35" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F35" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2255,19 +2429,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D36" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="E36" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2275,19 +2449,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D37" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="E37" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2295,19 +2469,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="D38" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="E38" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F38" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2315,19 +2489,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="D39" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E39" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F39" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2335,19 +2509,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D40" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="E40" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F40" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2355,19 +2529,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>379</v>
       </c>
       <c r="E41" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2375,19 +2549,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D42" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="E42" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F42" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2395,19 +2569,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="D43" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="E43" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F43" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2415,19 +2589,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D44" t="s">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="E44" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F44" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2435,19 +2609,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D45" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="E45" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F45" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2455,19 +2629,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D46" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="E46" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2475,19 +2649,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="D47" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="E47" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F47" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2495,19 +2669,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="D48" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="E48" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F48" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2515,19 +2689,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="D49" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="E49" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F49" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2535,19 +2709,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="D50" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="E50" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="F50" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2555,19 +2729,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="D51" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="E51" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F51" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2575,19 +2749,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="D52" t="s">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="E52" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2595,19 +2769,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="D53" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="E53" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F53" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2615,19 +2789,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="D54" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F54" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2638,16 +2812,16 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="D55" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="E55" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F55" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2658,16 +2832,16 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="D56" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="E56" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F56" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2675,19 +2849,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="D57" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F57" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2695,19 +2869,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="D58" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="E58" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F58" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2715,19 +2889,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
       <c r="E59" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F59" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2735,19 +2909,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D60" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F60" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2755,19 +2929,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="E61" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F61" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2775,19 +2949,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D62" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F62" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2795,19 +2969,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D63" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="E63" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F63" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2815,19 +2989,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="D64" t="s">
-        <v>318</v>
+        <v>399</v>
       </c>
       <c r="E64" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F64" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2835,19 +3009,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="D65" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F65" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2855,19 +3029,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="D66" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="E66" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F66" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2875,19 +3049,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="D67" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="E67" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F67" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2895,19 +3069,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="D68" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F68" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2915,19 +3089,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="D69" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="E69" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="F69" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2935,19 +3109,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="D70" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="E70" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F70" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2955,19 +3129,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="D71" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="E71" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F71" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2975,19 +3149,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="D72" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="E72" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F72" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2995,19 +3169,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="D73" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F73" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3015,19 +3189,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="E74" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="F74" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3035,19 +3209,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="D75" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="E75" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F75" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3055,19 +3229,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="D76" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="E76" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F76" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3075,19 +3249,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="D77" t="s">
-        <v>327</v>
+        <v>403</v>
       </c>
       <c r="E77" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F77" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3095,19 +3269,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="D78" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="E78" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F78" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3115,19 +3289,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="D79" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="E79" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F79" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3135,19 +3309,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="D80" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="E80" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F80" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3155,19 +3329,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="D81" t="s">
-        <v>328</v>
+        <v>391</v>
       </c>
       <c r="E81" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F81" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3175,19 +3349,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="D82" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="E82" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="F82" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3195,19 +3369,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D83" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="E83" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F83" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3215,19 +3389,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D84" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="E84" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F84" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3235,19 +3409,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D85" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="E85" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F85" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3255,19 +3429,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D86" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="E86" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F86" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3275,19 +3449,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D87" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F87" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3295,19 +3469,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D88" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F88" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3315,19 +3489,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D89" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="E89" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F89" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3335,19 +3509,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D90" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="E90" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F90" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3355,19 +3529,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D91" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F91" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3375,19 +3549,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D92" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F92" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3395,19 +3569,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D93" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F93" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3415,19 +3589,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D94" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="E94" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="F94" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3435,19 +3609,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D95" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="F95" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3455,19 +3629,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D96" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="E96" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F96" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3475,19 +3649,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="E97" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F97" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3495,19 +3669,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D98" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="E98" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F98" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3515,19 +3689,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D99" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="E99" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F99" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3535,19 +3709,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D100" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="E100" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F100" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3555,19 +3729,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D101" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="E101" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F101" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3575,19 +3749,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D102" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="E102" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F102" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3595,19 +3769,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D103" t="s">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="E103" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F103" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3615,19 +3789,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="E104" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="F104" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3635,19 +3809,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D105" t="s">
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="E105" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="F105" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3655,19 +3829,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D106" t="s">
-        <v>338</v>
+        <v>409</v>
       </c>
       <c r="E106" t="s">
-        <v>316</v>
+        <v>449</v>
       </c>
       <c r="F106" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3675,19 +3849,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D107" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="E107" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F107" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3695,19 +3869,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D108" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="E108" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F108" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3715,19 +3889,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D109" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="E109" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F109" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3735,19 +3909,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D110" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="E110" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F110" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3755,19 +3929,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D111" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="E111" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F111" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3775,19 +3949,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D112" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="E112" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F112" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3795,19 +3969,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D113" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="E113" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F113" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3815,19 +3989,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D114" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="E114" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F114" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3835,19 +4009,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D115" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
       <c r="E115" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F115" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3855,19 +4029,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="E116" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F116" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3875,19 +4049,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D117" t="s">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="E117" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F117" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3895,19 +4069,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D118" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="E118" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F118" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3915,19 +4089,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C119" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D119" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="E119" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F119" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3935,19 +4109,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D120" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="E120" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F120" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3955,19 +4129,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D121" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="E121" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3975,19 +4149,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C122" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D122" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="E122" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F122" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3995,19 +4169,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C123" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D123" t="s">
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="E123" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F123" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4015,19 +4189,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C124" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D124" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="E124" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F124" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4035,19 +4209,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C125" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D125" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="E125" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F125" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4055,19 +4229,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C126" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D126" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="E126" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F126" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4075,19 +4249,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C127" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D127" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="E127" t="s">
-        <v>324</v>
+        <v>447</v>
       </c>
       <c r="F127" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4095,19 +4269,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D128" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="E128" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F128" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4115,19 +4289,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C129" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D129" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="E129" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F129" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4135,19 +4309,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C130" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="E130" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F130" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4155,19 +4329,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D131" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="E131" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F131" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4175,19 +4349,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C132" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D132" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="E132" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F132" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4195,19 +4369,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C133" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D133" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="E133" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F133" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4215,19 +4389,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D134" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="E134" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F134" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4235,19 +4409,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D135" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="E135" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F135" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4255,19 +4429,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C136" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D136" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="E136" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F136" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4275,19 +4449,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C137" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D137" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="E137" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F137" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4295,19 +4469,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C138" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D138" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="E138" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F138" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4315,19 +4489,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D139" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="E139" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F139" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4335,19 +4509,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C140" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D140" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="E140" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F140" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4355,19 +4529,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C141" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D141" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="E141" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F141" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4375,19 +4549,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C142" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D142" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="E142" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F142" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4395,19 +4569,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C143" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D143" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="E143" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="F143" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4415,19 +4589,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C144" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D144" t="s">
-        <v>346</v>
+        <v>418</v>
       </c>
       <c r="E144" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F144" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4435,19 +4609,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C145" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D145" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="E145" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F145" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4455,19 +4629,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C146" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D146" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="E146" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F146" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4475,19 +4649,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C147" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D147" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="E147" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F147" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4495,19 +4669,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="C148" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D148" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="E148" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F148" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4515,19 +4689,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D149" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="E149" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F149" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4535,19 +4709,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C150" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D150" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="E150" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F150" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4555,19 +4729,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C151" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D151" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="E151" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F151" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4575,19 +4749,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D152" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="E152" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F152" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4595,19 +4769,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C153" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D153" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="E153" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F153" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4615,19 +4789,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C154" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D154" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="E154" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="F154" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4635,19 +4809,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C155" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D155" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="E155" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F155" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4655,19 +4829,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C156" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D156" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="E156" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F156" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4675,19 +4849,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C157" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D157" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="E157" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F157" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4695,19 +4869,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D158" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="E158" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F158" t="s">
-        <v>323</v>
+        <v>447</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4715,19 +4889,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C159" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D159" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="E159" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F159" t="s">
-        <v>324</v>
+        <v>447</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4735,19 +4909,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D160" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="E160" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4755,19 +4929,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C161" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D161" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E161" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4775,19 +4949,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C162" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D162" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="E162" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4795,19 +4969,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D163" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="E163" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4815,19 +4989,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C164" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D164" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="E164" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4835,19 +5009,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C165" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D165" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="E165" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4855,19 +5029,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C166" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D166" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E166" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4875,19 +5049,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C167" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D167" t="s">
-        <v>346</v>
+        <v>421</v>
       </c>
       <c r="E167" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4895,19 +5069,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C168" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D168" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E168" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F168" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4915,19 +5089,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D169" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="E169" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4935,19 +5109,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C170" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D170" t="s">
-        <v>334</v>
+        <v>422</v>
       </c>
       <c r="E170" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F170" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4955,19 +5129,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C171" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D171" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="E171" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4975,19 +5149,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C172" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D172" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="E172" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4995,19 +5169,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C173" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D173" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="E173" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F173" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5015,19 +5189,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C174" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D174" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="E174" t="s">
-        <v>324</v>
+        <v>447</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5035,19 +5209,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C175" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D175" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="E175" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="F175" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5055,19 +5229,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C176" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D176" t="s">
-        <v>364</v>
+        <v>424</v>
       </c>
       <c r="E176" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="F176" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5075,19 +5249,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C177" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D177" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="E177" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F177" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5095,19 +5269,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C178" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D178" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="E178" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="F178" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5115,19 +5289,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C179" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D179" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="E179" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F179" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5135,19 +5309,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C180" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D180" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="E180" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F180" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5155,19 +5329,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C181" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D181" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="E181" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F181" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5175,19 +5349,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C182" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D182" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E182" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F182" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5195,19 +5369,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C183" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D183" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E183" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F183" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5215,19 +5389,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C184" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D184" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="E184" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F184" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5235,19 +5409,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C185" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D185" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="E185" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F185" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5255,19 +5429,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C186" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D186" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="E186" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F186" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5275,19 +5449,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C187" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D187" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="E187" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F187" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5295,19 +5469,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C188" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D188" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="E188" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5315,19 +5489,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C189" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D189" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="E189" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F189" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5335,19 +5509,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C190" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D190" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="E190" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F190" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5355,19 +5529,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C191" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D191" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="E191" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F191" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5375,19 +5549,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C192" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D192" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="E192" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5395,19 +5569,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C193" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D193" t="s">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="E193" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5415,19 +5589,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C194" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D194" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="E194" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F194" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5435,19 +5609,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C195" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D195" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="E195" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F195" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5455,19 +5629,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C196" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D196" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="E196" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="F196" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5475,19 +5649,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C197" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D197" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E197" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F197" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5495,19 +5669,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C198" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D198" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="E198" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F198" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5515,19 +5689,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C199" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D199" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="E199" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F199" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5535,19 +5709,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C200" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D200" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="E200" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="F200" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5555,19 +5729,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C201" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D201" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E201" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F201" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5575,19 +5749,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C202" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D202" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="E202" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F202" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5595,19 +5769,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C203" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D203" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="E203" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F203" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5615,19 +5789,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C204" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D204" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="E204" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F204" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5635,19 +5809,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C205" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D205" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E205" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F205" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5655,19 +5829,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D206" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="E206" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F206" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5675,19 +5849,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C207" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D207" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E207" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F207" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5695,19 +5869,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C208" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D208" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="E208" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F208" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5715,19 +5889,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C209" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D209" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="E209" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F209" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5735,19 +5909,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C210" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D210" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E210" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="F210" t="s">
-        <v>320</v>
+        <v>447</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5755,19 +5929,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C211" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D211" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="E211" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F211" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5775,19 +5949,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C212" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D212" t="s">
-        <v>339</v>
+        <v>419</v>
       </c>
       <c r="E212" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F212" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5795,19 +5969,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C213" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D213" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="E213" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F213" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5815,19 +5989,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="C214" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D214" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="E214" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F214" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5835,19 +6009,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="C215" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D215" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="E215" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F215" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5855,19 +6029,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C216" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D216" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="E216" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F216" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5875,19 +6049,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C217" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D217" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E217" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F217" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5895,19 +6069,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C218" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D218" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="E218" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F218" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5915,19 +6089,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C219" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D219" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
       <c r="E219" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="F219" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5935,19 +6109,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C220" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D220" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="E220" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F220" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5955,19 +6129,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C221" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D221" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="E221" t="s">
-        <v>342</v>
+        <v>447</v>
       </c>
       <c r="F221" t="s">
-        <v>336</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5975,19 +6149,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C222" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D222" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="E222" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F222" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5995,19 +6169,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C223" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D223" t="s">
-        <v>328</v>
+        <v>423</v>
       </c>
       <c r="E223" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F223" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6015,19 +6189,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C224" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D224" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="E224" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F224" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6035,19 +6209,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C225" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D225" t="s">
-        <v>334</v>
+        <v>432</v>
       </c>
       <c r="E225" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F225" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6055,19 +6229,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C226" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D226" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="E226" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F226" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6075,19 +6249,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C227" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D227" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="E227" t="s">
-        <v>322</v>
+        <v>447</v>
       </c>
       <c r="F227" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6095,19 +6269,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C228" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D228" t="s">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="E228" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F228" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6115,19 +6289,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C229" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D229" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E229" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="F229" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6135,19 +6309,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C230" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D230" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="E230" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6155,19 +6329,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C231" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D231" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="E231" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F231" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6175,19 +6349,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C232" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D232" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="E232" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6195,19 +6369,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C233" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D233" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="E233" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6215,19 +6389,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C234" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D234" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="E234" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6235,19 +6409,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C235" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D235" t="s">
-        <v>320</v>
+        <v>433</v>
       </c>
       <c r="E235" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6255,19 +6429,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C236" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D236" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E236" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6275,19 +6449,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C237" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D237" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="E237" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F237" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6295,19 +6469,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C238" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D238" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="E238" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F238" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6315,19 +6489,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C239" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D239" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
       <c r="E239" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F239" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6335,19 +6509,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C240" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D240" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="E240" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F240" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6355,19 +6529,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C241" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D241" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="E241" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F241" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6375,19 +6549,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C242" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D242" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="E242" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="F242" t="s">
-        <v>325</v>
+        <v>449</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6395,19 +6569,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C243" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D243" t="s">
-        <v>327</v>
+        <v>433</v>
       </c>
       <c r="E243" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F243" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6415,19 +6589,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C244" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D244" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="E244" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F244" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6435,19 +6609,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C245" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D245" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="E245" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F245" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6455,19 +6629,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C246" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D246" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="E246" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F246" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6475,19 +6649,19 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C247" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D247" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="E247" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F247" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6495,19 +6669,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C248" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D248" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="E248" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F248" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6515,19 +6689,19 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C249" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D249" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="E249" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F249" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6535,19 +6709,19 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C250" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D250" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="E250" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F250" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6555,19 +6729,19 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C251" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D251" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E251" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F251" t="s">
-        <v>324</v>
+        <v>447</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6575,19 +6749,19 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C252" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D252" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="E252" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F252" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6595,19 +6769,19 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C253" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D253" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="E253" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F253" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6615,19 +6789,19 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C254" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D254" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="E254" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F254" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6635,19 +6809,19 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C255" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D255" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="E255" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
       <c r="F255" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6655,19 +6829,19 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C256" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D256" t="s">
-        <v>338</v>
+        <v>415</v>
       </c>
       <c r="E256" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F256" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6675,19 +6849,19 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C257" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D257" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="E257" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F257" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6695,19 +6869,19 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C258" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D258" t="s">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="E258" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F258" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6715,19 +6889,19 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="C259" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D259" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="E259" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F259" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6735,19 +6909,19 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="C260" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D260" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="E260" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F260" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6755,19 +6929,19 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C261" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D261" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="E261" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F261" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6775,19 +6949,19 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C262" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D262" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="E262" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F262" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6795,19 +6969,19 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C263" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D263" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="E263" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F263" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6815,19 +6989,19 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C264" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D264" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="E264" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F264" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6835,19 +7009,19 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C265" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D265" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="E265" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F265" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6855,19 +7029,19 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C266" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D266" t="s">
+        <v>440</v>
+      </c>
+      <c r="E266" t="s">
+        <v>383</v>
+      </c>
+      <c r="F266" t="s">
         <v>389</v>
-      </c>
-      <c r="E266" t="s">
-        <v>316</v>
-      </c>
-      <c r="F266" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6875,19 +7049,19 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C267" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D267" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="E267" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F267" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6895,19 +7069,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C268" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D268" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="E268" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F268" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6915,19 +7089,19 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C269" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D269" t="s">
         <v>390</v>
       </c>
       <c r="E269" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F269" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6935,19 +7109,19 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C270" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D270" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="E270" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F270" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6955,19 +7129,19 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C271" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D271" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="E271" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F271" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6975,19 +7149,19 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D272" t="s">
-        <v>351</v>
+        <v>441</v>
       </c>
       <c r="E272" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="F272" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6995,19 +7169,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C273" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D273" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="E273" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F273" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7015,19 +7189,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C274" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D274" t="s">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="E274" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F274" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7035,19 +7209,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C275" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D275" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="E275" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F275" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7055,19 +7229,19 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C276" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D276" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="E276" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F276" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7075,19 +7249,19 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C277" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D277" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="E277" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F277" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7095,19 +7269,19 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C278" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D278" t="s">
-        <v>328</v>
+        <v>443</v>
       </c>
       <c r="E278" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="F278" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7115,19 +7289,19 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C279" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D279" t="s">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="E279" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F279" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7135,19 +7309,19 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C280" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D280" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="E280" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F280" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7155,19 +7329,19 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C281" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D281" t="s">
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="E281" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F281" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7175,19 +7349,19 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C282" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D282" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="E282" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F282" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7195,19 +7369,19 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C283" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D283" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="E283" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F283" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7215,19 +7389,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C284" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D284" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="E284" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F284" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7235,19 +7409,19 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C285" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D285" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="E285" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F285" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7255,19 +7429,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C286" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D286" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E286" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F286" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7275,19 +7449,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C287" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D287" t="s">
-        <v>336</v>
+        <v>445</v>
       </c>
       <c r="E287" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="F287" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7295,19 +7469,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C288" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D288" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="E288" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F288" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7315,19 +7489,19 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C289" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D289" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="E289" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F289" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7335,19 +7509,19 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C290" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D290" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E290" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F290" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7355,19 +7529,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C291" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D291" t="s">
-        <v>326</v>
+        <v>403</v>
       </c>
       <c r="E291" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F291" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7375,19 +7549,19 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C292" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D292" t="s">
-        <v>337</v>
+        <v>436</v>
       </c>
       <c r="E292" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F292" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7395,19 +7569,19 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C293" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D293" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="E293" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F293" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7415,19 +7589,19 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C294" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D294" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="E294" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F294" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7435,19 +7609,19 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C295" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D295" t="s">
-        <v>335</v>
+        <v>423</v>
       </c>
       <c r="E295" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F295" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7455,19 +7629,19 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C296" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D296" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="E296" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="F296" t="s">
-        <v>316</v>
+        <v>449</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7475,19 +7649,19 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C297" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D297" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="E297" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F297" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7495,19 +7669,19 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C298" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D298" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="E298" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F298" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7515,19 +7689,19 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C299" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D299" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="E299" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="F299" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7535,19 +7709,19 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C300" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D300" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E300" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F300" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7555,19 +7729,19 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C301" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D301" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="E301" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="F301" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/data/네이트판.xlsx
+++ b/data/네이트판.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="469">
   <si>
     <t>제목</t>
   </si>
@@ -31,6 +31,81 @@
     <t>추천수</t>
   </si>
   <si>
+    <t>저녁 뭐 먹을지 고민이네요</t>
+  </si>
+  <si>
+    <t>인터넷 쇼핑  부분 배송시 반품 기간은 어떻게 되나요?</t>
+  </si>
+  <si>
+    <t>언니년 ㅈㄴ싫다</t>
+  </si>
+  <si>
+    <t>수능 본사람…제발 이것좀봐줘</t>
+  </si>
+  <si>
+    <t>네이트는 소설사이트로 변경하자</t>
+  </si>
+  <si>
+    <t>아파보면 많은게 바뀐다</t>
+  </si>
+  <si>
+    <t>수능</t>
+  </si>
+  <si>
+    <t>인스타스토리를 자꾸보네?</t>
+  </si>
+  <si>
+    <t>이세상에 누구하나 날 돕지않아도 두렵지않다</t>
+  </si>
+  <si>
+    <t>부산사람들이 통크고</t>
+  </si>
+  <si>
+    <t>인생에 즐거움은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>좋은 것을 주면</t>
+  </si>
+  <si>
+    <t>위메프에서 오븐사다가 빡돌아 미침.</t>
+  </si>
+  <si>
+    <t>걍졸라빡침ㅠ</t>
+  </si>
+  <si>
+    <t>시무륵...</t>
+  </si>
+  <si>
+    <t>거절하는 방법 알려주ㅛㅔ요 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>너희 포카나 파샤 어케 보관함</t>
+  </si>
+  <si>
+    <t>내가 악플 안다는 이유</t>
+  </si>
+  <si>
+    <t>전능신교(동방번개)</t>
+  </si>
+  <si>
+    <t>다들 하기싫은걸 해야할때 무슨 마음인가요??</t>
+  </si>
+  <si>
+    <t>ㄴㅇㅀㅇㄴㅀㅇㄴㄹ</t>
+  </si>
+  <si>
+    <t>사이비 조심하기</t>
+  </si>
+  <si>
+    <t>ㅁㄴㅇㄹㄴㅇㄹ</t>
+  </si>
+  <si>
+    <t>음</t>
+  </si>
+  <si>
+    <t>우리</t>
+  </si>
+  <si>
     <t>일이삼사</t>
   </si>
   <si>
@@ -40,6 +115,9 @@
     <t>하하하</t>
   </si>
   <si>
+    <t>미란다커가 빅토리아 시크릿 탑모델이야?</t>
+  </si>
+  <si>
     <t>쿠팡 배송 해본사람 ㅈㅂ</t>
   </si>
   <si>
@@ -73,15 +151,9 @@
     <t>ESTJ랑 INFP</t>
   </si>
   <si>
-    <t>ㅇㅇ</t>
-  </si>
-  <si>
     <t>어디 학교인지 왜 궁금해 하지</t>
   </si>
   <si>
-    <t>월급루팡은 오늘도 일하기시르다~~</t>
-  </si>
-  <si>
     <t>친구선물 코치</t>
   </si>
   <si>
@@ -94,9 +166,6 @@
     <t>선배들에게 사랑받는 성훈</t>
   </si>
   <si>
-    <t>회사에 문의전화했으면 자기소속 밝히는게 기본아니야?</t>
-  </si>
-  <si>
     <t>스파이는 어쩌다가 스파이가 된건가요?</t>
   </si>
   <si>
@@ -133,9 +202,6 @@
     <t>전능신교(전능하신하나님의교회, 동방번개)</t>
   </si>
   <si>
-    <t>전능신교(동방번개)</t>
-  </si>
-  <si>
     <t>오픈채팅 전남친</t>
   </si>
   <si>
@@ -217,18 +283,12 @@
     <t>고3 저식을 둔부모님과의 대학, 자취문제는 어떻게 해결하는게 좋을까요? (꼭읽어주시면...</t>
   </si>
   <si>
-    <t>내일 수능 치는 모든 분들</t>
-  </si>
-  <si>
     <t>나 큰일남 임영웅</t>
   </si>
   <si>
     <t>서울경기는 뭐 ㅈㄴ파티하냐</t>
   </si>
   <si>
-    <t>수능</t>
-  </si>
-  <si>
     <t>친구랑 싸웠는데</t>
   </si>
   <si>
@@ -277,9 +337,6 @@
     <t>백현 유튜브 다 삭제됨</t>
   </si>
   <si>
-    <t>외모가 호감 있고 예쁘면</t>
-  </si>
-  <si>
     <t>방탄 망함</t>
   </si>
   <si>
@@ -667,9 +724,6 @@
     <t>이 여자 아는 분?</t>
   </si>
   <si>
-    <t>직장내 스트레스에 대한 남자친구 반응</t>
-  </si>
-  <si>
     <t>남미새+주인공병+이기적인 전학생</t>
   </si>
   <si>
@@ -754,9 +808,6 @@
     <t>시댁의이런행동 상식적으로 맞나요??</t>
   </si>
   <si>
-    <t>음</t>
-  </si>
-  <si>
     <t>절친 생일선물10만원대 별루야?</t>
   </si>
   <si>
@@ -835,64 +886,76 @@
     <t>그냥 한 사람의 힘겨웠던 인생</t>
   </si>
   <si>
-    <t>알바지원했는데</t>
-  </si>
-  <si>
-    <t>삼성전자 휴대폰 액정 녹조현상에 대해서 기술부서와 서비스센터의 명확한 답변을 요구합니다.</t>
-  </si>
-  <si>
-    <t>알바 사장님 좋아하는 거 포기해야겠지?</t>
-  </si>
-  <si>
-    <t>병원 종사자분들 봐주세요.</t>
-  </si>
-  <si>
-    <t>전담안펴요~펴본적이없어요~</t>
-  </si>
-  <si>
-    <t>공부 안한 재수생있냐,,,</t>
-  </si>
-  <si>
-    <t>11월16일 전국 아파트 실거래 신고가 순위 입니다</t>
-  </si>
-  <si>
-    <t>할머니가 정수기 강매당했습니다 도와주세요</t>
-  </si>
-  <si>
-    <t>다까벗고 성상품화오지는 여자들존많</t>
-  </si>
-  <si>
-    <t>모든게 불안해</t>
-  </si>
-  <si>
-    <t>유학원 상담..</t>
-  </si>
-  <si>
-    <t>저에게 주어진 선물을 가족들에게 나누기를 강요해요</t>
-  </si>
-  <si>
-    <t>당근마켓 살인 국민청원</t>
-  </si>
-  <si>
-    <t>배달거부 하는 배달직원.. 부자 되세요^^</t>
-  </si>
-  <si>
-    <t>역시 양쪽말을 들어야한다</t>
-  </si>
-  <si>
-    <t>삼수해서 약대</t>
-  </si>
-  <si>
-    <t>65C면 어느 정도야?</t>
-  </si>
-  <si>
-    <t>실업급여 신청 전 사업자등록</t>
-  </si>
-  <si>
-    <t>나 가끔 판에서 궁금한게있는데,</t>
-  </si>
-  <si>
-    <t>신천지</t>
+    <t>2021.11.18 16:17</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:46</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:36</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:32</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:31</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:29</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:23</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:17</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:13</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:07</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:37</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:32</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:14</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:05</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:56</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:49</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:46</t>
   </si>
   <si>
     <t>2021.11.18 13:26</t>
@@ -901,6 +964,9 @@
     <t>2021.11.18 13:25</t>
   </si>
   <si>
+    <t>2021.11.18 13:16</t>
+  </si>
+  <si>
     <t>2021.11.18 12:49</t>
   </si>
   <si>
@@ -931,15 +997,9 @@
     <t>2021.11.18 11:28</t>
   </si>
   <si>
-    <t>2021.11.18 11:22</t>
-  </si>
-  <si>
     <t>2021.11.18 11:14</t>
   </si>
   <si>
-    <t>2021.11.18 11:04</t>
-  </si>
-  <si>
     <t>2021.11.18 11:00</t>
   </si>
   <si>
@@ -949,9 +1009,6 @@
     <t>2021.11.18 10:46</t>
   </si>
   <si>
-    <t>2021.11.18 10:45</t>
-  </si>
-  <si>
     <t>2021.11.18 10:40</t>
   </si>
   <si>
@@ -1078,9 +1135,6 @@
     <t>2021.11.18 00:53</t>
   </si>
   <si>
-    <t>2021.11.18 00:42</t>
-  </si>
-  <si>
     <t>2021.11.18 00:37</t>
   </si>
   <si>
@@ -1117,253 +1171,256 @@
     <t>1</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>10</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>28</t>
+    <t>389</t>
+  </si>
+  <si>
+    <t>475</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>384</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>10,143</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>5,286</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1,966</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>6,221</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>4,267</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6,186</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>3,316</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>1,459</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>4,981</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>2,423</t>
-  </si>
-  <si>
-    <t>8,817</t>
+    <t>8,835</t>
   </si>
   <si>
     <t>716</t>
   </si>
   <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>921</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>169</t>
+    <t>409</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>74</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1752,16 +1809,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1772,16 +1829,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F3" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1792,16 +1849,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E4" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F4" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1812,16 +1869,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F5" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1832,16 +1889,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F6" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1852,16 +1909,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="E7" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F7" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1872,16 +1929,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="E8" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F8" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1892,16 +1949,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="E9" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F9" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1912,16 +1969,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F10" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1932,16 +1989,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F11" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1952,16 +2009,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F12" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1972,16 +2029,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="E13" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F13" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1992,16 +2049,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F14" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2012,16 +2069,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D15" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F15" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2032,16 +2089,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F16" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2052,16 +2109,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E17" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F17" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2072,16 +2129,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="E18" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F18" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2092,16 +2149,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F19" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2112,16 +2169,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="E20" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F20" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2132,16 +2189,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D21" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E21" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F21" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2155,13 +2212,13 @@
         <v>310</v>
       </c>
       <c r="D22" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E22" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F22" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2172,16 +2229,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="E23" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F23" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2192,16 +2249,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E24" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F24" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2212,16 +2269,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D25" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F25" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2232,16 +2289,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F26" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2252,16 +2309,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="E27" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F27" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2272,16 +2329,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D28" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="E28" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F28" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2292,16 +2349,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D29" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F29" t="s">
-        <v>372</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2312,16 +2369,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E30" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F30" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2332,16 +2389,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="E31" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F31" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2352,16 +2409,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D32" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E32" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F32" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2372,16 +2429,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D33" t="s">
+        <v>396</v>
+      </c>
+      <c r="E33" t="s">
         <v>384</v>
       </c>
-      <c r="E33" t="s">
-        <v>366</v>
-      </c>
       <c r="F33" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2392,16 +2449,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D34" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="E34" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F34" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2412,16 +2469,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D35" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E35" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F35" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2432,16 +2489,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D36" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="E36" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F36" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2452,16 +2509,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D37" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E37" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F37" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2472,16 +2529,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D38" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E38" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F38" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2492,16 +2549,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D39" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E39" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F39" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2512,16 +2569,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D40" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E40" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F40" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2532,16 +2589,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D41" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="E41" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F41" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2552,16 +2609,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D42" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F42" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2572,16 +2629,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D43" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E43" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F43" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2592,16 +2649,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D44" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F44" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2612,16 +2669,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D45" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E45" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F45" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2632,16 +2689,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D46" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="E46" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2652,16 +2709,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D47" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E47" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F47" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2672,16 +2729,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D48" t="s">
         <v>393</v>
       </c>
       <c r="E48" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F48" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2692,16 +2749,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D49" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E49" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F49" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2712,16 +2769,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D50" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E50" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="F50" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2732,16 +2789,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D51" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="E51" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F51" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2752,16 +2809,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D52" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="E52" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F52" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2769,19 +2826,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D53" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="E53" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2789,19 +2846,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D54" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2809,19 +2866,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D55" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="E55" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2829,19 +2886,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D56" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="E56" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F56" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2849,19 +2906,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D57" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="E57" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2869,19 +2926,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D58" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E58" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F58" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2889,19 +2946,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D59" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E59" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F59" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2909,19 +2966,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D60" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="E60" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F60" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2929,19 +2986,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>344</v>
       </c>
       <c r="D61" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E61" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F61" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2949,19 +3006,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D62" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="E62" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F62" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2969,19 +3026,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D63" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E63" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F63" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2989,19 +3046,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D64" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="E64" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F64" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3009,19 +3066,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="E65" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F65" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3029,19 +3086,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D66" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="E66" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F66" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3049,19 +3106,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D67" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="E67" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F67" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3069,19 +3126,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D68" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="E68" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F68" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3089,19 +3146,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D69" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="E69" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F69" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3109,19 +3166,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D70" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E70" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F70" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3129,19 +3186,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D71" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="E71" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F71" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3149,19 +3206,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D72" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="E72" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F72" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3169,19 +3226,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D73" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="E73" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F73" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3189,19 +3246,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D74" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E74" t="s">
-        <v>368</v>
+        <v>467</v>
       </c>
       <c r="F74" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3209,19 +3266,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D75" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="E75" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F75" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3229,19 +3286,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D76" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="E76" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F76" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3249,19 +3306,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D77" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E77" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F77" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3269,19 +3326,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
         <v>359</v>
       </c>
       <c r="D78" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="E78" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F78" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3289,19 +3346,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
         <v>360</v>
       </c>
       <c r="D79" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="E79" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F79" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3309,19 +3366,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
         <v>361</v>
       </c>
       <c r="D80" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="E80" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F80" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3329,19 +3386,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>362</v>
       </c>
       <c r="D81" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="E81" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F81" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3349,19 +3406,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
         <v>363</v>
       </c>
       <c r="D82" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E82" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F82" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3369,19 +3426,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D83" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="E83" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F83" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3392,16 +3449,16 @@
         <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D84" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="E84" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F84" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3409,19 +3466,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D85" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E85" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F85" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3429,19 +3486,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D86" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="E86" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F86" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3449,19 +3506,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
         <v>364</v>
       </c>
       <c r="D87" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="E87" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F87" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3469,19 +3526,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D88" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="E88" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F88" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3489,19 +3546,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D89" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E89" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F89" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3509,19 +3566,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D90" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E90" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F90" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3529,19 +3586,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D91" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="E91" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F91" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3549,19 +3606,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D92" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="E92" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F92" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3569,19 +3626,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D93" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="E93" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F93" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3589,19 +3646,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D94" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E94" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F94" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3609,19 +3666,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D95" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="E95" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F95" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3629,19 +3686,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D96" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="E96" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="F96" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3649,19 +3706,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D97" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="E97" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F97" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3669,19 +3726,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="D98" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="E98" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F98" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3689,19 +3746,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D99" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="E99" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F99" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3709,19 +3766,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D100" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="E100" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F100" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3729,19 +3786,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D101" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="E101" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F101" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3749,19 +3806,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C102" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="D102" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="E102" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F102" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3769,19 +3826,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D103" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="E103" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F103" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3789,19 +3846,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="D104" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="E104" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F104" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3809,19 +3866,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C105" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D105" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E105" t="s">
-        <v>372</v>
+        <v>467</v>
       </c>
       <c r="F105" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3829,19 +3886,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C106" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D106" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E106" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="F106" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3849,19 +3906,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C107" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D107" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="E107" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F107" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3869,19 +3926,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D108" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="E108" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F108" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3889,19 +3946,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E109" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F109" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3909,19 +3966,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C110" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D110" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="E110" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F110" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3929,19 +3986,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D111" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="E111" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F111" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3949,19 +4006,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C112" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D112" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E112" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F112" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3969,19 +4026,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D113" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="E113" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F113" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3989,19 +4046,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C114" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D114" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="E114" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
       <c r="F114" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4009,19 +4066,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C115" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D115" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="E115" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F115" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4029,19 +4086,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C116" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D116" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="E116" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F116" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4049,19 +4106,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C117" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D117" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="E117" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F117" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4069,19 +4126,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C118" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D118" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E118" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F118" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4089,19 +4146,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C119" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D119" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="E119" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F119" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4109,19 +4166,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C120" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D120" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E120" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F120" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4129,19 +4186,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C121" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D121" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="E121" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F121" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4149,19 +4206,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D122" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="E122" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F122" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4169,19 +4226,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D123" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="E123" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F123" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4189,19 +4246,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D124" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E124" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F124" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4209,19 +4266,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D125" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E125" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F125" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4229,19 +4286,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D126" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="E126" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="F126" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4249,19 +4306,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D127" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="E127" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="F127" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4269,19 +4326,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D128" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E128" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F128" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4289,19 +4346,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D129" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E129" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F129" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4309,19 +4366,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D130" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E130" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F130" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4329,19 +4386,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D131" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="E131" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F131" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4349,19 +4406,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D132" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="E132" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F132" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4369,19 +4426,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D133" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F133" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4389,19 +4446,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D134" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="E134" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F134" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4409,19 +4466,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D135" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="E135" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F135" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4429,19 +4486,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D136" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E136" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F136" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4449,19 +4506,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C137" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D137" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="E137" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F137" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4469,19 +4526,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C138" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D138" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E138" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F138" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4489,19 +4546,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D139" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E139" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F139" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4509,19 +4566,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D140" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="E140" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F140" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4529,19 +4586,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D141" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="E141" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F141" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4549,19 +4606,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D142" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E142" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F142" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4569,19 +4626,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C143" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D143" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="E143" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F143" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4589,19 +4646,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C144" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D144" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="E144" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F144" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4609,19 +4666,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C145" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D145" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="E145" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F145" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4629,19 +4686,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C146" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D146" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E146" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F146" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4649,19 +4706,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C147" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D147" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="E147" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F147" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4669,19 +4726,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C148" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D148" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="E148" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F148" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4689,19 +4746,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C149" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D149" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="E149" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F149" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4709,19 +4766,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C150" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D150" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="E150" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F150" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4729,19 +4786,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C151" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D151" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E151" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F151" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4749,19 +4806,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C152" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D152" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="E152" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F152" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4769,19 +4826,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C153" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D153" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E153" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F153" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4789,19 +4846,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C154" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D154" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="E154" t="s">
-        <v>372</v>
+        <v>467</v>
       </c>
       <c r="F154" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4809,19 +4866,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C155" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D155" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="E155" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F155" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4829,19 +4886,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C156" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D156" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="E156" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F156" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4849,19 +4906,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C157" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D157" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="E157" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F157" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4869,19 +4926,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C158" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D158" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E158" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F158" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4889,19 +4946,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C159" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D159" t="s">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="E159" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F159" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4909,19 +4966,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C160" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D160" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="E160" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F160" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4929,19 +4986,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C161" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D161" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
       <c r="E161" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F161" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4949,19 +5006,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D162" t="s">
         <v>396</v>
       </c>
       <c r="E162" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F162" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4969,19 +5026,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C163" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D163" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="E163" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F163" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4989,19 +5046,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C164" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D164" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E164" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F164" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5009,19 +5066,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C165" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D165" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E165" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F165" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5029,19 +5086,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C166" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D166" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E166" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F166" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5049,19 +5106,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C167" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D167" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E167" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F167" t="s">
-        <v>368</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5069,19 +5126,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C168" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D168" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="E168" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F168" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5089,19 +5146,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C169" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D169" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="E169" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F169" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5109,19 +5166,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C170" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D170" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E170" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F170" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5129,19 +5186,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C171" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D171" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E171" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F171" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5149,19 +5206,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C172" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D172" t="s">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="E172" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F172" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5169,19 +5226,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C173" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D173" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E173" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F173" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5189,19 +5246,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C174" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D174" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="E174" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F174" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5209,19 +5266,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C175" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D175" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="E175" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="F175" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5229,19 +5286,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C176" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D176" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="E176" t="s">
-        <v>368</v>
+        <v>467</v>
       </c>
       <c r="F176" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5249,19 +5306,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C177" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D177" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E177" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F177" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5269,19 +5326,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C178" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D178" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="E178" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F178" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5289,19 +5346,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C179" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D179" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="E179" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F179" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5309,19 +5366,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C180" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D180" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E180" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F180" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5329,19 +5386,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C181" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D181" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E181" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F181" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5349,19 +5406,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C182" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="E182" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F182" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5369,19 +5426,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C183" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D183" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="E183" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F183" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5389,19 +5446,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C184" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D184" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="E184" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5409,19 +5466,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C185" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D185" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="E185" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F185" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5429,19 +5486,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C186" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D186" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="E186" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F186" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5449,19 +5506,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C187" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D187" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E187" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F187" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5469,19 +5526,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C188" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D188" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="E188" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
       <c r="F188" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5489,19 +5546,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C189" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D189" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="E189" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F189" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5509,19 +5566,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C190" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D190" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E190" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F190" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5529,19 +5586,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C191" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D191" t="s">
+        <v>420</v>
+      </c>
+      <c r="E191" t="s">
+        <v>467</v>
+      </c>
+      <c r="F191" t="s">
         <v>384</v>
-      </c>
-      <c r="E191" t="s">
-        <v>447</v>
-      </c>
-      <c r="F191" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5549,19 +5606,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C192" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D192" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="E192" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F192" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5569,19 +5626,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C193" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D193" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="E193" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F193" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5589,19 +5646,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C194" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D194" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E194" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F194" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5609,19 +5666,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C195" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D195" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="E195" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F195" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5629,19 +5686,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C196" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D196" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E196" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="F196" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5649,19 +5706,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C197" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D197" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="E197" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5669,19 +5726,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C198" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D198" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E198" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F198" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5689,19 +5746,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C199" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D199" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="E199" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5709,19 +5766,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C200" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D200" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E200" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F200" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5729,19 +5786,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C201" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D201" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="E201" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F201" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5749,19 +5806,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C202" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D202" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E202" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F202" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5769,19 +5826,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C203" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D203" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E203" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F203" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5789,19 +5846,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C204" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D204" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E204" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F204" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5809,19 +5866,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C205" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D205" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="E205" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F205" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5829,19 +5886,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C206" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D206" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="E206" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F206" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5849,19 +5906,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C207" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D207" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="E207" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F207" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5869,19 +5926,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D208" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E208" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F208" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5889,19 +5946,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C209" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D209" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="E209" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F209" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5909,19 +5966,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C210" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D210" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="E210" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F210" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5929,19 +5986,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C211" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D211" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E211" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F211" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5949,19 +6006,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C212" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D212" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="E212" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F212" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5969,19 +6026,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C213" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D213" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E213" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F213" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5989,19 +6046,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C214" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D214" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="E214" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F214" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6009,19 +6066,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C215" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D215" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="E215" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F215" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6029,19 +6086,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C216" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D216" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E216" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F216" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6049,19 +6106,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C217" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D217" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="E217" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F217" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6069,19 +6126,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C218" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D218" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="E218" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F218" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6089,19 +6146,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C219" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D219" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="E219" t="s">
-        <v>380</v>
+        <v>467</v>
       </c>
       <c r="F219" t="s">
-        <v>377</v>
+        <v>467</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6109,19 +6166,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C220" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D220" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="E220" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F220" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6129,19 +6186,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C221" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D221" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="E221" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F221" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6149,19 +6206,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C222" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D222" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="E222" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F222" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6169,19 +6226,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C223" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D223" t="s">
         <v>423</v>
       </c>
       <c r="E223" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F223" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6189,19 +6246,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C224" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D224" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F224" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6209,19 +6266,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C225" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D225" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F225" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6229,19 +6286,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C226" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D226" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F226" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6249,19 +6306,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C227" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D227" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F227" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6269,19 +6326,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C228" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D228" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F228" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6289,19 +6346,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C229" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D229" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="E229" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F229" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6309,19 +6366,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C230" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D230" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F230" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6329,19 +6386,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C231" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D231" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F231" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6349,19 +6406,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C232" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D232" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F232" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6369,19 +6426,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C233" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D233" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F233" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6389,19 +6446,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C234" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D234" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F234" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6409,19 +6466,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C235" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D235" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F235" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6429,19 +6486,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C236" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D236" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F236" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6449,19 +6506,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C237" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D237" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F237" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6469,19 +6526,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C238" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D238" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E238" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F238" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6489,19 +6546,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C239" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D239" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E239" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F239" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6509,19 +6566,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C240" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D240" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="E240" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="F240" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6529,19 +6586,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C241" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D241" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F241" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6549,19 +6606,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C242" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D242" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="E242" t="s">
-        <v>372</v>
+        <v>467</v>
       </c>
       <c r="F242" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6569,19 +6626,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C243" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D243" t="s">
         <v>433</v>
       </c>
       <c r="E243" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F243" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6589,19 +6646,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C244" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D244" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="E244" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F244" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6609,19 +6666,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C245" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D245" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E245" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F245" t="s">
-        <v>372</v>
+        <v>467</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6629,19 +6686,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C246" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D246" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="E246" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6649,19 +6706,19 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C247" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D247" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E247" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F247" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6669,19 +6726,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C248" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D248" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E248" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6689,19 +6746,19 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C249" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D249" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="E249" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F249" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6709,19 +6766,19 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C250" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D250" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="E250" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F250" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6729,19 +6786,19 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C251" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D251" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="E251" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F251" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6749,19 +6806,19 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C252" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D252" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="E252" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F252" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6769,19 +6826,19 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C253" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D253" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="E253" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F253" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6789,19 +6846,19 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D254" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E254" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F254" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6809,19 +6866,19 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C255" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D255" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="E255" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="F255" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6829,19 +6886,19 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C256" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D256" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E256" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F256" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6849,19 +6906,19 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C257" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D257" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E257" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F257" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6869,19 +6926,19 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C258" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D258" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E258" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F258" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6889,19 +6946,19 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C259" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D259" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="E259" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F259" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6909,19 +6966,19 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="C260" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D260" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="E260" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F260" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6932,16 +6989,16 @@
         <v>252</v>
       </c>
       <c r="C261" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D261" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E261" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F261" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6952,16 +7009,16 @@
         <v>253</v>
       </c>
       <c r="C262" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D262" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="E262" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="F262" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6972,16 +7029,16 @@
         <v>254</v>
       </c>
       <c r="C263" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D263" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="E263" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F263" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6992,16 +7049,16 @@
         <v>255</v>
       </c>
       <c r="C264" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D264" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="E264" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F264" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7012,16 +7069,16 @@
         <v>256</v>
       </c>
       <c r="C265" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D265" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="E265" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F265" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7032,16 +7089,16 @@
         <v>257</v>
       </c>
       <c r="C266" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D266" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="E266" t="s">
-        <v>383</v>
+        <v>467</v>
       </c>
       <c r="F266" t="s">
-        <v>389</v>
+        <v>467</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7052,16 +7109,16 @@
         <v>258</v>
       </c>
       <c r="C267" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D267" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="E267" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F267" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7072,16 +7129,16 @@
         <v>259</v>
       </c>
       <c r="C268" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D268" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="E268" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F268" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7092,16 +7149,16 @@
         <v>260</v>
       </c>
       <c r="C269" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D269" t="s">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="E269" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F269" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7112,16 +7169,16 @@
         <v>261</v>
       </c>
       <c r="C270" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D270" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="E270" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F270" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7132,16 +7189,16 @@
         <v>262</v>
       </c>
       <c r="C271" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D271" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="E271" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F271" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7152,16 +7209,16 @@
         <v>263</v>
       </c>
       <c r="C272" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D272" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E272" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="F272" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7169,19 +7226,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="C273" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D273" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="E273" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F273" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7189,19 +7246,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C274" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D274" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="E274" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F274" t="s">
-        <v>387</v>
+        <v>467</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7209,19 +7266,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C275" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D275" t="s">
-        <v>379</v>
+        <v>460</v>
       </c>
       <c r="E275" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="F275" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7229,19 +7286,19 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D276" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E276" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F276" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7249,19 +7306,19 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D277" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="E277" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F277" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7269,19 +7326,19 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D278" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="E278" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F278" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7289,19 +7346,19 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="C279" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D279" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E279" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F279" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7309,19 +7366,19 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="C280" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D280" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="E280" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F280" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7329,19 +7386,19 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C281" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D281" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E281" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F281" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7349,19 +7406,19 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C282" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D282" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="E282" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F282" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7369,19 +7426,19 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C283" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D283" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="E283" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F283" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7389,19 +7446,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C284" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D284" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="E284" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F284" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7409,19 +7466,19 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C285" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D285" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="E285" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F285" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7429,19 +7486,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C286" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D286" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="E286" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
       <c r="F286" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7449,19 +7506,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C287" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D287" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="E287" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="F287" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7469,19 +7526,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C288" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D288" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E288" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F288" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7489,19 +7546,19 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C289" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D289" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="E289" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F289" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7509,19 +7566,19 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C290" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D290" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E290" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F290" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7529,19 +7586,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C291" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D291" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E291" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F291" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7549,19 +7606,19 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C292" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D292" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="E292" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="F292" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7569,19 +7626,19 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C293" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D293" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E293" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F293" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7589,19 +7646,19 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C294" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D294" t="s">
-        <v>390</v>
+        <v>464</v>
       </c>
       <c r="E294" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F294" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7609,19 +7666,19 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C295" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D295" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E295" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F295" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7629,19 +7686,19 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C296" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D296" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="E296" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F296" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7649,19 +7706,19 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C297" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D297" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E297" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F297" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7669,19 +7726,19 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C298" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D298" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="E298" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="F298" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7689,19 +7746,19 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C299" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D299" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="E299" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="F299" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7709,19 +7766,19 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C300" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D300" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E300" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F300" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7729,19 +7786,19 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C301" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D301" t="s">
-        <v>385</v>
+        <v>466</v>
       </c>
       <c r="E301" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F301" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/data/네이트판.xlsx
+++ b/data/네이트판.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="488">
   <si>
     <t>제목</t>
   </si>
@@ -31,15 +31,87 @@
     <t>추천수</t>
   </si>
   <si>
+    <t>이제 자취하는게 맞는거지?</t>
+  </si>
+  <si>
+    <t>간호사랑 간호조무가 같은건가요?</t>
+  </si>
+  <si>
+    <t>카카오 닉넴 ㅊㅊ좀</t>
+  </si>
+  <si>
+    <t>코로나 검사 받고 학교</t>
+  </si>
+  <si>
+    <t>코로나 검사 받고 결과 나오면 다음 날에 학교 바로 가도 되는 거죠??</t>
+  </si>
+  <si>
+    <t>22수능 후기</t>
+  </si>
+  <si>
+    <t>생윤 47이면 몇등급일까아</t>
+  </si>
+  <si>
+    <t>수능 ㅈ망하고 우는중</t>
+  </si>
+  <si>
+    <t>건조한 피부관리 추천해주세요</t>
+  </si>
+  <si>
+    <t>나 작년까지 삼수해서 몰랐는데</t>
+  </si>
+  <si>
+    <t>수능 끝났는데 엄마때문에</t>
+  </si>
+  <si>
+    <t>중학생이나 고등학생 있으면 질문 좀 봐줘 ㅠ</t>
+  </si>
+  <si>
+    <t>생명러들아 난이도 어땠니</t>
+  </si>
+  <si>
+    <t>30대 소개팅어플</t>
+  </si>
+  <si>
+    <t>자식한테 돈달라고 하는게 당연한 엄마</t>
+  </si>
+  <si>
+    <t>도박하는 남자와 여자.</t>
+  </si>
+  <si>
+    <t>포카 뽁뽁이 없어도 괜찮아??</t>
+  </si>
+  <si>
+    <t>수능 친 고3들아 수능 어땠어?</t>
+  </si>
+  <si>
+    <t>아 나 너무 쪽팔려 단어가 생각이안나...</t>
+  </si>
+  <si>
+    <t>비밀?로하라고제자들께명령/마태19장7절</t>
+  </si>
+  <si>
+    <t>예수는타볼산에내려온 그 구름(UFO)를</t>
+  </si>
+  <si>
+    <t>당선가능성윤석열52%재명37%~윤 과반수넘어</t>
+  </si>
+  <si>
+    <t>내 동생 개웃김</t>
+  </si>
+  <si>
+    <t>대졸과 고졸공무원 ㅊㅂ</t>
+  </si>
+  <si>
+    <t>학교에서 밀접 접촉라랍니다</t>
+  </si>
+  <si>
     <t>저녁 뭐 먹을지 고민이네요</t>
   </si>
   <si>
     <t>인터넷 쇼핑  부분 배송시 반품 기간은 어떻게 되나요?</t>
   </si>
   <si>
-    <t>언니년 ㅈㄴ싫다</t>
-  </si>
-  <si>
     <t>수능 본사람…제발 이것좀봐줘</t>
   </si>
   <si>
@@ -121,9 +193,6 @@
     <t>쿠팡 배송 해본사람 ㅈㅂ</t>
   </si>
   <si>
-    <t>인생책 추천 부탁해요</t>
-  </si>
-  <si>
     <t>파리바게x 빵 겉면에 묻은 흰가루</t>
   </si>
   <si>
@@ -160,9 +229,6 @@
     <t>아이브 리즈</t>
   </si>
   <si>
-    <t>내친구</t>
-  </si>
-  <si>
     <t>선배들에게 사랑받는 성훈</t>
   </si>
   <si>
@@ -397,9 +463,6 @@
     <t>썸남한테 여우짓 하는 ㄴ</t>
   </si>
   <si>
-    <t>어장 치는 놈이랑 썸</t>
-  </si>
-  <si>
     <t>하</t>
   </si>
   <si>
@@ -823,67 +886,73 @@
     <t>너무슬퍼새책쪼개기싫어 힘들게돈번거로샀고</t>
   </si>
   <si>
-    <t>나 인스타 초보인데 질문있어</t>
-  </si>
-  <si>
-    <t>아니 도대체 어떻게 해야할까요</t>
-  </si>
-  <si>
-    <t>211117</t>
-  </si>
-  <si>
-    <t>ㅠㅠ</t>
-  </si>
-  <si>
-    <t>클레멘스13</t>
-  </si>
-  <si>
-    <t>인생은 원래 혼자라는데 진짜인가요?</t>
-  </si>
-  <si>
-    <t>인노첸시오10</t>
-  </si>
-  <si>
-    <t>재산분할</t>
-  </si>
-  <si>
-    <t>살다살다 이런놈은</t>
-  </si>
-  <si>
-    <t>우르바노8세</t>
-  </si>
-  <si>
-    <t>월세 보증금 안돌려주면 신고 가능한가요?</t>
-  </si>
-  <si>
-    <t>업소녀와 사랑 어떻게 생각하세요?</t>
-  </si>
-  <si>
-    <t>권용기 컴팩트 강의 다들엇믄데</t>
-  </si>
-  <si>
-    <t>더보이즈 주연 현재 정병퇴치 짤털</t>
-  </si>
-  <si>
-    <t>수능 너무 떨려요. ㅠ 응원해주세요 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>아 정도면 비만임?</t>
-  </si>
-  <si>
-    <t>다들 애완동물 무지개 다리 건널때 신기한 경험있어?</t>
-  </si>
-  <si>
-    <t>내 짝남 여친생김 근데</t>
-  </si>
-  <si>
-    <t>이거 썸인가?</t>
-  </si>
-  <si>
-    <t>고깃집알바 많이 힘들어??</t>
-  </si>
-  <si>
-    <t>그냥 한 사람의 힘겨웠던 인생</t>
+    <t>2021.11.18 18:50</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:39</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:24</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:19</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:13</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:04</t>
+  </si>
+  <si>
+    <t>2021.11.18 18:01</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:50</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:45</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:23</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:19</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:15</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:58</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:50</t>
   </si>
   <si>
     <t>2021.11.18 16:17</t>
@@ -892,9 +961,6 @@
     <t>2021.11.18 15:46</t>
   </si>
   <si>
-    <t>2021.11.18 15:36</t>
-  </si>
-  <si>
     <t>2021.11.18 15:32</t>
   </si>
   <si>
@@ -970,9 +1036,6 @@
     <t>2021.11.18 12:49</t>
   </si>
   <si>
-    <t>2021.11.18 12:38</t>
-  </si>
-  <si>
     <t>2021.11.18 12:36</t>
   </si>
   <si>
@@ -1165,262 +1228,256 @@
     <t>2021.11.17</t>
   </si>
   <si>
-    <t>2021.11.16</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>6</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>20</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>564</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>14,910</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1,005</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>7,039</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>2,239</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>8,059</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
   <si>
     <t>118</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>475</t>
+    <t>290</t>
+  </si>
+  <si>
+    <t>5,823</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>43</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>10,143</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>5,286</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1,966</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>6,221</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>4,267</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>8,835</t>
-  </si>
-  <si>
-    <t>716</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>928</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1812,13 +1869,13 @@
         <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="E2" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1832,13 +1889,13 @@
         <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1849,16 +1906,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="E4" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F4" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1869,16 +1926,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F5" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1889,16 +1946,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F6" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1909,16 +1966,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1929,16 +1986,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E8" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F8" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1949,16 +2006,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="E9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1969,16 +2026,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F10" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1989,16 +2046,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F11" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2009,16 +2066,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="E12" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F12" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2029,16 +2086,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="E13" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F13" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2049,16 +2106,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E14" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F14" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2069,16 +2126,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="E15" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F15" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2089,16 +2146,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D16" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="E16" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F16" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2109,16 +2166,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D17" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F17" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2129,16 +2186,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="E18" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F18" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2149,16 +2206,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="E19" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F19" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2169,16 +2226,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D20" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E20" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F20" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2189,16 +2246,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D21" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F21" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2209,16 +2266,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D22" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="E22" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F22" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2229,16 +2286,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D23" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="E23" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F23" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2249,16 +2306,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D24" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="E24" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F24" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2269,16 +2326,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F25" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2289,16 +2346,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D26" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="E26" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F26" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2309,16 +2366,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D27" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="E27" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F27" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2329,16 +2386,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="E28" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F28" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2352,13 +2409,13 @@
         <v>315</v>
       </c>
       <c r="D29" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="E29" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F29" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2372,13 +2429,13 @@
         <v>316</v>
       </c>
       <c r="D30" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E30" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F30" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2392,13 +2449,13 @@
         <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="E31" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F31" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2412,13 +2469,13 @@
         <v>318</v>
       </c>
       <c r="D32" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="E32" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F32" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2432,13 +2489,13 @@
         <v>319</v>
       </c>
       <c r="D33" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="E33" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F33" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2452,13 +2509,13 @@
         <v>320</v>
       </c>
       <c r="D34" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="E34" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F34" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2472,13 +2529,13 @@
         <v>321</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="E35" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="F35" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2492,13 +2549,13 @@
         <v>322</v>
       </c>
       <c r="D36" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="E36" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F36" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2512,13 +2569,13 @@
         <v>323</v>
       </c>
       <c r="D37" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="E37" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F37" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2529,16 +2586,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D38" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E38" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F38" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2549,16 +2606,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D39" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="E39" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F39" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2569,16 +2626,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D40" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="E40" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F40" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2589,16 +2646,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D41" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="E41" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="F41" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2609,16 +2666,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D42" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="E42" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F42" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2629,16 +2686,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D43" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E43" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F43" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2649,16 +2706,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D44" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E44" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2669,16 +2726,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D45" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="E45" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F45" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2689,16 +2746,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D46" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="E46" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F46" t="s">
-        <v>387</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2709,16 +2766,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D47" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="E47" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F47" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2729,16 +2786,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D48" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="E48" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F48" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2749,16 +2806,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D49" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E49" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F49" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2769,16 +2826,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D50" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="E50" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="F50" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2789,16 +2846,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D51" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="E51" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F51" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2809,16 +2866,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D52" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="E52" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F52" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2832,13 +2889,13 @@
         <v>337</v>
       </c>
       <c r="D53" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E53" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F53" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2852,13 +2909,13 @@
         <v>338</v>
       </c>
       <c r="D54" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="E54" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F54" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2872,13 +2929,13 @@
         <v>339</v>
       </c>
       <c r="D55" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="E55" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F55" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2892,13 +2949,13 @@
         <v>340</v>
       </c>
       <c r="D56" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E56" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F56" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2909,16 +2966,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D57" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="E57" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F57" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2929,16 +2986,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D58" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E58" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F58" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2946,19 +3003,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D59" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="E59" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F59" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2966,19 +3023,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D60" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="E60" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F60" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2986,19 +3043,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
         <v>344</v>
       </c>
       <c r="D61" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="E61" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F61" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3006,19 +3063,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>345</v>
       </c>
       <c r="D62" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E62" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F62" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3026,19 +3083,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>346</v>
       </c>
       <c r="D63" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="E63" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F63" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3046,19 +3103,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>347</v>
       </c>
       <c r="D64" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="E64" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F64" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3066,19 +3123,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>348</v>
       </c>
       <c r="D65" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E65" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F65" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3086,19 +3143,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
         <v>349</v>
       </c>
       <c r="D66" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E66" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F66" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3106,19 +3163,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
         <v>350</v>
       </c>
       <c r="D67" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="E67" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F67" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3126,19 +3183,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D68" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="E68" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F68" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3146,19 +3203,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D69" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="E69" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F69" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3166,19 +3223,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D70" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="E70" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F70" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3186,19 +3243,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D71" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="E71" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F71" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3206,19 +3263,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D72" t="s">
         <v>419</v>
       </c>
       <c r="E72" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F72" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3226,19 +3283,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D73" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="E73" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F73" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3246,19 +3303,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D74" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="E74" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F74" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3266,19 +3323,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D75" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E75" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F75" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3286,19 +3343,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D76" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E76" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F76" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3306,19 +3363,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D77" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="E77" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F77" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3326,19 +3383,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D78" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="E78" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="F78" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3346,19 +3403,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D79" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E79" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F79" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3366,19 +3423,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E80" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F80" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3386,19 +3443,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D81" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E81" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F81" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3406,19 +3463,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D82" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="E82" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F82" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3426,19 +3483,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D83" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="E83" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F83" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3446,19 +3503,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D84" t="s">
         <v>425</v>
       </c>
       <c r="E84" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F84" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3466,19 +3523,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D85" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E85" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F85" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3486,19 +3543,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D86" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="E86" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F86" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3506,19 +3563,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D87" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="E87" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F87" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3526,19 +3583,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D88" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="E88" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F88" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3546,19 +3603,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D89" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="E89" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F89" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3566,19 +3623,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D90" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="E90" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F90" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3586,19 +3643,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D91" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="E91" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F91" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3606,19 +3663,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D92" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E92" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F92" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3626,19 +3683,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D93" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E93" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F93" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3646,19 +3703,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D94" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="E94" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F94" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3666,19 +3723,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D95" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="E95" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="F95" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3686,19 +3743,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D96" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="E96" t="s">
-        <v>395</v>
+        <v>486</v>
       </c>
       <c r="F96" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3706,19 +3763,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D97" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="E97" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F97" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3726,19 +3783,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D98" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="E98" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F98" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3746,19 +3803,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D99" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="E99" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F99" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3766,19 +3823,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D100" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E100" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F100" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3786,19 +3843,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D101" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="E101" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F101" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3806,19 +3863,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D102" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="E102" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F102" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3826,19 +3883,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D103" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="E103" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F103" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3846,19 +3903,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D104" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="E104" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F104" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3866,19 +3923,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D105" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="E105" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F105" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3886,19 +3943,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D106" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="E106" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F106" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3906,19 +3963,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D107" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="E107" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F107" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3929,16 +3986,16 @@
         <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D108" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="E108" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F108" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3946,19 +4003,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D109" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="E109" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F109" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3966,19 +4023,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C110" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D110" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="E110" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F110" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3986,19 +4043,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D111" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="E111" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F111" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4006,19 +4063,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D112" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="E112" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F112" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4026,19 +4083,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D113" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="E113" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F113" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4046,19 +4103,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D114" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="E114" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="F114" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4066,19 +4123,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D115" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E115" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F115" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4086,19 +4143,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C116" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D116" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="E116" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F116" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4106,19 +4163,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C117" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D117" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="E117" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F117" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4126,19 +4183,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C118" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D118" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="E118" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="F118" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4146,19 +4203,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C119" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D119" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E119" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F119" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4166,19 +4223,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="C120" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D120" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="E120" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F120" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4189,16 +4246,16 @@
         <v>113</v>
       </c>
       <c r="C121" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D121" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="E121" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F121" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4209,16 +4266,16 @@
         <v>114</v>
       </c>
       <c r="C122" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="D122" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="E122" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F122" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4229,16 +4286,16 @@
         <v>115</v>
       </c>
       <c r="C123" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="D123" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="E123" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F123" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4249,16 +4306,16 @@
         <v>116</v>
       </c>
       <c r="C124" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="D124" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="E124" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F124" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4269,16 +4326,16 @@
         <v>117</v>
       </c>
       <c r="C125" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="D125" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="E125" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F125" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4289,16 +4346,16 @@
         <v>118</v>
       </c>
       <c r="C126" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D126" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="E126" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="F126" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4309,16 +4366,16 @@
         <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D127" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E127" t="s">
-        <v>395</v>
+        <v>486</v>
       </c>
       <c r="F127" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4329,16 +4386,16 @@
         <v>120</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D128" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="E128" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F128" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4349,16 +4406,16 @@
         <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D129" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="E129" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F129" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4369,16 +4426,16 @@
         <v>122</v>
       </c>
       <c r="C130" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D130" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E130" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F130" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4389,16 +4446,16 @@
         <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D131" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="E131" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F131" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4409,16 +4466,16 @@
         <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D132" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="E132" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F132" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4429,16 +4486,16 @@
         <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D133" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E133" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F133" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4449,16 +4506,16 @@
         <v>126</v>
       </c>
       <c r="C134" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D134" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E134" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F134" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4469,16 +4526,16 @@
         <v>127</v>
       </c>
       <c r="C135" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D135" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="E135" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F135" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4489,16 +4546,16 @@
         <v>128</v>
       </c>
       <c r="C136" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D136" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="E136" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="F136" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4509,16 +4566,16 @@
         <v>129</v>
       </c>
       <c r="C137" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D137" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="E137" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="F137" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4529,16 +4586,16 @@
         <v>130</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D138" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E138" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="F138" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4549,16 +4606,16 @@
         <v>131</v>
       </c>
       <c r="C139" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D139" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="E139" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F139" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4569,16 +4626,16 @@
         <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D140" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="E140" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F140" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4589,16 +4646,16 @@
         <v>133</v>
       </c>
       <c r="C141" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D141" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="E141" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F141" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4606,19 +4663,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="C142" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D142" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="E142" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F142" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4626,19 +4683,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C143" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D143" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="E143" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F143" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4646,19 +4703,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C144" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D144" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="E144" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F144" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4666,19 +4723,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C145" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D145" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="E145" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F145" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4686,19 +4743,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C146" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D146" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="E146" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F146" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4706,19 +4763,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C147" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D147" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="E147" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F147" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4726,19 +4783,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C148" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D148" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="E148" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="F148" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4746,19 +4803,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C149" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D149" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="E149" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="F149" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4766,19 +4823,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C150" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D150" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="E150" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F150" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4786,19 +4843,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C151" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D151" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E151" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F151" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4806,19 +4863,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C152" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D152" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="E152" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F152" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4826,19 +4883,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D153" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="E153" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F153" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4846,19 +4903,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C154" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D154" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="E154" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F154" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4866,19 +4923,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C155" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D155" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="E155" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F155" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4886,19 +4943,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C156" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D156" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="E156" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F156" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4906,19 +4963,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C157" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D157" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E157" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F157" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4926,19 +4983,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C158" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D158" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="E158" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F158" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4946,19 +5003,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C159" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D159" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="E159" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F159" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4966,19 +5023,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C160" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D160" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="E160" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F160" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4986,19 +5043,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C161" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D161" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="E161" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F161" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5006,19 +5063,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C162" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D162" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E162" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F162" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5026,19 +5083,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D163" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E163" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F163" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5049,16 +5106,16 @@
         <v>155</v>
       </c>
       <c r="C164" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D164" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="E164" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F164" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5069,16 +5126,16 @@
         <v>156</v>
       </c>
       <c r="C165" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D165" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="E165" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F165" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5089,16 +5146,16 @@
         <v>157</v>
       </c>
       <c r="C166" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D166" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="E166" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F166" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5109,16 +5166,16 @@
         <v>158</v>
       </c>
       <c r="C167" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D167" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E167" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F167" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5129,16 +5186,16 @@
         <v>159</v>
       </c>
       <c r="C168" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D168" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="E168" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F168" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5149,16 +5206,16 @@
         <v>160</v>
       </c>
       <c r="C169" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D169" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="E169" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F169" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5169,16 +5226,16 @@
         <v>161</v>
       </c>
       <c r="C170" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D170" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="E170" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F170" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5189,16 +5246,16 @@
         <v>162</v>
       </c>
       <c r="C171" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D171" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="E171" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F171" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5209,16 +5266,16 @@
         <v>163</v>
       </c>
       <c r="C172" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D172" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="E172" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F172" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5229,16 +5286,16 @@
         <v>164</v>
       </c>
       <c r="C173" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D173" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F173" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5249,16 +5306,16 @@
         <v>165</v>
       </c>
       <c r="C174" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D174" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E174" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F174" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5269,16 +5326,16 @@
         <v>166</v>
       </c>
       <c r="C175" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D175" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="E175" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="F175" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5289,16 +5346,16 @@
         <v>167</v>
       </c>
       <c r="C176" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D176" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="E176" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F176" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5309,16 +5366,16 @@
         <v>168</v>
       </c>
       <c r="C177" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D177" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="E177" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F177" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5329,16 +5386,16 @@
         <v>169</v>
       </c>
       <c r="C178" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D178" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="E178" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F178" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5349,16 +5406,16 @@
         <v>170</v>
       </c>
       <c r="C179" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D179" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E179" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F179" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5369,16 +5426,16 @@
         <v>171</v>
       </c>
       <c r="C180" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D180" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="E180" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F180" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5389,16 +5446,16 @@
         <v>172</v>
       </c>
       <c r="C181" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D181" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="E181" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F181" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5409,16 +5466,16 @@
         <v>173</v>
       </c>
       <c r="C182" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D182" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="E182" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F182" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5429,16 +5486,16 @@
         <v>174</v>
       </c>
       <c r="C183" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D183" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="E183" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F183" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5449,16 +5506,16 @@
         <v>175</v>
       </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D184" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="E184" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F184" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5469,16 +5526,16 @@
         <v>176</v>
       </c>
       <c r="C185" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D185" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="E185" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F185" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5489,16 +5546,16 @@
         <v>177</v>
       </c>
       <c r="C186" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D186" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E186" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F186" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5509,16 +5566,16 @@
         <v>178</v>
       </c>
       <c r="C187" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D187" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="E187" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F187" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5529,16 +5586,16 @@
         <v>179</v>
       </c>
       <c r="C188" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D188" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E188" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F188" t="s">
-        <v>395</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5549,16 +5606,16 @@
         <v>180</v>
       </c>
       <c r="C189" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D189" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E189" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F189" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5569,16 +5626,16 @@
         <v>181</v>
       </c>
       <c r="C190" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D190" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="E190" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F190" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5589,16 +5646,16 @@
         <v>182</v>
       </c>
       <c r="C191" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D191" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E191" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F191" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5609,16 +5666,16 @@
         <v>183</v>
       </c>
       <c r="C192" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D192" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="E192" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F192" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5629,16 +5686,16 @@
         <v>184</v>
       </c>
       <c r="C193" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D193" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="E193" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5649,16 +5706,16 @@
         <v>185</v>
       </c>
       <c r="C194" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D194" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="E194" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F194" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5669,16 +5726,16 @@
         <v>186</v>
       </c>
       <c r="C195" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D195" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="E195" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F195" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5689,16 +5746,16 @@
         <v>187</v>
       </c>
       <c r="C196" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D196" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="E196" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5709,16 +5766,16 @@
         <v>188</v>
       </c>
       <c r="C197" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D197" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="E197" t="s">
-        <v>395</v>
+        <v>486</v>
       </c>
       <c r="F197" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5729,16 +5786,16 @@
         <v>189</v>
       </c>
       <c r="C198" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D198" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="E198" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5749,16 +5806,16 @@
         <v>190</v>
       </c>
       <c r="C199" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D199" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="E199" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F199" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5769,16 +5826,16 @@
         <v>191</v>
       </c>
       <c r="C200" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D200" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="E200" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F200" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5789,16 +5846,16 @@
         <v>192</v>
       </c>
       <c r="C201" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D201" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E201" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F201" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5809,16 +5866,16 @@
         <v>193</v>
       </c>
       <c r="C202" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D202" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E202" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F202" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5829,16 +5886,16 @@
         <v>194</v>
       </c>
       <c r="C203" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D203" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E203" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F203" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5849,16 +5906,16 @@
         <v>195</v>
       </c>
       <c r="C204" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D204" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="E204" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F204" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5869,16 +5926,16 @@
         <v>196</v>
       </c>
       <c r="C205" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D205" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="E205" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5889,16 +5946,16 @@
         <v>197</v>
       </c>
       <c r="C206" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D206" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E206" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F206" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5909,16 +5966,16 @@
         <v>198</v>
       </c>
       <c r="C207" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D207" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="E207" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F207" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5929,16 +5986,16 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D208" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="E208" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F208" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5949,16 +6006,16 @@
         <v>200</v>
       </c>
       <c r="C209" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D209" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E209" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="F209" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5969,16 +6026,16 @@
         <v>201</v>
       </c>
       <c r="C210" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D210" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="E210" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F210" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5989,16 +6046,16 @@
         <v>202</v>
       </c>
       <c r="C211" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D211" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E211" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F211" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6009,16 +6066,16 @@
         <v>203</v>
       </c>
       <c r="C212" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D212" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="E212" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F212" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6029,16 +6086,16 @@
         <v>204</v>
       </c>
       <c r="C213" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D213" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="E213" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F213" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6049,16 +6106,16 @@
         <v>205</v>
       </c>
       <c r="C214" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D214" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E214" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F214" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6069,16 +6126,16 @@
         <v>206</v>
       </c>
       <c r="C215" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D215" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="E215" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F215" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6089,16 +6146,16 @@
         <v>207</v>
       </c>
       <c r="C216" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D216" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="E216" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F216" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6109,16 +6166,16 @@
         <v>208</v>
       </c>
       <c r="C217" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D217" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="E217" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6129,16 +6186,16 @@
         <v>209</v>
       </c>
       <c r="C218" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D218" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="E218" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="F218" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6149,16 +6206,16 @@
         <v>210</v>
       </c>
       <c r="C219" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D219" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E219" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F219" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6169,16 +6226,16 @@
         <v>211</v>
       </c>
       <c r="C220" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D220" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="E220" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6189,16 +6246,16 @@
         <v>212</v>
       </c>
       <c r="C221" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D221" t="s">
         <v>414</v>
       </c>
       <c r="E221" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F221" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6209,16 +6266,16 @@
         <v>213</v>
       </c>
       <c r="C222" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D222" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E222" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F222" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6229,16 +6286,16 @@
         <v>214</v>
       </c>
       <c r="C223" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D223" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="E223" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F223" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6249,16 +6306,16 @@
         <v>215</v>
       </c>
       <c r="C224" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D224" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E224" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F224" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6269,16 +6326,16 @@
         <v>216</v>
       </c>
       <c r="C225" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D225" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="E225" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F225" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6289,16 +6346,16 @@
         <v>217</v>
       </c>
       <c r="C226" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D226" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="E226" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F226" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6309,16 +6366,16 @@
         <v>218</v>
       </c>
       <c r="C227" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D227" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E227" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F227" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6329,16 +6386,16 @@
         <v>219</v>
       </c>
       <c r="C228" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D228" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E228" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F228" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6349,16 +6406,16 @@
         <v>220</v>
       </c>
       <c r="C229" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D229" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="E229" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F229" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6369,16 +6426,16 @@
         <v>221</v>
       </c>
       <c r="C230" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D230" t="s">
-        <v>401</v>
+        <v>473</v>
       </c>
       <c r="E230" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F230" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6389,16 +6446,16 @@
         <v>222</v>
       </c>
       <c r="C231" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D231" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="E231" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F231" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6409,16 +6466,16 @@
         <v>223</v>
       </c>
       <c r="C232" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D232" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="E232" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F232" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6429,16 +6486,16 @@
         <v>224</v>
       </c>
       <c r="C233" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D233" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="E233" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F233" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6449,16 +6506,16 @@
         <v>225</v>
       </c>
       <c r="C234" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D234" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="F234" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6469,16 +6526,16 @@
         <v>226</v>
       </c>
       <c r="C235" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D235" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F235" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6489,16 +6546,16 @@
         <v>227</v>
       </c>
       <c r="C236" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D236" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F236" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6509,16 +6566,16 @@
         <v>228</v>
       </c>
       <c r="C237" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D237" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E237" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F237" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6529,16 +6586,16 @@
         <v>229</v>
       </c>
       <c r="C238" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D238" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="F238" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6549,16 +6606,16 @@
         <v>230</v>
       </c>
       <c r="C239" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D239" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F239" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6569,16 +6626,16 @@
         <v>231</v>
       </c>
       <c r="C240" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D240" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="E240" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="F240" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6589,16 +6646,16 @@
         <v>232</v>
       </c>
       <c r="C241" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D241" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F241" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6609,16 +6666,16 @@
         <v>233</v>
       </c>
       <c r="C242" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D242" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="F242" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6629,16 +6686,16 @@
         <v>234</v>
       </c>
       <c r="C243" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D243" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E243" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F243" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6649,16 +6706,16 @@
         <v>235</v>
       </c>
       <c r="C244" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D244" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="E244" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F244" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6669,16 +6726,16 @@
         <v>236</v>
       </c>
       <c r="C245" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D245" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F245" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6689,16 +6746,16 @@
         <v>237</v>
       </c>
       <c r="C246" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D246" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F246" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6709,16 +6766,16 @@
         <v>238</v>
       </c>
       <c r="C247" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D247" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F247" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6729,16 +6786,16 @@
         <v>239</v>
       </c>
       <c r="C248" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D248" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F248" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6749,16 +6806,16 @@
         <v>240</v>
       </c>
       <c r="C249" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D249" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="E249" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6769,16 +6826,16 @@
         <v>241</v>
       </c>
       <c r="C250" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D250" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F250" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6789,16 +6846,16 @@
         <v>242</v>
       </c>
       <c r="C251" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D251" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E251" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F251" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6809,16 +6866,16 @@
         <v>243</v>
       </c>
       <c r="C252" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D252" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F252" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6829,16 +6886,16 @@
         <v>244</v>
       </c>
       <c r="C253" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D253" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="E253" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F253" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6849,16 +6906,16 @@
         <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D254" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F254" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6869,16 +6926,16 @@
         <v>246</v>
       </c>
       <c r="C255" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D255" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E255" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F255" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6889,16 +6946,16 @@
         <v>247</v>
       </c>
       <c r="C256" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D256" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E256" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F256" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6909,16 +6966,16 @@
         <v>248</v>
       </c>
       <c r="C257" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D257" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="E257" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F257" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6929,16 +6986,16 @@
         <v>249</v>
       </c>
       <c r="C258" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D258" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="E258" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F258" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6949,16 +7006,16 @@
         <v>250</v>
       </c>
       <c r="C259" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D259" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="E259" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F259" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6969,16 +7026,16 @@
         <v>251</v>
       </c>
       <c r="C260" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D260" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="E260" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F260" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6989,16 +7046,16 @@
         <v>252</v>
       </c>
       <c r="C261" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D261" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="E261" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="F261" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7009,16 +7066,16 @@
         <v>253</v>
       </c>
       <c r="C262" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D262" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E262" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="F262" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7029,16 +7086,16 @@
         <v>254</v>
       </c>
       <c r="C263" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D263" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="E263" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F263" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7049,16 +7106,16 @@
         <v>255</v>
       </c>
       <c r="C264" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D264" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="E264" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F264" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7069,16 +7126,16 @@
         <v>256</v>
       </c>
       <c r="C265" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D265" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="E265" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F265" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7089,16 +7146,16 @@
         <v>257</v>
       </c>
       <c r="C266" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D266" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="E266" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F266" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7109,16 +7166,16 @@
         <v>258</v>
       </c>
       <c r="C267" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D267" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="E267" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F267" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7129,16 +7186,16 @@
         <v>259</v>
       </c>
       <c r="C268" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D268" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="E268" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F268" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7149,16 +7206,16 @@
         <v>260</v>
       </c>
       <c r="C269" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D269" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E269" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F269" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7169,16 +7226,16 @@
         <v>261</v>
       </c>
       <c r="C270" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D270" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="E270" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F270" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7189,16 +7246,16 @@
         <v>262</v>
       </c>
       <c r="C271" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D271" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="E271" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F271" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7209,16 +7266,16 @@
         <v>263</v>
       </c>
       <c r="C272" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D272" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E272" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F272" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7226,19 +7283,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="C273" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D273" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="E273" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F273" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7246,19 +7303,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C274" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D274" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="E274" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F274" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7266,19 +7323,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C275" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D275" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="E275" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="F275" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7286,19 +7343,19 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C276" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D276" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="E276" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F276" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7306,19 +7363,19 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C277" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D277" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="E277" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F277" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7326,19 +7383,19 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C278" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D278" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="E278" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F278" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7346,19 +7403,19 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="C279" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D279" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="E279" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F279" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7366,19 +7423,19 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="C280" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D280" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="E280" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F280" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7386,19 +7443,19 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C281" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D281" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="E281" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F281" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7406,19 +7463,19 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C282" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D282" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E282" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F282" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7426,19 +7483,19 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C283" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D283" t="s">
+        <v>482</v>
+      </c>
+      <c r="E283" t="s">
+        <v>406</v>
+      </c>
+      <c r="F283" t="s">
         <v>411</v>
-      </c>
-      <c r="E283" t="s">
-        <v>467</v>
-      </c>
-      <c r="F283" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7446,19 +7503,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C284" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D284" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="E284" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F284" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7466,19 +7523,19 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C285" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D285" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="E285" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F285" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7486,19 +7543,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C286" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D286" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="E286" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
       <c r="F286" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7506,19 +7563,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C287" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D287" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="E287" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F287" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7526,19 +7583,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C288" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D288" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="E288" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F288" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7546,19 +7603,19 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C289" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D289" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="E289" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F289" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7566,19 +7623,19 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C290" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D290" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="E290" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F290" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7586,19 +7643,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C291" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D291" t="s">
-        <v>396</v>
+        <v>484</v>
       </c>
       <c r="E291" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="F291" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7606,19 +7663,19 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C292" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D292" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="E292" t="s">
-        <v>391</v>
+        <v>486</v>
       </c>
       <c r="F292" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7626,19 +7683,19 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C293" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D293" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="E293" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F293" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7646,19 +7703,19 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c r="C294" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D294" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="E294" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F294" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7666,19 +7723,19 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C295" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D295" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="E295" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F295" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7686,19 +7743,19 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C296" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D296" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
       <c r="E296" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="F296" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7706,19 +7763,19 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C297" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D297" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="E297" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F297" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7726,19 +7783,19 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C298" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D298" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="E298" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F298" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7746,19 +7803,19 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C299" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D299" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E299" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F299" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7766,19 +7823,19 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="C300" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D300" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="E300" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F300" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7786,19 +7843,19 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="C301" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D301" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E301" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F301" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
